--- a/JsonPretty Feature Matrix.xlsx
+++ b/JsonPretty Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="120">
   <si>
     <t>Feature</t>
   </si>
@@ -603,49 +603,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -705,7 +663,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955202"/>
+          <c:w val="0.91978071330955213"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -738,10 +696,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$59</c:f>
+              <c:f>Progress!$A$48:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -776,17 +734,20 @@
                   <c:v>42889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42896</c:v>
+                  <c:v>42897</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$59</c:f>
+              <c:f>Progress!$B$48:$B$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -821,6 +782,9 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
@@ -854,10 +818,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$59</c:f>
+              <c:f>Progress!$A$48:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -892,17 +856,20 @@
                   <c:v>42889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42896</c:v>
+                  <c:v>42897</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$59</c:f>
+              <c:f>Progress!$C$48:$C$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -937,6 +904,9 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
@@ -970,10 +940,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$59</c:f>
+              <c:f>Progress!$A$48:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -1008,17 +978,20 @@
                   <c:v>42889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42896</c:v>
+                  <c:v>42897</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$59</c:f>
+              <c:f>Progress!$D$48:$D$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1053,6 +1026,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1086,9 +1062,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$47:$A$59</c:f>
+              <c:f>Progress!$A$47:$A$60</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Date</c:v>
                 </c:pt>
@@ -1126,17 +1102,20 @@
                   <c:v>2017-06-03</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2017-06-10</c:v>
+                  <c:v>2017-06-11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017-06-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$59</c:f>
+              <c:f>Progress!$E$48:$E$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1171,17 +1150,20 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="130657664"/>
-        <c:axId val="130421888"/>
+        <c:axId val="133930368"/>
+        <c:axId val="133637248"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="130657664"/>
+        <c:axId val="133930368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1214,7 +1196,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130421888"/>
+        <c:crossAx val="133637248"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1222,7 +1204,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="130421888"/>
+        <c:axId val="133637248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1264,7 +1246,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130657664"/>
+        <c:crossAx val="133930368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1286,8 +1268,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.2637362637362637E-2"/>
-          <c:y val="0.37277147487844586"/>
+          <c:x val="4.3735105630880108E-2"/>
+          <c:y val="0.24095083738519718"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1354,7 +1336,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001377" r="0.75000000000001377" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001388" r="0.75000000000001388" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1408,7 +1390,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127567E-2"/>
+          <c:x val="4.4510450248127581E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1443,10 +1425,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$59</c:f>
+              <c:f>Progress!$A$48:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -1481,17 +1463,20 @@
                   <c:v>42889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42896</c:v>
+                  <c:v>42897</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$59</c:f>
+              <c:f>Progress!$G$48:$G$60</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1526,17 +1511,20 @@
                   <c:v>0.46987951807228917</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.42857142857142855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="130449792"/>
-        <c:axId val="130451328"/>
+        <c:axId val="133661056"/>
+        <c:axId val="133662592"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="130449792"/>
+        <c:axId val="133661056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,13 +1532,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="130451328"/>
+        <c:crossAx val="133662592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="130451328"/>
+        <c:axId val="133662592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1593,7 +1581,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130449792"/>
+        <c:crossAx val="133661056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1642,7 +1630,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001377" r="0.75000000000001377" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001388" r="0.75000000000001388" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1693,10 +1681,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$59</c:f>
+              <c:f>Progress!$A$48:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -1731,17 +1719,20 @@
                   <c:v>42889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42896</c:v>
+                  <c:v>42897</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$59</c:f>
+              <c:f>Progress!$C$48:$C$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1776,6 +1767,9 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
@@ -1809,10 +1803,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$59</c:f>
+              <c:f>Progress!$A$48:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -1847,17 +1841,20 @@
                   <c:v>42889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42896</c:v>
+                  <c:v>42897</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$59</c:f>
+              <c:f>Progress!$D$48:$D$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1892,17 +1889,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="130480384"/>
-        <c:axId val="148373504"/>
+        <c:axId val="133691648"/>
+        <c:axId val="134217728"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="130480384"/>
+        <c:axId val="133691648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1935,14 +1935,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148373504"/>
+        <c:crossAx val="134217728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:minorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="148373504"/>
+        <c:axId val="134217728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,7 +1984,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130480384"/>
+        <c:crossAx val="133691648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2033,7 +2033,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001377" r="0.75000000000001377" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001388" r="0.75000000000001388" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2083,7 +2083,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3649,12 +3649,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT873"/>
+  <dimension ref="A1:IT874"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O6" sqref="O6"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3983,7 +3983,7 @@
         <v>82</v>
       </c>
       <c r="G51" s="30">
-        <f t="shared" ref="G51:G58" si="2">B51/SUM(B51:E51)</f>
+        <f t="shared" ref="G51:G59" si="2">B51/SUM(B51:E51)</f>
         <v>0.37313432835820898</v>
       </c>
       <c r="H51" s="7"/>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="48">
-        <v>42896</v>
+        <v>42897</v>
       </c>
       <c r="B59" s="4">
         <v>42</v>
@@ -4183,19 +4183,34 @@
         <v>113</v>
       </c>
       <c r="G59" s="30">
-        <f t="shared" ref="G59" si="3">B59/SUM(B59:E59)</f>
+        <f t="shared" si="2"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="49"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="30"/>
+      <c r="A60" s="48">
+        <v>42897</v>
+      </c>
+      <c r="B60" s="4">
+        <v>42</v>
+      </c>
+      <c r="C60" s="4">
+        <v>51</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>5</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="G60" s="30">
+        <f t="shared" ref="G60" si="3">B60/SUM(B60:E60)</f>
+        <v>0.42857142857142855</v>
+      </c>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:11">
@@ -4204,83 +4219,83 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="31"/>
+      <c r="F61" s="28"/>
       <c r="G61" s="30"/>
       <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="49"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B63" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D63" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E63" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="F63" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="38">
-        <f>MIN(G59)</f>
+      <c r="G63" s="38">
+        <f>MIN(G60)</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="39">
-        <f>SUM(B63:D63)</f>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="39">
+        <f>SUM(B64:D64)</f>
         <v>93</v>
       </c>
-      <c r="B63" s="15">
+      <c r="B64" s="15">
         <f>Features!C135</f>
         <v>42</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C64" s="16">
         <f>Features!C136</f>
         <v>51</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D64" s="17">
         <f>Features!C137</f>
         <v>0</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E64" s="18">
         <v>5</v>
       </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="4"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="30"/>
       <c r="H64" s="7"/>
-      <c r="J64" s="36"/>
-    </row>
-    <row r="65" spans="1:8">
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="30"/>
       <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="J65" s="36"/>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="4"/>
-      <c r="B66" s="19"/>
+      <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -4288,14 +4303,9 @@
       <c r="G66" s="30"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="B67" s="51">
-        <f>A48+A63/B63*(A59-A48)</f>
-        <v>43007.714285714283</v>
-      </c>
+    <row r="67" spans="1:10">
+      <c r="A67" s="4"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -4303,9 +4313,14 @@
       <c r="G67" s="30"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
+    <row r="68" spans="1:10">
+      <c r="A68" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" s="51">
+        <f>A48+(A60-A48)*A64/B64</f>
+        <v>43009.928571428572</v>
+      </c>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -4313,9 +4328,9 @@
       <c r="G68" s="30"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:10">
       <c r="A69" s="4"/>
-      <c r="B69" s="19"/>
+      <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -4323,7 +4338,7 @@
       <c r="G69" s="30"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:10">
       <c r="A70" s="4"/>
       <c r="B70" s="19"/>
       <c r="C70" s="4"/>
@@ -4333,9 +4348,9 @@
       <c r="G70" s="30"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:10">
       <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
+      <c r="B71" s="19"/>
       <c r="C71" s="4"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -4343,7 +4358,7 @@
       <c r="G71" s="30"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:10">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -4353,9 +4368,9 @@
       <c r="G72" s="30"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:10">
       <c r="A73" s="4"/>
-      <c r="B73" s="7"/>
+      <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -4363,9 +4378,9 @@
       <c r="G73" s="30"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:10">
       <c r="A74" s="4"/>
-      <c r="B74" s="20"/>
+      <c r="B74" s="7"/>
       <c r="C74" s="4"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -4373,7 +4388,7 @@
       <c r="G74" s="30"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:10">
       <c r="A75" s="4"/>
       <c r="B75" s="20"/>
       <c r="C75" s="4"/>
@@ -4383,8 +4398,8 @@
       <c r="G75" s="30"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="7"/>
+    <row r="76" spans="1:10">
+      <c r="A76" s="4"/>
       <c r="B76" s="20"/>
       <c r="C76" s="4"/>
       <c r="D76" s="7"/>
@@ -4393,9 +4408,9 @@
       <c r="G76" s="30"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:10">
       <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="4"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -4403,7 +4418,7 @@
       <c r="G77" s="30"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:10">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="4"/>
@@ -4413,7 +4428,7 @@
       <c r="G78" s="30"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:10">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="4"/>
@@ -4423,7 +4438,7 @@
       <c r="G79" s="30"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:10">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="4"/>
@@ -4526,7 +4541,7 @@
     <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
+      <c r="C90" s="4"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -4535,7 +4550,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="7"/>
-      <c r="B91" s="6"/>
+      <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -4543,15 +4558,15 @@
       <c r="G91" s="30"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" s="2" customFormat="1">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="4"/>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="7"/>
     </row>
     <row r="93" spans="1:8" s="2" customFormat="1">
       <c r="A93" s="4"/>
@@ -4725,7 +4740,7 @@
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1">
       <c r="A110" s="4"/>
-      <c r="B110" s="6"/>
+      <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -4735,7 +4750,7 @@
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
+      <c r="B111" s="6"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -4765,7 +4780,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="19"/>
+      <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -4805,7 +4820,7 @@
     </row>
     <row r="118" spans="1:8" s="2" customFormat="1">
       <c r="A118" s="4"/>
-      <c r="B118" s="21"/>
+      <c r="B118" s="19"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -4815,7 +4830,7 @@
     </row>
     <row r="119" spans="1:8" s="2" customFormat="1">
       <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -4825,7 +4840,7 @@
     </row>
     <row r="120" spans="1:8" s="2" customFormat="1">
       <c r="A120" s="4"/>
-      <c r="B120" s="6"/>
+      <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -4835,7 +4850,7 @@
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1">
       <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
+      <c r="B121" s="6"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -4845,7 +4860,7 @@
     </row>
     <row r="122" spans="1:8" s="2" customFormat="1">
       <c r="A122" s="4"/>
-      <c r="B122" s="19"/>
+      <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -4865,7 +4880,7 @@
     </row>
     <row r="124" spans="1:8" s="2" customFormat="1">
       <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
+      <c r="B124" s="19"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -4925,7 +4940,7 @@
     </row>
     <row r="130" spans="1:8" s="2" customFormat="1">
       <c r="A130" s="4"/>
-      <c r="B130" s="19"/>
+      <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -5025,7 +5040,7 @@
     </row>
     <row r="140" spans="1:8" s="2" customFormat="1">
       <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
+      <c r="B140" s="19"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -5075,7 +5090,7 @@
     </row>
     <row r="145" spans="1:254" s="2" customFormat="1">
       <c r="A145" s="4"/>
-      <c r="B145" s="19"/>
+      <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -5095,7 +5110,7 @@
     </row>
     <row r="147" spans="1:254" s="2" customFormat="1">
       <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
+      <c r="B147" s="19"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -5134,284 +5149,284 @@
       <c r="H150" s="4"/>
     </row>
     <row r="151" spans="1:254" s="2" customFormat="1">
-      <c r="A151" s="21"/>
-      <c r="B151" s="21"/>
-      <c r="C151" s="21"/>
-      <c r="D151" s="21"/>
-      <c r="E151" s="21"/>
-      <c r="F151" s="21"/>
-      <c r="G151" s="35"/>
-      <c r="H151" s="21"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5"/>
-      <c r="K151" s="5"/>
-      <c r="L151" s="5"/>
-      <c r="M151" s="5"/>
-      <c r="N151" s="5"/>
-      <c r="O151" s="5"/>
-      <c r="P151" s="5"/>
-      <c r="Q151" s="5"/>
-      <c r="R151" s="5"/>
-      <c r="S151" s="5"/>
-      <c r="T151" s="5"/>
-      <c r="U151" s="5"/>
-      <c r="V151" s="5"/>
-      <c r="W151" s="5"/>
-      <c r="X151" s="5"/>
-      <c r="Y151" s="5"/>
-      <c r="Z151" s="5"/>
-      <c r="AA151" s="5"/>
-      <c r="AB151" s="5"/>
-      <c r="AC151" s="5"/>
-      <c r="AD151" s="5"/>
-      <c r="AE151" s="5"/>
-      <c r="AF151" s="5"/>
-      <c r="AG151" s="5"/>
-      <c r="AH151" s="5"/>
-      <c r="AI151" s="5"/>
-      <c r="AJ151" s="5"/>
-      <c r="AK151" s="5"/>
-      <c r="AL151" s="5"/>
-      <c r="AM151" s="5"/>
-      <c r="AN151" s="5"/>
-      <c r="AO151" s="5"/>
-      <c r="AP151" s="5"/>
-      <c r="AQ151" s="5"/>
-      <c r="AR151" s="5"/>
-      <c r="AS151" s="5"/>
-      <c r="AT151" s="5"/>
-      <c r="AU151" s="5"/>
-      <c r="AV151" s="5"/>
-      <c r="AW151" s="5"/>
-      <c r="AX151" s="5"/>
-      <c r="AY151" s="5"/>
-      <c r="AZ151" s="5"/>
-      <c r="BA151" s="5"/>
-      <c r="BB151" s="5"/>
-      <c r="BC151" s="5"/>
-      <c r="BD151" s="5"/>
-      <c r="BE151" s="5"/>
-      <c r="BF151" s="5"/>
-      <c r="BG151" s="5"/>
-      <c r="BH151" s="5"/>
-      <c r="BI151" s="5"/>
-      <c r="BJ151" s="5"/>
-      <c r="BK151" s="5"/>
-      <c r="BL151" s="5"/>
-      <c r="BM151" s="5"/>
-      <c r="BN151" s="5"/>
-      <c r="BO151" s="5"/>
-      <c r="BP151" s="5"/>
-      <c r="BQ151" s="5"/>
-      <c r="BR151" s="5"/>
-      <c r="BS151" s="5"/>
-      <c r="BT151" s="5"/>
-      <c r="BU151" s="5"/>
-      <c r="BV151" s="5"/>
-      <c r="BW151" s="5"/>
-      <c r="BX151" s="5"/>
-      <c r="BY151" s="5"/>
-      <c r="BZ151" s="5"/>
-      <c r="CA151" s="5"/>
-      <c r="CB151" s="5"/>
-      <c r="CC151" s="5"/>
-      <c r="CD151" s="5"/>
-      <c r="CE151" s="5"/>
-      <c r="CF151" s="5"/>
-      <c r="CG151" s="5"/>
-      <c r="CH151" s="5"/>
-      <c r="CI151" s="5"/>
-      <c r="CJ151" s="5"/>
-      <c r="CK151" s="5"/>
-      <c r="CL151" s="5"/>
-      <c r="CM151" s="5"/>
-      <c r="CN151" s="5"/>
-      <c r="CO151" s="5"/>
-      <c r="CP151" s="5"/>
-      <c r="CQ151" s="5"/>
-      <c r="CR151" s="5"/>
-      <c r="CS151" s="5"/>
-      <c r="CT151" s="5"/>
-      <c r="CU151" s="5"/>
-      <c r="CV151" s="5"/>
-      <c r="CW151" s="5"/>
-      <c r="CX151" s="5"/>
-      <c r="CY151" s="5"/>
-      <c r="CZ151" s="5"/>
-      <c r="DA151" s="5"/>
-      <c r="DB151" s="5"/>
-      <c r="DC151" s="5"/>
-      <c r="DD151" s="5"/>
-      <c r="DE151" s="5"/>
-      <c r="DF151" s="5"/>
-      <c r="DG151" s="5"/>
-      <c r="DH151" s="5"/>
-      <c r="DI151" s="5"/>
-      <c r="DJ151" s="5"/>
-      <c r="DK151" s="5"/>
-      <c r="DL151" s="5"/>
-      <c r="DM151" s="5"/>
-      <c r="DN151" s="5"/>
-      <c r="DO151" s="5"/>
-      <c r="DP151" s="5"/>
-      <c r="DQ151" s="5"/>
-      <c r="DR151" s="5"/>
-      <c r="DS151" s="5"/>
-      <c r="DT151" s="5"/>
-      <c r="DU151" s="5"/>
-      <c r="DV151" s="5"/>
-      <c r="DW151" s="5"/>
-      <c r="DX151" s="5"/>
-      <c r="DY151" s="5"/>
-      <c r="DZ151" s="5"/>
-      <c r="EA151" s="5"/>
-      <c r="EB151" s="5"/>
-      <c r="EC151" s="5"/>
-      <c r="ED151" s="5"/>
-      <c r="EE151" s="5"/>
-      <c r="EF151" s="5"/>
-      <c r="EG151" s="5"/>
-      <c r="EH151" s="5"/>
-      <c r="EI151" s="5"/>
-      <c r="EJ151" s="5"/>
-      <c r="EK151" s="5"/>
-      <c r="EL151" s="5"/>
-      <c r="EM151" s="5"/>
-      <c r="EN151" s="5"/>
-      <c r="EO151" s="5"/>
-      <c r="EP151" s="5"/>
-      <c r="EQ151" s="5"/>
-      <c r="ER151" s="5"/>
-      <c r="ES151" s="5"/>
-      <c r="ET151" s="5"/>
-      <c r="EU151" s="5"/>
-      <c r="EV151" s="5"/>
-      <c r="EW151" s="5"/>
-      <c r="EX151" s="5"/>
-      <c r="EY151" s="5"/>
-      <c r="EZ151" s="5"/>
-      <c r="FA151" s="5"/>
-      <c r="FB151" s="5"/>
-      <c r="FC151" s="5"/>
-      <c r="FD151" s="5"/>
-      <c r="FE151" s="5"/>
-      <c r="FF151" s="5"/>
-      <c r="FG151" s="5"/>
-      <c r="FH151" s="5"/>
-      <c r="FI151" s="5"/>
-      <c r="FJ151" s="5"/>
-      <c r="FK151" s="5"/>
-      <c r="FL151" s="5"/>
-      <c r="FM151" s="5"/>
-      <c r="FN151" s="5"/>
-      <c r="FO151" s="5"/>
-      <c r="FP151" s="5"/>
-      <c r="FQ151" s="5"/>
-      <c r="FR151" s="5"/>
-      <c r="FS151" s="5"/>
-      <c r="FT151" s="5"/>
-      <c r="FU151" s="5"/>
-      <c r="FV151" s="5"/>
-      <c r="FW151" s="5"/>
-      <c r="FX151" s="5"/>
-      <c r="FY151" s="5"/>
-      <c r="FZ151" s="5"/>
-      <c r="GA151" s="5"/>
-      <c r="GB151" s="5"/>
-      <c r="GC151" s="5"/>
-      <c r="GD151" s="5"/>
-      <c r="GE151" s="5"/>
-      <c r="GF151" s="5"/>
-      <c r="GG151" s="5"/>
-      <c r="GH151" s="5"/>
-      <c r="GI151" s="5"/>
-      <c r="GJ151" s="5"/>
-      <c r="GK151" s="5"/>
-      <c r="GL151" s="5"/>
-      <c r="GM151" s="5"/>
-      <c r="GN151" s="5"/>
-      <c r="GO151" s="5"/>
-      <c r="GP151" s="5"/>
-      <c r="GQ151" s="5"/>
-      <c r="GR151" s="5"/>
-      <c r="GS151" s="5"/>
-      <c r="GT151" s="5"/>
-      <c r="GU151" s="5"/>
-      <c r="GV151" s="5"/>
-      <c r="GW151" s="5"/>
-      <c r="GX151" s="5"/>
-      <c r="GY151" s="5"/>
-      <c r="GZ151" s="5"/>
-      <c r="HA151" s="5"/>
-      <c r="HB151" s="5"/>
-      <c r="HC151" s="5"/>
-      <c r="HD151" s="5"/>
-      <c r="HE151" s="5"/>
-      <c r="HF151" s="5"/>
-      <c r="HG151" s="5"/>
-      <c r="HH151" s="5"/>
-      <c r="HI151" s="5"/>
-      <c r="HJ151" s="5"/>
-      <c r="HK151" s="5"/>
-      <c r="HL151" s="5"/>
-      <c r="HM151" s="5"/>
-      <c r="HN151" s="5"/>
-      <c r="HO151" s="5"/>
-      <c r="HP151" s="5"/>
-      <c r="HQ151" s="5"/>
-      <c r="HR151" s="5"/>
-      <c r="HS151" s="5"/>
-      <c r="HT151" s="5"/>
-      <c r="HU151" s="5"/>
-      <c r="HV151" s="5"/>
-      <c r="HW151" s="5"/>
-      <c r="HX151" s="5"/>
-      <c r="HY151" s="5"/>
-      <c r="HZ151" s="5"/>
-      <c r="IA151" s="5"/>
-      <c r="IB151" s="5"/>
-      <c r="IC151" s="5"/>
-      <c r="ID151" s="5"/>
-      <c r="IE151" s="5"/>
-      <c r="IF151" s="5"/>
-      <c r="IG151" s="5"/>
-      <c r="IH151" s="5"/>
-      <c r="II151" s="5"/>
-      <c r="IJ151" s="5"/>
-      <c r="IK151" s="5"/>
-      <c r="IL151" s="5"/>
-      <c r="IM151" s="5"/>
-      <c r="IN151" s="5"/>
-      <c r="IO151" s="5"/>
-      <c r="IP151" s="5"/>
-      <c r="IQ151" s="5"/>
-      <c r="IR151" s="5"/>
-      <c r="IS151" s="5"/>
-      <c r="IT151" s="5"/>
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="34"/>
+      <c r="H151" s="4"/>
     </row>
     <row r="152" spans="1:254" s="2" customFormat="1">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="34"/>
-      <c r="H152" s="4"/>
-    </row>
-    <row r="153" spans="1:254">
-      <c r="A153" s="7"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="30"/>
-      <c r="H153" s="7"/>
+      <c r="A152" s="21"/>
+      <c r="B152" s="21"/>
+      <c r="C152" s="21"/>
+      <c r="D152" s="21"/>
+      <c r="E152" s="21"/>
+      <c r="F152" s="21"/>
+      <c r="G152" s="35"/>
+      <c r="H152" s="21"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="5"/>
+      <c r="N152" s="5"/>
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="5"/>
+      <c r="S152" s="5"/>
+      <c r="T152" s="5"/>
+      <c r="U152" s="5"/>
+      <c r="V152" s="5"/>
+      <c r="W152" s="5"/>
+      <c r="X152" s="5"/>
+      <c r="Y152" s="5"/>
+      <c r="Z152" s="5"/>
+      <c r="AA152" s="5"/>
+      <c r="AB152" s="5"/>
+      <c r="AC152" s="5"/>
+      <c r="AD152" s="5"/>
+      <c r="AE152" s="5"/>
+      <c r="AF152" s="5"/>
+      <c r="AG152" s="5"/>
+      <c r="AH152" s="5"/>
+      <c r="AI152" s="5"/>
+      <c r="AJ152" s="5"/>
+      <c r="AK152" s="5"/>
+      <c r="AL152" s="5"/>
+      <c r="AM152" s="5"/>
+      <c r="AN152" s="5"/>
+      <c r="AO152" s="5"/>
+      <c r="AP152" s="5"/>
+      <c r="AQ152" s="5"/>
+      <c r="AR152" s="5"/>
+      <c r="AS152" s="5"/>
+      <c r="AT152" s="5"/>
+      <c r="AU152" s="5"/>
+      <c r="AV152" s="5"/>
+      <c r="AW152" s="5"/>
+      <c r="AX152" s="5"/>
+      <c r="AY152" s="5"/>
+      <c r="AZ152" s="5"/>
+      <c r="BA152" s="5"/>
+      <c r="BB152" s="5"/>
+      <c r="BC152" s="5"/>
+      <c r="BD152" s="5"/>
+      <c r="BE152" s="5"/>
+      <c r="BF152" s="5"/>
+      <c r="BG152" s="5"/>
+      <c r="BH152" s="5"/>
+      <c r="BI152" s="5"/>
+      <c r="BJ152" s="5"/>
+      <c r="BK152" s="5"/>
+      <c r="BL152" s="5"/>
+      <c r="BM152" s="5"/>
+      <c r="BN152" s="5"/>
+      <c r="BO152" s="5"/>
+      <c r="BP152" s="5"/>
+      <c r="BQ152" s="5"/>
+      <c r="BR152" s="5"/>
+      <c r="BS152" s="5"/>
+      <c r="BT152" s="5"/>
+      <c r="BU152" s="5"/>
+      <c r="BV152" s="5"/>
+      <c r="BW152" s="5"/>
+      <c r="BX152" s="5"/>
+      <c r="BY152" s="5"/>
+      <c r="BZ152" s="5"/>
+      <c r="CA152" s="5"/>
+      <c r="CB152" s="5"/>
+      <c r="CC152" s="5"/>
+      <c r="CD152" s="5"/>
+      <c r="CE152" s="5"/>
+      <c r="CF152" s="5"/>
+      <c r="CG152" s="5"/>
+      <c r="CH152" s="5"/>
+      <c r="CI152" s="5"/>
+      <c r="CJ152" s="5"/>
+      <c r="CK152" s="5"/>
+      <c r="CL152" s="5"/>
+      <c r="CM152" s="5"/>
+      <c r="CN152" s="5"/>
+      <c r="CO152" s="5"/>
+      <c r="CP152" s="5"/>
+      <c r="CQ152" s="5"/>
+      <c r="CR152" s="5"/>
+      <c r="CS152" s="5"/>
+      <c r="CT152" s="5"/>
+      <c r="CU152" s="5"/>
+      <c r="CV152" s="5"/>
+      <c r="CW152" s="5"/>
+      <c r="CX152" s="5"/>
+      <c r="CY152" s="5"/>
+      <c r="CZ152" s="5"/>
+      <c r="DA152" s="5"/>
+      <c r="DB152" s="5"/>
+      <c r="DC152" s="5"/>
+      <c r="DD152" s="5"/>
+      <c r="DE152" s="5"/>
+      <c r="DF152" s="5"/>
+      <c r="DG152" s="5"/>
+      <c r="DH152" s="5"/>
+      <c r="DI152" s="5"/>
+      <c r="DJ152" s="5"/>
+      <c r="DK152" s="5"/>
+      <c r="DL152" s="5"/>
+      <c r="DM152" s="5"/>
+      <c r="DN152" s="5"/>
+      <c r="DO152" s="5"/>
+      <c r="DP152" s="5"/>
+      <c r="DQ152" s="5"/>
+      <c r="DR152" s="5"/>
+      <c r="DS152" s="5"/>
+      <c r="DT152" s="5"/>
+      <c r="DU152" s="5"/>
+      <c r="DV152" s="5"/>
+      <c r="DW152" s="5"/>
+      <c r="DX152" s="5"/>
+      <c r="DY152" s="5"/>
+      <c r="DZ152" s="5"/>
+      <c r="EA152" s="5"/>
+      <c r="EB152" s="5"/>
+      <c r="EC152" s="5"/>
+      <c r="ED152" s="5"/>
+      <c r="EE152" s="5"/>
+      <c r="EF152" s="5"/>
+      <c r="EG152" s="5"/>
+      <c r="EH152" s="5"/>
+      <c r="EI152" s="5"/>
+      <c r="EJ152" s="5"/>
+      <c r="EK152" s="5"/>
+      <c r="EL152" s="5"/>
+      <c r="EM152" s="5"/>
+      <c r="EN152" s="5"/>
+      <c r="EO152" s="5"/>
+      <c r="EP152" s="5"/>
+      <c r="EQ152" s="5"/>
+      <c r="ER152" s="5"/>
+      <c r="ES152" s="5"/>
+      <c r="ET152" s="5"/>
+      <c r="EU152" s="5"/>
+      <c r="EV152" s="5"/>
+      <c r="EW152" s="5"/>
+      <c r="EX152" s="5"/>
+      <c r="EY152" s="5"/>
+      <c r="EZ152" s="5"/>
+      <c r="FA152" s="5"/>
+      <c r="FB152" s="5"/>
+      <c r="FC152" s="5"/>
+      <c r="FD152" s="5"/>
+      <c r="FE152" s="5"/>
+      <c r="FF152" s="5"/>
+      <c r="FG152" s="5"/>
+      <c r="FH152" s="5"/>
+      <c r="FI152" s="5"/>
+      <c r="FJ152" s="5"/>
+      <c r="FK152" s="5"/>
+      <c r="FL152" s="5"/>
+      <c r="FM152" s="5"/>
+      <c r="FN152" s="5"/>
+      <c r="FO152" s="5"/>
+      <c r="FP152" s="5"/>
+      <c r="FQ152" s="5"/>
+      <c r="FR152" s="5"/>
+      <c r="FS152" s="5"/>
+      <c r="FT152" s="5"/>
+      <c r="FU152" s="5"/>
+      <c r="FV152" s="5"/>
+      <c r="FW152" s="5"/>
+      <c r="FX152" s="5"/>
+      <c r="FY152" s="5"/>
+      <c r="FZ152" s="5"/>
+      <c r="GA152" s="5"/>
+      <c r="GB152" s="5"/>
+      <c r="GC152" s="5"/>
+      <c r="GD152" s="5"/>
+      <c r="GE152" s="5"/>
+      <c r="GF152" s="5"/>
+      <c r="GG152" s="5"/>
+      <c r="GH152" s="5"/>
+      <c r="GI152" s="5"/>
+      <c r="GJ152" s="5"/>
+      <c r="GK152" s="5"/>
+      <c r="GL152" s="5"/>
+      <c r="GM152" s="5"/>
+      <c r="GN152" s="5"/>
+      <c r="GO152" s="5"/>
+      <c r="GP152" s="5"/>
+      <c r="GQ152" s="5"/>
+      <c r="GR152" s="5"/>
+      <c r="GS152" s="5"/>
+      <c r="GT152" s="5"/>
+      <c r="GU152" s="5"/>
+      <c r="GV152" s="5"/>
+      <c r="GW152" s="5"/>
+      <c r="GX152" s="5"/>
+      <c r="GY152" s="5"/>
+      <c r="GZ152" s="5"/>
+      <c r="HA152" s="5"/>
+      <c r="HB152" s="5"/>
+      <c r="HC152" s="5"/>
+      <c r="HD152" s="5"/>
+      <c r="HE152" s="5"/>
+      <c r="HF152" s="5"/>
+      <c r="HG152" s="5"/>
+      <c r="HH152" s="5"/>
+      <c r="HI152" s="5"/>
+      <c r="HJ152" s="5"/>
+      <c r="HK152" s="5"/>
+      <c r="HL152" s="5"/>
+      <c r="HM152" s="5"/>
+      <c r="HN152" s="5"/>
+      <c r="HO152" s="5"/>
+      <c r="HP152" s="5"/>
+      <c r="HQ152" s="5"/>
+      <c r="HR152" s="5"/>
+      <c r="HS152" s="5"/>
+      <c r="HT152" s="5"/>
+      <c r="HU152" s="5"/>
+      <c r="HV152" s="5"/>
+      <c r="HW152" s="5"/>
+      <c r="HX152" s="5"/>
+      <c r="HY152" s="5"/>
+      <c r="HZ152" s="5"/>
+      <c r="IA152" s="5"/>
+      <c r="IB152" s="5"/>
+      <c r="IC152" s="5"/>
+      <c r="ID152" s="5"/>
+      <c r="IE152" s="5"/>
+      <c r="IF152" s="5"/>
+      <c r="IG152" s="5"/>
+      <c r="IH152" s="5"/>
+      <c r="II152" s="5"/>
+      <c r="IJ152" s="5"/>
+      <c r="IK152" s="5"/>
+      <c r="IL152" s="5"/>
+      <c r="IM152" s="5"/>
+      <c r="IN152" s="5"/>
+      <c r="IO152" s="5"/>
+      <c r="IP152" s="5"/>
+      <c r="IQ152" s="5"/>
+      <c r="IR152" s="5"/>
+      <c r="IS152" s="5"/>
+      <c r="IT152" s="5"/>
+    </row>
+    <row r="153" spans="1:254" s="2" customFormat="1">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="34"/>
+      <c r="H153" s="4"/>
     </row>
     <row r="154" spans="1:254">
       <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
+      <c r="B154" s="6"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -5421,7 +5436,7 @@
     </row>
     <row r="155" spans="1:254">
       <c r="A155" s="7"/>
-      <c r="B155" s="20"/>
+      <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -5431,7 +5446,7 @@
     </row>
     <row r="156" spans="1:254">
       <c r="A156" s="7"/>
-      <c r="B156" s="7"/>
+      <c r="B156" s="20"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -5442,7 +5457,7 @@
     <row r="157" spans="1:254">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
-      <c r="C157" s="4"/>
+      <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
@@ -5482,7 +5497,7 @@
     <row r="161" spans="1:8">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
-      <c r="C161" s="7"/>
+      <c r="C161" s="4"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
@@ -5491,7 +5506,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="7"/>
-      <c r="B162" s="22"/>
+      <c r="B162" s="7"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -5511,7 +5526,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
+      <c r="B164" s="22"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -5521,7 +5536,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="7"/>
-      <c r="B165" s="20"/>
+      <c r="B165" s="7"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -5541,7 +5556,7 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -5561,7 +5576,7 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="7"/>
-      <c r="B169" s="20"/>
+      <c r="B169" s="7"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -5580,10 +5595,8 @@
       <c r="H170" s="7"/>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="45">
-        <v>43011</v>
-      </c>
-      <c r="B171" s="7"/>
+      <c r="A171" s="7"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -5592,7 +5605,9 @@
       <c r="H171" s="7"/>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="7"/>
+      <c r="A172" s="45">
+        <v>43011</v>
+      </c>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
@@ -5603,7 +5618,7 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="7"/>
-      <c r="B173" s="20"/>
+      <c r="B173" s="7"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -5623,7 +5638,7 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="7"/>
-      <c r="B175" s="7"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -5663,7 +5678,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="7"/>
-      <c r="B179" s="6"/>
+      <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -5673,8 +5688,8 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="7"/>
-      <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
@@ -5683,7 +5698,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="7"/>
-      <c r="B181" s="19"/>
+      <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -5753,7 +5768,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="7"/>
-      <c r="B188" s="4"/>
+      <c r="B188" s="19"/>
       <c r="C188" s="4"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -5763,7 +5778,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="7"/>
-      <c r="B189" s="19"/>
+      <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -5773,7 +5788,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="7"/>
-      <c r="B190" s="21"/>
+      <c r="B190" s="19"/>
       <c r="C190" s="4"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -5793,7 +5808,7 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="7"/>
-      <c r="B192" s="19"/>
+      <c r="B192" s="21"/>
       <c r="C192" s="4"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -5834,7 +5849,7 @@
     <row r="196" spans="1:8">
       <c r="A196" s="7"/>
       <c r="B196" s="19"/>
-      <c r="C196" s="7"/>
+      <c r="C196" s="4"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
       <c r="F196" s="7"/>
@@ -5843,7 +5858,7 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="7"/>
-      <c r="B197" s="4"/>
+      <c r="B197" s="19"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
@@ -5863,7 +5878,7 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="7"/>
-      <c r="B199" s="19"/>
+      <c r="B199" s="4"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -5923,7 +5938,7 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="7"/>
-      <c r="B205" s="21"/>
+      <c r="B205" s="19"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -5963,7 +5978,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="7"/>
-      <c r="B209" s="4"/>
+      <c r="B209" s="21"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -5973,7 +5988,7 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="7"/>
-      <c r="B210" s="6"/>
+      <c r="B210" s="4"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -5983,7 +5998,7 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="7"/>
-      <c r="B211" s="4"/>
+      <c r="B211" s="6"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -5993,7 +6008,7 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="7"/>
-      <c r="B212" s="19"/>
+      <c r="B212" s="4"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
@@ -6043,7 +6058,7 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="7"/>
-      <c r="B217" s="21"/>
+      <c r="B217" s="19"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
@@ -6053,7 +6068,7 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="7"/>
-      <c r="B218" s="19"/>
+      <c r="B218" s="21"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
@@ -6103,7 +6118,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7"/>
-      <c r="B223" s="21"/>
+      <c r="B223" s="19"/>
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -6163,7 +6178,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="4"/>
+      <c r="B229" s="21"/>
       <c r="C229" s="7"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -6173,7 +6188,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="6"/>
+      <c r="B230" s="4"/>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -6183,8 +6198,8 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="4"/>
-      <c r="C231" s="4"/>
+      <c r="B231" s="6"/>
+      <c r="C231" s="7"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
       <c r="F231" s="7"/>
@@ -6193,7 +6208,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="19"/>
+      <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -6203,7 +6218,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="7"/>
-      <c r="B233" s="7"/>
+      <c r="B233" s="19"/>
       <c r="C233" s="4"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -6213,7 +6228,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="7"/>
-      <c r="B234" s="20"/>
+      <c r="B234" s="7"/>
       <c r="C234" s="4"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -6253,7 +6268,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="7"/>
-      <c r="B238" s="7"/>
+      <c r="B238" s="20"/>
       <c r="C238" s="4"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -6263,7 +6278,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="7"/>
-      <c r="B239" s="20"/>
+      <c r="B239" s="7"/>
       <c r="C239" s="4"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -6273,7 +6288,7 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="7"/>
-      <c r="B240" s="23"/>
+      <c r="B240" s="20"/>
       <c r="C240" s="4"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -6293,7 +6308,7 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="7"/>
-      <c r="B242" s="20"/>
+      <c r="B242" s="23"/>
       <c r="C242" s="4"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -6333,7 +6348,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="7"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="4"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -6343,7 +6358,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="20"/>
+      <c r="B247" s="7"/>
       <c r="C247" s="4"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -6393,7 +6408,7 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="7"/>
+      <c r="B252" s="20"/>
       <c r="C252" s="4"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -6403,8 +6418,8 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="20"/>
-      <c r="C253" s="7"/>
+      <c r="B253" s="7"/>
+      <c r="C253" s="4"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
       <c r="F253" s="7"/>
@@ -6413,7 +6428,7 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="7"/>
-      <c r="B254" s="7"/>
+      <c r="B254" s="20"/>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -6423,7 +6438,7 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="7"/>
-      <c r="B255" s="20"/>
+      <c r="B255" s="7"/>
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -6433,7 +6448,7 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="7"/>
-      <c r="B256" s="23"/>
+      <c r="B256" s="20"/>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -6483,8 +6498,8 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="7"/>
-      <c r="B261" s="20"/>
-      <c r="C261" s="4"/>
+      <c r="B261" s="23"/>
+      <c r="C261" s="7"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
       <c r="F261" s="7"/>
@@ -6493,7 +6508,7 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="7"/>
-      <c r="B262" s="23"/>
+      <c r="B262" s="20"/>
       <c r="C262" s="4"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -6503,7 +6518,7 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="7"/>
-      <c r="B263" s="24"/>
+      <c r="B263" s="23"/>
       <c r="C263" s="4"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
@@ -6531,9 +6546,9 @@
       <c r="G265" s="30"/>
       <c r="H265" s="7"/>
     </row>
-    <row r="266" spans="1:8" ht="11.25">
+    <row r="266" spans="1:8">
       <c r="A266" s="7"/>
-      <c r="B266" s="25"/>
+      <c r="B266" s="24"/>
       <c r="C266" s="4"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -6541,9 +6556,9 @@
       <c r="G266" s="30"/>
       <c r="H266" s="7"/>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" ht="11.25">
       <c r="A267" s="7"/>
-      <c r="B267" s="23"/>
+      <c r="B267" s="25"/>
       <c r="C267" s="4"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
@@ -6583,7 +6598,7 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="7"/>
-      <c r="B271" s="24"/>
+      <c r="B271" s="23"/>
       <c r="C271" s="4"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -6613,7 +6628,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="23"/>
+      <c r="B274" s="24"/>
       <c r="C274" s="4"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -6623,7 +6638,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="7"/>
-      <c r="B275" s="24"/>
+      <c r="B275" s="23"/>
       <c r="C275" s="4"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -6631,15 +6646,15 @@
       <c r="G275" s="30"/>
       <c r="H275" s="7"/>
     </row>
-    <row r="276" spans="1:8" s="2" customFormat="1">
-      <c r="A276" s="4"/>
+    <row r="276" spans="1:8">
+      <c r="A276" s="7"/>
       <c r="B276" s="24"/>
       <c r="C276" s="4"/>
-      <c r="D276" s="4"/>
-      <c r="E276" s="4"/>
-      <c r="F276" s="4"/>
-      <c r="G276" s="34"/>
-      <c r="H276" s="4"/>
+      <c r="D276" s="7"/>
+      <c r="E276" s="7"/>
+      <c r="F276" s="7"/>
+      <c r="G276" s="30"/>
+      <c r="H276" s="7"/>
     </row>
     <row r="277" spans="1:8" s="2" customFormat="1">
       <c r="A277" s="4"/>
@@ -6651,19 +6666,19 @@
       <c r="G277" s="34"/>
       <c r="H277" s="4"/>
     </row>
-    <row r="278" spans="1:8">
-      <c r="A278" s="7"/>
+    <row r="278" spans="1:8" s="2" customFormat="1">
+      <c r="A278" s="4"/>
       <c r="B278" s="24"/>
       <c r="C278" s="4"/>
-      <c r="D278" s="7"/>
-      <c r="E278" s="7"/>
-      <c r="F278" s="7"/>
-      <c r="G278" s="30"/>
-      <c r="H278" s="7"/>
+      <c r="D278" s="4"/>
+      <c r="E278" s="4"/>
+      <c r="F278" s="4"/>
+      <c r="G278" s="34"/>
+      <c r="H278" s="4"/>
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="7"/>
-      <c r="B279" s="23"/>
+      <c r="B279" s="24"/>
       <c r="C279" s="4"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -6673,7 +6688,7 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="7"/>
-      <c r="B280" s="24"/>
+      <c r="B280" s="23"/>
       <c r="C280" s="4"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
@@ -6703,7 +6718,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="22"/>
+      <c r="B283" s="24"/>
       <c r="C283" s="4"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -6713,7 +6728,7 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
-      <c r="B284" s="7"/>
+      <c r="B284" s="22"/>
       <c r="C284" s="4"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -6733,7 +6748,7 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="7"/>
-      <c r="B286" s="20"/>
+      <c r="B286" s="7"/>
       <c r="C286" s="4"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
@@ -6753,7 +6768,7 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="7"/>
-      <c r="B288" s="7"/>
+      <c r="B288" s="20"/>
       <c r="C288" s="4"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
@@ -6784,7 +6799,7 @@
     <row r="291" spans="1:8">
       <c r="A291" s="7"/>
       <c r="B291" s="7"/>
-      <c r="C291" s="7"/>
+      <c r="C291" s="4"/>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
       <c r="F291" s="7"/>
@@ -6793,7 +6808,7 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="7"/>
-      <c r="B292" s="6"/>
+      <c r="B292" s="7"/>
       <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
@@ -6803,7 +6818,7 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="7"/>
-      <c r="B293" s="7"/>
+      <c r="B293" s="6"/>
       <c r="C293" s="7"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
@@ -6883,7 +6898,7 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="7"/>
-      <c r="B301" s="6"/>
+      <c r="B301" s="7"/>
       <c r="C301" s="7"/>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
@@ -6893,8 +6908,8 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="7"/>
-      <c r="B302" s="4"/>
-      <c r="C302" s="4"/>
+      <c r="B302" s="6"/>
+      <c r="C302" s="7"/>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
       <c r="F302" s="7"/>
@@ -6903,7 +6918,7 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="7"/>
-      <c r="B303" s="19"/>
+      <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
@@ -6933,7 +6948,7 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="7"/>
-      <c r="B306" s="4"/>
+      <c r="B306" s="19"/>
       <c r="C306" s="4"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
@@ -6993,7 +7008,7 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="7"/>
-      <c r="B312" s="19"/>
+      <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
@@ -7013,7 +7028,7 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" s="7"/>
-      <c r="B314" s="21"/>
+      <c r="B314" s="19"/>
       <c r="C314" s="4"/>
       <c r="D314" s="7"/>
       <c r="E314" s="7"/>
@@ -7023,8 +7038,8 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315" s="7"/>
-      <c r="B315" s="7"/>
-      <c r="C315" s="7"/>
+      <c r="B315" s="21"/>
+      <c r="C315" s="4"/>
       <c r="D315" s="7"/>
       <c r="E315" s="7"/>
       <c r="F315" s="7"/>
@@ -7033,7 +7048,7 @@
     </row>
     <row r="316" spans="1:8">
       <c r="A316" s="7"/>
-      <c r="B316" s="6"/>
+      <c r="B316" s="7"/>
       <c r="C316" s="7"/>
       <c r="D316" s="7"/>
       <c r="E316" s="7"/>
@@ -7041,15 +7056,15 @@
       <c r="G316" s="30"/>
       <c r="H316" s="7"/>
     </row>
-    <row r="317" spans="1:8" s="2" customFormat="1">
-      <c r="A317" s="4"/>
-      <c r="B317" s="4"/>
-      <c r="C317" s="9"/>
-      <c r="D317" s="4"/>
-      <c r="E317" s="4"/>
-      <c r="F317" s="4"/>
-      <c r="G317" s="34"/>
-      <c r="H317" s="4"/>
+    <row r="317" spans="1:8">
+      <c r="A317" s="7"/>
+      <c r="B317" s="6"/>
+      <c r="C317" s="7"/>
+      <c r="D317" s="7"/>
+      <c r="E317" s="7"/>
+      <c r="F317" s="7"/>
+      <c r="G317" s="30"/>
+      <c r="H317" s="7"/>
     </row>
     <row r="318" spans="1:8" s="2" customFormat="1">
       <c r="A318" s="4"/>
@@ -7073,7 +7088,7 @@
     </row>
     <row r="320" spans="1:8" s="2" customFormat="1">
       <c r="A320" s="4"/>
-      <c r="B320" s="19"/>
+      <c r="B320" s="4"/>
       <c r="C320" s="9"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
@@ -7123,8 +7138,8 @@
     </row>
     <row r="325" spans="1:8" s="2" customFormat="1">
       <c r="A325" s="4"/>
-      <c r="B325" s="26"/>
-      <c r="C325" s="4"/>
+      <c r="B325" s="19"/>
+      <c r="C325" s="9"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
       <c r="F325" s="4"/>
@@ -7173,7 +7188,7 @@
     </row>
     <row r="330" spans="1:8" s="2" customFormat="1">
       <c r="A330" s="4"/>
-      <c r="B330" s="21"/>
+      <c r="B330" s="26"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -7223,7 +7238,7 @@
     </row>
     <row r="335" spans="1:8" s="2" customFormat="1">
       <c r="A335" s="4"/>
-      <c r="B335" s="19"/>
+      <c r="B335" s="21"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
@@ -7233,7 +7248,7 @@
     </row>
     <row r="336" spans="1:8" s="2" customFormat="1">
       <c r="A336" s="4"/>
-      <c r="B336" s="21"/>
+      <c r="B336" s="19"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
@@ -7243,7 +7258,7 @@
     </row>
     <row r="337" spans="1:8" s="2" customFormat="1">
       <c r="A337" s="4"/>
-      <c r="B337" s="4"/>
+      <c r="B337" s="21"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
@@ -7251,20 +7266,20 @@
       <c r="G337" s="34"/>
       <c r="H337" s="4"/>
     </row>
-    <row r="338" spans="1:8">
-      <c r="A338" s="7"/>
-      <c r="B338" s="6"/>
-      <c r="C338" s="7"/>
-      <c r="D338" s="7"/>
-      <c r="E338" s="7"/>
-      <c r="F338" s="7"/>
-      <c r="G338" s="30"/>
-      <c r="H338" s="7"/>
+    <row r="338" spans="1:8" s="2" customFormat="1">
+      <c r="A338" s="4"/>
+      <c r="B338" s="4"/>
+      <c r="C338" s="4"/>
+      <c r="D338" s="4"/>
+      <c r="E338" s="4"/>
+      <c r="F338" s="4"/>
+      <c r="G338" s="34"/>
+      <c r="H338" s="4"/>
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="7"/>
-      <c r="B339" s="7"/>
-      <c r="C339" s="4"/>
+      <c r="B339" s="6"/>
+      <c r="C339" s="7"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
       <c r="F339" s="7"/>
@@ -7333,7 +7348,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
-      <c r="B346" s="4"/>
+      <c r="B346" s="7"/>
       <c r="C346" s="4"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -7344,7 +7359,7 @@
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
       <c r="B347" s="4"/>
-      <c r="C347" s="7"/>
+      <c r="C347" s="4"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
       <c r="F347" s="7"/>
@@ -7353,7 +7368,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
-      <c r="B348" s="6"/>
+      <c r="B348" s="4"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -7363,7 +7378,7 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="7"/>
-      <c r="B349" s="7"/>
+      <c r="B349" s="6"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
@@ -7373,7 +7388,7 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="7"/>
-      <c r="B350" s="22"/>
+      <c r="B350" s="7"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
@@ -7383,7 +7398,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="7"/>
+      <c r="B351" s="22"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -7423,7 +7438,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="6"/>
+      <c r="B355" s="7"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -7433,7 +7448,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="7"/>
+      <c r="B356" s="6"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -7443,7 +7458,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="20"/>
+      <c r="B357" s="7"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -7473,7 +7488,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="22"/>
+      <c r="B360" s="20"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -7483,7 +7498,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="20"/>
+      <c r="B361" s="22"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -7503,7 +7518,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="22"/>
+      <c r="B363" s="20"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -7513,7 +7528,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="20"/>
+      <c r="B364" s="22"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -7523,7 +7538,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="22"/>
+      <c r="B365" s="20"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
@@ -7533,7 +7548,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="20"/>
+      <c r="B366" s="22"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -7563,7 +7578,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="7"/>
+      <c r="B369" s="20"/>
       <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -7573,7 +7588,7 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="7"/>
-      <c r="B370" s="27"/>
+      <c r="B370" s="7"/>
       <c r="C370" s="7"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
@@ -7583,7 +7598,7 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="7"/>
-      <c r="B371" s="22"/>
+      <c r="B371" s="27"/>
       <c r="C371" s="7"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
@@ -7593,8 +7608,8 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="7"/>
-      <c r="C372" s="4"/>
+      <c r="B372" s="22"/>
+      <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
@@ -7603,7 +7618,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="20"/>
+      <c r="B373" s="7"/>
       <c r="C373" s="4"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -7633,7 +7648,7 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" s="7"/>
-      <c r="B376" s="7"/>
+      <c r="B376" s="20"/>
       <c r="C376" s="4"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
@@ -7663,7 +7678,7 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="7"/>
-      <c r="B379" s="20"/>
+      <c r="B379" s="7"/>
       <c r="C379" s="4"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
@@ -7683,8 +7698,8 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="7"/>
-      <c r="B381" s="7"/>
-      <c r="C381" s="7"/>
+      <c r="B381" s="20"/>
+      <c r="C381" s="4"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
       <c r="F381" s="7"/>
@@ -7693,7 +7708,7 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" s="7"/>
-      <c r="B382" s="6"/>
+      <c r="B382" s="7"/>
       <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
@@ -7703,7 +7718,7 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
-      <c r="B383" s="7"/>
+      <c r="B383" s="6"/>
       <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
@@ -7763,7 +7778,7 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" s="7"/>
-      <c r="B389" s="6"/>
+      <c r="B389" s="7"/>
       <c r="C389" s="7"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
@@ -7773,7 +7788,7 @@
     </row>
     <row r="390" spans="1:8">
       <c r="A390" s="7"/>
-      <c r="B390" s="7"/>
+      <c r="B390" s="6"/>
       <c r="C390" s="7"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
@@ -7794,7 +7809,7 @@
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
       <c r="B392" s="7"/>
-      <c r="C392" s="4"/>
+      <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
       <c r="F392" s="7"/>
@@ -7803,7 +7818,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="20"/>
+      <c r="B393" s="7"/>
       <c r="C393" s="4"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -7814,7 +7829,7 @@
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
       <c r="B394" s="20"/>
-      <c r="C394" s="7"/>
+      <c r="C394" s="4"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
       <c r="F394" s="7"/>
@@ -7823,7 +7838,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="27"/>
+      <c r="B395" s="20"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -7833,7 +7848,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
-      <c r="B396" s="22"/>
+      <c r="B396" s="27"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -7883,7 +7898,7 @@
     </row>
     <row r="401" spans="1:8">
       <c r="A401" s="7"/>
-      <c r="B401" s="7"/>
+      <c r="B401" s="22"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
@@ -7893,7 +7908,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="6"/>
+      <c r="B402" s="7"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -7903,7 +7918,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
-      <c r="B403" s="7"/>
+      <c r="B403" s="6"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -7913,7 +7928,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
-      <c r="B404" s="20"/>
+      <c r="B404" s="7"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -7923,7 +7938,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="22"/>
+      <c r="B405" s="20"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -7943,7 +7958,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="20"/>
+      <c r="B407" s="22"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -7983,7 +7998,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="7"/>
+      <c r="B411" s="20"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -7993,7 +8008,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="20"/>
+      <c r="B412" s="7"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -8013,7 +8028,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="22"/>
+      <c r="B414" s="20"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -8023,7 +8038,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="7"/>
+      <c r="B415" s="22"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -8033,7 +8048,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="6"/>
+      <c r="B416" s="7"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -8043,7 +8058,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="7"/>
-      <c r="B417" s="7"/>
+      <c r="B417" s="6"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -8063,7 +8078,7 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="7"/>
-      <c r="B419" s="6"/>
+      <c r="B419" s="7"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -8073,7 +8088,7 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="7"/>
-      <c r="B420" s="7"/>
+      <c r="B420" s="6"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -8083,7 +8098,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="20"/>
+      <c r="B421" s="7"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -8103,7 +8118,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="7"/>
-      <c r="B423" s="7"/>
+      <c r="B423" s="20"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
@@ -8113,7 +8128,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="7"/>
-      <c r="B424" s="6"/>
+      <c r="B424" s="7"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -8123,7 +8138,7 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" s="7"/>
-      <c r="B425" s="7"/>
+      <c r="B425" s="6"/>
       <c r="C425" s="7"/>
       <c r="D425" s="7"/>
       <c r="E425" s="7"/>
@@ -8173,7 +8188,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="7"/>
-      <c r="B430" s="6"/>
+      <c r="B430" s="7"/>
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
@@ -8183,7 +8198,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="7"/>
-      <c r="B431" s="7"/>
+      <c r="B431" s="6"/>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -8243,7 +8258,7 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="7"/>
-      <c r="B437" s="6"/>
+      <c r="B437" s="7"/>
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
@@ -8253,7 +8268,7 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="7"/>
-      <c r="B438" s="7"/>
+      <c r="B438" s="6"/>
       <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
@@ -8273,7 +8288,7 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" s="7"/>
-      <c r="B440" s="6"/>
+      <c r="B440" s="7"/>
       <c r="C440" s="7"/>
       <c r="D440" s="7"/>
       <c r="E440" s="7"/>
@@ -8283,7 +8298,7 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" s="7"/>
-      <c r="B441" s="4"/>
+      <c r="B441" s="6"/>
       <c r="C441" s="7"/>
       <c r="D441" s="7"/>
       <c r="E441" s="7"/>
@@ -8303,7 +8318,7 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" s="7"/>
-      <c r="B443" s="7"/>
+      <c r="B443" s="4"/>
       <c r="C443" s="7"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
@@ -8333,7 +8348,7 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" s="7"/>
-      <c r="B446" s="6"/>
+      <c r="B446" s="7"/>
       <c r="C446" s="7"/>
       <c r="D446" s="7"/>
       <c r="E446" s="7"/>
@@ -8343,8 +8358,8 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" s="7"/>
-      <c r="B447" s="7"/>
-      <c r="C447" s="4"/>
+      <c r="B447" s="6"/>
+      <c r="C447" s="7"/>
       <c r="D447" s="7"/>
       <c r="E447" s="7"/>
       <c r="F447" s="7"/>
@@ -8394,7 +8409,7 @@
     <row r="452" spans="1:8">
       <c r="A452" s="7"/>
       <c r="B452" s="7"/>
-      <c r="C452" s="7"/>
+      <c r="C452" s="4"/>
       <c r="D452" s="7"/>
       <c r="E452" s="7"/>
       <c r="F452" s="7"/>
@@ -8403,7 +8418,7 @@
     </row>
     <row r="453" spans="1:8">
       <c r="A453" s="7"/>
-      <c r="B453" s="6"/>
+      <c r="B453" s="7"/>
       <c r="C453" s="7"/>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
@@ -8413,8 +8428,8 @@
     </row>
     <row r="454" spans="1:8">
       <c r="A454" s="7"/>
-      <c r="B454" s="7"/>
-      <c r="C454" s="4"/>
+      <c r="B454" s="6"/>
+      <c r="C454" s="7"/>
       <c r="D454" s="7"/>
       <c r="E454" s="7"/>
       <c r="F454" s="7"/>
@@ -8454,7 +8469,7 @@
     <row r="458" spans="1:8">
       <c r="A458" s="7"/>
       <c r="B458" s="7"/>
-      <c r="C458" s="7"/>
+      <c r="C458" s="4"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
       <c r="F458" s="7"/>
@@ -8463,7 +8478,7 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="7"/>
-      <c r="B459" s="6"/>
+      <c r="B459" s="7"/>
       <c r="C459" s="7"/>
       <c r="D459" s="7"/>
       <c r="E459" s="7"/>
@@ -8473,7 +8488,7 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" s="7"/>
-      <c r="B460" s="22"/>
+      <c r="B460" s="6"/>
       <c r="C460" s="7"/>
       <c r="D460" s="7"/>
       <c r="E460" s="7"/>
@@ -8533,7 +8548,7 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" s="7"/>
-      <c r="B466" s="7"/>
+      <c r="B466" s="22"/>
       <c r="C466" s="7"/>
       <c r="D466" s="7"/>
       <c r="E466" s="7"/>
@@ -8543,7 +8558,7 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" s="7"/>
-      <c r="B467" s="6"/>
+      <c r="B467" s="7"/>
       <c r="C467" s="7"/>
       <c r="D467" s="7"/>
       <c r="E467" s="7"/>
@@ -8553,7 +8568,7 @@
     </row>
     <row r="468" spans="1:8">
       <c r="A468" s="7"/>
-      <c r="B468" s="22"/>
+      <c r="B468" s="6"/>
       <c r="C468" s="7"/>
       <c r="D468" s="7"/>
       <c r="E468" s="7"/>
@@ -8582,8 +8597,8 @@
       <c r="H470" s="7"/>
     </row>
     <row r="471" spans="1:8">
-      <c r="A471" s="6"/>
-      <c r="B471" s="7"/>
+      <c r="A471" s="7"/>
+      <c r="B471" s="22"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
@@ -8592,7 +8607,7 @@
       <c r="H471" s="7"/>
     </row>
     <row r="472" spans="1:8">
-      <c r="A472" s="7"/>
+      <c r="A472" s="6"/>
       <c r="B472" s="7"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
@@ -8633,7 +8648,7 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="7"/>
-      <c r="B476" s="28"/>
+      <c r="B476" s="7"/>
       <c r="C476" s="7"/>
       <c r="D476" s="7"/>
       <c r="E476" s="7"/>
@@ -8663,7 +8678,7 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" s="7"/>
-      <c r="B479" s="7"/>
+      <c r="B479" s="28"/>
       <c r="C479" s="7"/>
       <c r="D479" s="7"/>
       <c r="E479" s="7"/>
@@ -8673,7 +8688,7 @@
     </row>
     <row r="480" spans="1:8">
       <c r="A480" s="7"/>
-      <c r="B480" s="28"/>
+      <c r="B480" s="7"/>
       <c r="C480" s="7"/>
       <c r="D480" s="7"/>
       <c r="E480" s="7"/>
@@ -8683,7 +8698,7 @@
     </row>
     <row r="481" spans="1:8">
       <c r="A481" s="7"/>
-      <c r="B481" s="7"/>
+      <c r="B481" s="28"/>
       <c r="C481" s="7"/>
       <c r="D481" s="7"/>
       <c r="E481" s="7"/>
@@ -8693,21 +8708,21 @@
     </row>
     <row r="482" spans="1:8">
       <c r="A482" s="7"/>
-      <c r="B482" s="29"/>
-      <c r="C482" s="30"/>
+      <c r="B482" s="7"/>
+      <c r="C482" s="7"/>
       <c r="D482" s="7"/>
       <c r="E482" s="7"/>
-      <c r="F482" s="29"/>
+      <c r="F482" s="7"/>
       <c r="G482" s="30"/>
       <c r="H482" s="7"/>
     </row>
     <row r="483" spans="1:8">
       <c r="A483" s="7"/>
-      <c r="B483" s="7"/>
-      <c r="C483" s="7"/>
+      <c r="B483" s="29"/>
+      <c r="C483" s="30"/>
       <c r="D483" s="7"/>
       <c r="E483" s="7"/>
-      <c r="F483" s="7"/>
+      <c r="F483" s="29"/>
       <c r="G483" s="30"/>
       <c r="H483" s="7"/>
     </row>
@@ -12611,13 +12626,23 @@
       <c r="G873" s="30"/>
       <c r="H873" s="7"/>
     </row>
+    <row r="874" spans="1:8">
+      <c r="A874" s="7"/>
+      <c r="B874" s="7"/>
+      <c r="C874" s="7"/>
+      <c r="D874" s="7"/>
+      <c r="E874" s="7"/>
+      <c r="F874" s="7"/>
+      <c r="G874" s="30"/>
+      <c r="H874" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="69" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="G57:G59 G52:G53" formulaRange="1"/>
+    <ignoredError sqref="G60 G52:G53 G57:G58" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/JsonPretty Feature Matrix.xlsx
+++ b/JsonPretty Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="121">
   <si>
     <t>Feature</t>
   </si>
@@ -379,6 +379,9 @@
   <si>
     <t>ETA:</t>
   </si>
+  <si>
+    <t>0.00.12</t>
+  </si>
 </sst>
 </file>
 
@@ -663,7 +666,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955213"/>
+          <c:w val="0.91978071330955224"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -696,10 +699,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$60</c:f>
+              <c:f>Progress!$A$48:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -738,16 +741,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>42897</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$60</c:f>
+              <c:f>Progress!$B$48:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -785,6 +791,9 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
@@ -818,10 +827,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$60</c:f>
+              <c:f>Progress!$A$48:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -860,16 +869,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>42897</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$60</c:f>
+              <c:f>Progress!$C$48:$C$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -907,6 +919,9 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
@@ -940,10 +955,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$60</c:f>
+              <c:f>Progress!$A$48:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -982,16 +997,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>42897</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$60</c:f>
+              <c:f>Progress!$D$48:$D$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1029,6 +1047,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1062,9 +1083,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$47:$A$60</c:f>
+              <c:f>Progress!$A$47:$A$61</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Date</c:v>
                 </c:pt>
@@ -1106,16 +1127,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2017-06-11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2017-06-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$60</c:f>
+              <c:f>Progress!$E$48:$E$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1153,17 +1177,20 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="133930368"/>
-        <c:axId val="133637248"/>
+        <c:axId val="134319488"/>
+        <c:axId val="134087808"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="133930368"/>
+        <c:axId val="134319488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,7 +1223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133637248"/>
+        <c:crossAx val="134087808"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1204,7 +1231,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="133637248"/>
+        <c:axId val="134087808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,7 +1273,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133930368"/>
+        <c:crossAx val="134319488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1268,8 +1295,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.3735105630880108E-2"/>
-          <c:y val="0.24095083738519718"/>
+          <c:x val="4.3735105630880101E-2"/>
+          <c:y val="0.24095083738519724"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1336,7 +1363,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001388" r="0.75000000000001388" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001399" r="0.75000000000001399" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1390,7 +1417,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127581E-2"/>
+          <c:x val="4.4510450248127595E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1425,10 +1452,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$60</c:f>
+              <c:f>Progress!$A$48:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -1467,16 +1494,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>42897</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$60</c:f>
+              <c:f>Progress!$G$48:$G$61</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1514,17 +1544,20 @@
                   <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.42857142857142855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="133661056"/>
-        <c:axId val="133662592"/>
+        <c:axId val="134123904"/>
+        <c:axId val="134125440"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="133661056"/>
+        <c:axId val="134123904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1532,13 +1565,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="133662592"/>
+        <c:crossAx val="134125440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="133662592"/>
+        <c:axId val="134125440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1581,7 +1614,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133661056"/>
+        <c:crossAx val="134123904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1630,7 +1663,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001388" r="0.75000000000001388" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001399" r="0.75000000000001399" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1681,10 +1714,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$60</c:f>
+              <c:f>Progress!$A$48:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -1723,16 +1756,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>42897</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$60</c:f>
+              <c:f>Progress!$C$48:$C$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1770,6 +1806,9 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
@@ -1803,10 +1842,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$60</c:f>
+              <c:f>Progress!$A$48:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -1845,16 +1884,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>42897</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$60</c:f>
+              <c:f>Progress!$D$48:$D$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1892,17 +1934,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="133691648"/>
-        <c:axId val="134217728"/>
+        <c:axId val="134678784"/>
+        <c:axId val="134680576"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="133691648"/>
+        <c:axId val="134678784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1935,14 +1980,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134217728"/>
+        <c:crossAx val="134680576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:minorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="134217728"/>
+        <c:axId val="134680576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,7 +2029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133691648"/>
+        <c:crossAx val="134678784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2033,7 +2078,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001388" r="0.75000000000001388" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001399" r="0.75000000000001399" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2083,7 +2128,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3649,12 +3694,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT874"/>
+  <dimension ref="A1:IT875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O6" sqref="O6"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3983,7 +4028,7 @@
         <v>82</v>
       </c>
       <c r="G51" s="30">
-        <f t="shared" ref="G51:G59" si="2">B51/SUM(B51:E51)</f>
+        <f t="shared" ref="G51:G60" si="2">B51/SUM(B51:E51)</f>
         <v>0.37313432835820898</v>
       </c>
       <c r="H51" s="7"/>
@@ -4208,19 +4253,34 @@
         <v>113</v>
       </c>
       <c r="G60" s="30">
-        <f t="shared" ref="G60" si="3">B60/SUM(B60:E60)</f>
+        <f t="shared" si="2"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="49"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="30"/>
+      <c r="A61" s="48">
+        <v>42899</v>
+      </c>
+      <c r="B61" s="4">
+        <v>42</v>
+      </c>
+      <c r="C61" s="4">
+        <v>51</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
+        <v>5</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61" s="30">
+        <f t="shared" ref="G61" si="3">B61/SUM(B61:E61)</f>
+        <v>0.42857142857142855</v>
+      </c>
       <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:11">
@@ -4229,83 +4289,83 @@
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="31"/>
+      <c r="F62" s="28"/>
       <c r="G62" s="30"/>
       <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="49"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B64" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C64" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D64" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E64" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="14" t="s">
+      <c r="F64" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="38">
-        <f>MIN(G60)</f>
+      <c r="G64" s="38">
+        <f>MIN(G61)</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="39">
-        <f>SUM(B64:D64)</f>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="39">
+        <f>SUM(B65:D65)</f>
         <v>93</v>
       </c>
-      <c r="B64" s="15">
+      <c r="B65" s="15">
         <f>Features!C135</f>
         <v>42</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C65" s="16">
         <f>Features!C136</f>
         <v>51</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D65" s="17">
         <f>Features!C137</f>
         <v>0</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E65" s="18">
         <v>5</v>
       </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="4"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="30"/>
       <c r="H65" s="7"/>
-      <c r="J65" s="36"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="30"/>
       <c r="H66" s="7"/>
+      <c r="J66" s="36"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="4"/>
-      <c r="B67" s="19"/>
+      <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -4314,13 +4374,8 @@
       <c r="H67" s="7"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="B68" s="51">
-        <f>A48+(A60-A48)*A64/B64</f>
-        <v>43009.928571428572</v>
-      </c>
+      <c r="A68" s="4"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -4329,8 +4384,13 @@
       <c r="H68" s="7"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
+      <c r="A69" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="51">
+        <f>A48+(A61-A48)*A65/B65</f>
+        <v>43014.357142857145</v>
+      </c>
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -4340,7 +4400,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="4"/>
-      <c r="B70" s="19"/>
+      <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -4360,7 +4420,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
+      <c r="B72" s="19"/>
       <c r="C72" s="4"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -4380,7 +4440,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="4"/>
-      <c r="B74" s="7"/>
+      <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -4390,7 +4450,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="4"/>
-      <c r="B75" s="20"/>
+      <c r="B75" s="7"/>
       <c r="C75" s="4"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -4409,7 +4469,7 @@
       <c r="H76" s="7"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="7"/>
+      <c r="A77" s="4"/>
       <c r="B77" s="20"/>
       <c r="C77" s="4"/>
       <c r="D77" s="7"/>
@@ -4420,7 +4480,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="4"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -4551,7 +4611,7 @@
     <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
+      <c r="C91" s="4"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
@@ -4560,7 +4620,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="7"/>
-      <c r="B92" s="6"/>
+      <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -4568,15 +4628,15 @@
       <c r="G92" s="30"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" s="2" customFormat="1">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="4"/>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="7"/>
     </row>
     <row r="94" spans="1:8" s="2" customFormat="1">
       <c r="A94" s="4"/>
@@ -4750,7 +4810,7 @@
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="6"/>
+      <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -4760,7 +4820,7 @@
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
+      <c r="B112" s="6"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -4790,7 +4850,7 @@
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1">
       <c r="A115" s="4"/>
-      <c r="B115" s="19"/>
+      <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -4830,7 +4890,7 @@
     </row>
     <row r="119" spans="1:8" s="2" customFormat="1">
       <c r="A119" s="4"/>
-      <c r="B119" s="21"/>
+      <c r="B119" s="19"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -4840,7 +4900,7 @@
     </row>
     <row r="120" spans="1:8" s="2" customFormat="1">
       <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
+      <c r="B120" s="21"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -4850,7 +4910,7 @@
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1">
       <c r="A121" s="4"/>
-      <c r="B121" s="6"/>
+      <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -4860,7 +4920,7 @@
     </row>
     <row r="122" spans="1:8" s="2" customFormat="1">
       <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
+      <c r="B122" s="6"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -4870,7 +4930,7 @@
     </row>
     <row r="123" spans="1:8" s="2" customFormat="1">
       <c r="A123" s="4"/>
-      <c r="B123" s="19"/>
+      <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -4890,7 +4950,7 @@
     </row>
     <row r="125" spans="1:8" s="2" customFormat="1">
       <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
+      <c r="B125" s="19"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -4950,7 +5010,7 @@
     </row>
     <row r="131" spans="1:8" s="2" customFormat="1">
       <c r="A131" s="4"/>
-      <c r="B131" s="19"/>
+      <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -5050,7 +5110,7 @@
     </row>
     <row r="141" spans="1:8" s="2" customFormat="1">
       <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
+      <c r="B141" s="19"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -5100,7 +5160,7 @@
     </row>
     <row r="146" spans="1:254" s="2" customFormat="1">
       <c r="A146" s="4"/>
-      <c r="B146" s="19"/>
+      <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -5120,7 +5180,7 @@
     </row>
     <row r="148" spans="1:254" s="2" customFormat="1">
       <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
+      <c r="B148" s="19"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -5159,284 +5219,284 @@
       <c r="H151" s="4"/>
     </row>
     <row r="152" spans="1:254" s="2" customFormat="1">
-      <c r="A152" s="21"/>
-      <c r="B152" s="21"/>
-      <c r="C152" s="21"/>
-      <c r="D152" s="21"/>
-      <c r="E152" s="21"/>
-      <c r="F152" s="21"/>
-      <c r="G152" s="35"/>
-      <c r="H152" s="21"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
-      <c r="K152" s="5"/>
-      <c r="L152" s="5"/>
-      <c r="M152" s="5"/>
-      <c r="N152" s="5"/>
-      <c r="O152" s="5"/>
-      <c r="P152" s="5"/>
-      <c r="Q152" s="5"/>
-      <c r="R152" s="5"/>
-      <c r="S152" s="5"/>
-      <c r="T152" s="5"/>
-      <c r="U152" s="5"/>
-      <c r="V152" s="5"/>
-      <c r="W152" s="5"/>
-      <c r="X152" s="5"/>
-      <c r="Y152" s="5"/>
-      <c r="Z152" s="5"/>
-      <c r="AA152" s="5"/>
-      <c r="AB152" s="5"/>
-      <c r="AC152" s="5"/>
-      <c r="AD152" s="5"/>
-      <c r="AE152" s="5"/>
-      <c r="AF152" s="5"/>
-      <c r="AG152" s="5"/>
-      <c r="AH152" s="5"/>
-      <c r="AI152" s="5"/>
-      <c r="AJ152" s="5"/>
-      <c r="AK152" s="5"/>
-      <c r="AL152" s="5"/>
-      <c r="AM152" s="5"/>
-      <c r="AN152" s="5"/>
-      <c r="AO152" s="5"/>
-      <c r="AP152" s="5"/>
-      <c r="AQ152" s="5"/>
-      <c r="AR152" s="5"/>
-      <c r="AS152" s="5"/>
-      <c r="AT152" s="5"/>
-      <c r="AU152" s="5"/>
-      <c r="AV152" s="5"/>
-      <c r="AW152" s="5"/>
-      <c r="AX152" s="5"/>
-      <c r="AY152" s="5"/>
-      <c r="AZ152" s="5"/>
-      <c r="BA152" s="5"/>
-      <c r="BB152" s="5"/>
-      <c r="BC152" s="5"/>
-      <c r="BD152" s="5"/>
-      <c r="BE152" s="5"/>
-      <c r="BF152" s="5"/>
-      <c r="BG152" s="5"/>
-      <c r="BH152" s="5"/>
-      <c r="BI152" s="5"/>
-      <c r="BJ152" s="5"/>
-      <c r="BK152" s="5"/>
-      <c r="BL152" s="5"/>
-      <c r="BM152" s="5"/>
-      <c r="BN152" s="5"/>
-      <c r="BO152" s="5"/>
-      <c r="BP152" s="5"/>
-      <c r="BQ152" s="5"/>
-      <c r="BR152" s="5"/>
-      <c r="BS152" s="5"/>
-      <c r="BT152" s="5"/>
-      <c r="BU152" s="5"/>
-      <c r="BV152" s="5"/>
-      <c r="BW152" s="5"/>
-      <c r="BX152" s="5"/>
-      <c r="BY152" s="5"/>
-      <c r="BZ152" s="5"/>
-      <c r="CA152" s="5"/>
-      <c r="CB152" s="5"/>
-      <c r="CC152" s="5"/>
-      <c r="CD152" s="5"/>
-      <c r="CE152" s="5"/>
-      <c r="CF152" s="5"/>
-      <c r="CG152" s="5"/>
-      <c r="CH152" s="5"/>
-      <c r="CI152" s="5"/>
-      <c r="CJ152" s="5"/>
-      <c r="CK152" s="5"/>
-      <c r="CL152" s="5"/>
-      <c r="CM152" s="5"/>
-      <c r="CN152" s="5"/>
-      <c r="CO152" s="5"/>
-      <c r="CP152" s="5"/>
-      <c r="CQ152" s="5"/>
-      <c r="CR152" s="5"/>
-      <c r="CS152" s="5"/>
-      <c r="CT152" s="5"/>
-      <c r="CU152" s="5"/>
-      <c r="CV152" s="5"/>
-      <c r="CW152" s="5"/>
-      <c r="CX152" s="5"/>
-      <c r="CY152" s="5"/>
-      <c r="CZ152" s="5"/>
-      <c r="DA152" s="5"/>
-      <c r="DB152" s="5"/>
-      <c r="DC152" s="5"/>
-      <c r="DD152" s="5"/>
-      <c r="DE152" s="5"/>
-      <c r="DF152" s="5"/>
-      <c r="DG152" s="5"/>
-      <c r="DH152" s="5"/>
-      <c r="DI152" s="5"/>
-      <c r="DJ152" s="5"/>
-      <c r="DK152" s="5"/>
-      <c r="DL152" s="5"/>
-      <c r="DM152" s="5"/>
-      <c r="DN152" s="5"/>
-      <c r="DO152" s="5"/>
-      <c r="DP152" s="5"/>
-      <c r="DQ152" s="5"/>
-      <c r="DR152" s="5"/>
-      <c r="DS152" s="5"/>
-      <c r="DT152" s="5"/>
-      <c r="DU152" s="5"/>
-      <c r="DV152" s="5"/>
-      <c r="DW152" s="5"/>
-      <c r="DX152" s="5"/>
-      <c r="DY152" s="5"/>
-      <c r="DZ152" s="5"/>
-      <c r="EA152" s="5"/>
-      <c r="EB152" s="5"/>
-      <c r="EC152" s="5"/>
-      <c r="ED152" s="5"/>
-      <c r="EE152" s="5"/>
-      <c r="EF152" s="5"/>
-      <c r="EG152" s="5"/>
-      <c r="EH152" s="5"/>
-      <c r="EI152" s="5"/>
-      <c r="EJ152" s="5"/>
-      <c r="EK152" s="5"/>
-      <c r="EL152" s="5"/>
-      <c r="EM152" s="5"/>
-      <c r="EN152" s="5"/>
-      <c r="EO152" s="5"/>
-      <c r="EP152" s="5"/>
-      <c r="EQ152" s="5"/>
-      <c r="ER152" s="5"/>
-      <c r="ES152" s="5"/>
-      <c r="ET152" s="5"/>
-      <c r="EU152" s="5"/>
-      <c r="EV152" s="5"/>
-      <c r="EW152" s="5"/>
-      <c r="EX152" s="5"/>
-      <c r="EY152" s="5"/>
-      <c r="EZ152" s="5"/>
-      <c r="FA152" s="5"/>
-      <c r="FB152" s="5"/>
-      <c r="FC152" s="5"/>
-      <c r="FD152" s="5"/>
-      <c r="FE152" s="5"/>
-      <c r="FF152" s="5"/>
-      <c r="FG152" s="5"/>
-      <c r="FH152" s="5"/>
-      <c r="FI152" s="5"/>
-      <c r="FJ152" s="5"/>
-      <c r="FK152" s="5"/>
-      <c r="FL152" s="5"/>
-      <c r="FM152" s="5"/>
-      <c r="FN152" s="5"/>
-      <c r="FO152" s="5"/>
-      <c r="FP152" s="5"/>
-      <c r="FQ152" s="5"/>
-      <c r="FR152" s="5"/>
-      <c r="FS152" s="5"/>
-      <c r="FT152" s="5"/>
-      <c r="FU152" s="5"/>
-      <c r="FV152" s="5"/>
-      <c r="FW152" s="5"/>
-      <c r="FX152" s="5"/>
-      <c r="FY152" s="5"/>
-      <c r="FZ152" s="5"/>
-      <c r="GA152" s="5"/>
-      <c r="GB152" s="5"/>
-      <c r="GC152" s="5"/>
-      <c r="GD152" s="5"/>
-      <c r="GE152" s="5"/>
-      <c r="GF152" s="5"/>
-      <c r="GG152" s="5"/>
-      <c r="GH152" s="5"/>
-      <c r="GI152" s="5"/>
-      <c r="GJ152" s="5"/>
-      <c r="GK152" s="5"/>
-      <c r="GL152" s="5"/>
-      <c r="GM152" s="5"/>
-      <c r="GN152" s="5"/>
-      <c r="GO152" s="5"/>
-      <c r="GP152" s="5"/>
-      <c r="GQ152" s="5"/>
-      <c r="GR152" s="5"/>
-      <c r="GS152" s="5"/>
-      <c r="GT152" s="5"/>
-      <c r="GU152" s="5"/>
-      <c r="GV152" s="5"/>
-      <c r="GW152" s="5"/>
-      <c r="GX152" s="5"/>
-      <c r="GY152" s="5"/>
-      <c r="GZ152" s="5"/>
-      <c r="HA152" s="5"/>
-      <c r="HB152" s="5"/>
-      <c r="HC152" s="5"/>
-      <c r="HD152" s="5"/>
-      <c r="HE152" s="5"/>
-      <c r="HF152" s="5"/>
-      <c r="HG152" s="5"/>
-      <c r="HH152" s="5"/>
-      <c r="HI152" s="5"/>
-      <c r="HJ152" s="5"/>
-      <c r="HK152" s="5"/>
-      <c r="HL152" s="5"/>
-      <c r="HM152" s="5"/>
-      <c r="HN152" s="5"/>
-      <c r="HO152" s="5"/>
-      <c r="HP152" s="5"/>
-      <c r="HQ152" s="5"/>
-      <c r="HR152" s="5"/>
-      <c r="HS152" s="5"/>
-      <c r="HT152" s="5"/>
-      <c r="HU152" s="5"/>
-      <c r="HV152" s="5"/>
-      <c r="HW152" s="5"/>
-      <c r="HX152" s="5"/>
-      <c r="HY152" s="5"/>
-      <c r="HZ152" s="5"/>
-      <c r="IA152" s="5"/>
-      <c r="IB152" s="5"/>
-      <c r="IC152" s="5"/>
-      <c r="ID152" s="5"/>
-      <c r="IE152" s="5"/>
-      <c r="IF152" s="5"/>
-      <c r="IG152" s="5"/>
-      <c r="IH152" s="5"/>
-      <c r="II152" s="5"/>
-      <c r="IJ152" s="5"/>
-      <c r="IK152" s="5"/>
-      <c r="IL152" s="5"/>
-      <c r="IM152" s="5"/>
-      <c r="IN152" s="5"/>
-      <c r="IO152" s="5"/>
-      <c r="IP152" s="5"/>
-      <c r="IQ152" s="5"/>
-      <c r="IR152" s="5"/>
-      <c r="IS152" s="5"/>
-      <c r="IT152" s="5"/>
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="34"/>
+      <c r="H152" s="4"/>
     </row>
     <row r="153" spans="1:254" s="2" customFormat="1">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="34"/>
-      <c r="H153" s="4"/>
-    </row>
-    <row r="154" spans="1:254">
-      <c r="A154" s="7"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="30"/>
-      <c r="H154" s="7"/>
+      <c r="A153" s="21"/>
+      <c r="B153" s="21"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="21"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="35"/>
+      <c r="H153" s="21"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="5"/>
+      <c r="M153" s="5"/>
+      <c r="N153" s="5"/>
+      <c r="O153" s="5"/>
+      <c r="P153" s="5"/>
+      <c r="Q153" s="5"/>
+      <c r="R153" s="5"/>
+      <c r="S153" s="5"/>
+      <c r="T153" s="5"/>
+      <c r="U153" s="5"/>
+      <c r="V153" s="5"/>
+      <c r="W153" s="5"/>
+      <c r="X153" s="5"/>
+      <c r="Y153" s="5"/>
+      <c r="Z153" s="5"/>
+      <c r="AA153" s="5"/>
+      <c r="AB153" s="5"/>
+      <c r="AC153" s="5"/>
+      <c r="AD153" s="5"/>
+      <c r="AE153" s="5"/>
+      <c r="AF153" s="5"/>
+      <c r="AG153" s="5"/>
+      <c r="AH153" s="5"/>
+      <c r="AI153" s="5"/>
+      <c r="AJ153" s="5"/>
+      <c r="AK153" s="5"/>
+      <c r="AL153" s="5"/>
+      <c r="AM153" s="5"/>
+      <c r="AN153" s="5"/>
+      <c r="AO153" s="5"/>
+      <c r="AP153" s="5"/>
+      <c r="AQ153" s="5"/>
+      <c r="AR153" s="5"/>
+      <c r="AS153" s="5"/>
+      <c r="AT153" s="5"/>
+      <c r="AU153" s="5"/>
+      <c r="AV153" s="5"/>
+      <c r="AW153" s="5"/>
+      <c r="AX153" s="5"/>
+      <c r="AY153" s="5"/>
+      <c r="AZ153" s="5"/>
+      <c r="BA153" s="5"/>
+      <c r="BB153" s="5"/>
+      <c r="BC153" s="5"/>
+      <c r="BD153" s="5"/>
+      <c r="BE153" s="5"/>
+      <c r="BF153" s="5"/>
+      <c r="BG153" s="5"/>
+      <c r="BH153" s="5"/>
+      <c r="BI153" s="5"/>
+      <c r="BJ153" s="5"/>
+      <c r="BK153" s="5"/>
+      <c r="BL153" s="5"/>
+      <c r="BM153" s="5"/>
+      <c r="BN153" s="5"/>
+      <c r="BO153" s="5"/>
+      <c r="BP153" s="5"/>
+      <c r="BQ153" s="5"/>
+      <c r="BR153" s="5"/>
+      <c r="BS153" s="5"/>
+      <c r="BT153" s="5"/>
+      <c r="BU153" s="5"/>
+      <c r="BV153" s="5"/>
+      <c r="BW153" s="5"/>
+      <c r="BX153" s="5"/>
+      <c r="BY153" s="5"/>
+      <c r="BZ153" s="5"/>
+      <c r="CA153" s="5"/>
+      <c r="CB153" s="5"/>
+      <c r="CC153" s="5"/>
+      <c r="CD153" s="5"/>
+      <c r="CE153" s="5"/>
+      <c r="CF153" s="5"/>
+      <c r="CG153" s="5"/>
+      <c r="CH153" s="5"/>
+      <c r="CI153" s="5"/>
+      <c r="CJ153" s="5"/>
+      <c r="CK153" s="5"/>
+      <c r="CL153" s="5"/>
+      <c r="CM153" s="5"/>
+      <c r="CN153" s="5"/>
+      <c r="CO153" s="5"/>
+      <c r="CP153" s="5"/>
+      <c r="CQ153" s="5"/>
+      <c r="CR153" s="5"/>
+      <c r="CS153" s="5"/>
+      <c r="CT153" s="5"/>
+      <c r="CU153" s="5"/>
+      <c r="CV153" s="5"/>
+      <c r="CW153" s="5"/>
+      <c r="CX153" s="5"/>
+      <c r="CY153" s="5"/>
+      <c r="CZ153" s="5"/>
+      <c r="DA153" s="5"/>
+      <c r="DB153" s="5"/>
+      <c r="DC153" s="5"/>
+      <c r="DD153" s="5"/>
+      <c r="DE153" s="5"/>
+      <c r="DF153" s="5"/>
+      <c r="DG153" s="5"/>
+      <c r="DH153" s="5"/>
+      <c r="DI153" s="5"/>
+      <c r="DJ153" s="5"/>
+      <c r="DK153" s="5"/>
+      <c r="DL153" s="5"/>
+      <c r="DM153" s="5"/>
+      <c r="DN153" s="5"/>
+      <c r="DO153" s="5"/>
+      <c r="DP153" s="5"/>
+      <c r="DQ153" s="5"/>
+      <c r="DR153" s="5"/>
+      <c r="DS153" s="5"/>
+      <c r="DT153" s="5"/>
+      <c r="DU153" s="5"/>
+      <c r="DV153" s="5"/>
+      <c r="DW153" s="5"/>
+      <c r="DX153" s="5"/>
+      <c r="DY153" s="5"/>
+      <c r="DZ153" s="5"/>
+      <c r="EA153" s="5"/>
+      <c r="EB153" s="5"/>
+      <c r="EC153" s="5"/>
+      <c r="ED153" s="5"/>
+      <c r="EE153" s="5"/>
+      <c r="EF153" s="5"/>
+      <c r="EG153" s="5"/>
+      <c r="EH153" s="5"/>
+      <c r="EI153" s="5"/>
+      <c r="EJ153" s="5"/>
+      <c r="EK153" s="5"/>
+      <c r="EL153" s="5"/>
+      <c r="EM153" s="5"/>
+      <c r="EN153" s="5"/>
+      <c r="EO153" s="5"/>
+      <c r="EP153" s="5"/>
+      <c r="EQ153" s="5"/>
+      <c r="ER153" s="5"/>
+      <c r="ES153" s="5"/>
+      <c r="ET153" s="5"/>
+      <c r="EU153" s="5"/>
+      <c r="EV153" s="5"/>
+      <c r="EW153" s="5"/>
+      <c r="EX153" s="5"/>
+      <c r="EY153" s="5"/>
+      <c r="EZ153" s="5"/>
+      <c r="FA153" s="5"/>
+      <c r="FB153" s="5"/>
+      <c r="FC153" s="5"/>
+      <c r="FD153" s="5"/>
+      <c r="FE153" s="5"/>
+      <c r="FF153" s="5"/>
+      <c r="FG153" s="5"/>
+      <c r="FH153" s="5"/>
+      <c r="FI153" s="5"/>
+      <c r="FJ153" s="5"/>
+      <c r="FK153" s="5"/>
+      <c r="FL153" s="5"/>
+      <c r="FM153" s="5"/>
+      <c r="FN153" s="5"/>
+      <c r="FO153" s="5"/>
+      <c r="FP153" s="5"/>
+      <c r="FQ153" s="5"/>
+      <c r="FR153" s="5"/>
+      <c r="FS153" s="5"/>
+      <c r="FT153" s="5"/>
+      <c r="FU153" s="5"/>
+      <c r="FV153" s="5"/>
+      <c r="FW153" s="5"/>
+      <c r="FX153" s="5"/>
+      <c r="FY153" s="5"/>
+      <c r="FZ153" s="5"/>
+      <c r="GA153" s="5"/>
+      <c r="GB153" s="5"/>
+      <c r="GC153" s="5"/>
+      <c r="GD153" s="5"/>
+      <c r="GE153" s="5"/>
+      <c r="GF153" s="5"/>
+      <c r="GG153" s="5"/>
+      <c r="GH153" s="5"/>
+      <c r="GI153" s="5"/>
+      <c r="GJ153" s="5"/>
+      <c r="GK153" s="5"/>
+      <c r="GL153" s="5"/>
+      <c r="GM153" s="5"/>
+      <c r="GN153" s="5"/>
+      <c r="GO153" s="5"/>
+      <c r="GP153" s="5"/>
+      <c r="GQ153" s="5"/>
+      <c r="GR153" s="5"/>
+      <c r="GS153" s="5"/>
+      <c r="GT153" s="5"/>
+      <c r="GU153" s="5"/>
+      <c r="GV153" s="5"/>
+      <c r="GW153" s="5"/>
+      <c r="GX153" s="5"/>
+      <c r="GY153" s="5"/>
+      <c r="GZ153" s="5"/>
+      <c r="HA153" s="5"/>
+      <c r="HB153" s="5"/>
+      <c r="HC153" s="5"/>
+      <c r="HD153" s="5"/>
+      <c r="HE153" s="5"/>
+      <c r="HF153" s="5"/>
+      <c r="HG153" s="5"/>
+      <c r="HH153" s="5"/>
+      <c r="HI153" s="5"/>
+      <c r="HJ153" s="5"/>
+      <c r="HK153" s="5"/>
+      <c r="HL153" s="5"/>
+      <c r="HM153" s="5"/>
+      <c r="HN153" s="5"/>
+      <c r="HO153" s="5"/>
+      <c r="HP153" s="5"/>
+      <c r="HQ153" s="5"/>
+      <c r="HR153" s="5"/>
+      <c r="HS153" s="5"/>
+      <c r="HT153" s="5"/>
+      <c r="HU153" s="5"/>
+      <c r="HV153" s="5"/>
+      <c r="HW153" s="5"/>
+      <c r="HX153" s="5"/>
+      <c r="HY153" s="5"/>
+      <c r="HZ153" s="5"/>
+      <c r="IA153" s="5"/>
+      <c r="IB153" s="5"/>
+      <c r="IC153" s="5"/>
+      <c r="ID153" s="5"/>
+      <c r="IE153" s="5"/>
+      <c r="IF153" s="5"/>
+      <c r="IG153" s="5"/>
+      <c r="IH153" s="5"/>
+      <c r="II153" s="5"/>
+      <c r="IJ153" s="5"/>
+      <c r="IK153" s="5"/>
+      <c r="IL153" s="5"/>
+      <c r="IM153" s="5"/>
+      <c r="IN153" s="5"/>
+      <c r="IO153" s="5"/>
+      <c r="IP153" s="5"/>
+      <c r="IQ153" s="5"/>
+      <c r="IR153" s="5"/>
+      <c r="IS153" s="5"/>
+      <c r="IT153" s="5"/>
+    </row>
+    <row r="154" spans="1:254" s="2" customFormat="1">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="34"/>
+      <c r="H154" s="4"/>
     </row>
     <row r="155" spans="1:254">
       <c r="A155" s="7"/>
-      <c r="B155" s="7"/>
+      <c r="B155" s="6"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -5446,7 +5506,7 @@
     </row>
     <row r="156" spans="1:254">
       <c r="A156" s="7"/>
-      <c r="B156" s="20"/>
+      <c r="B156" s="7"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -5456,7 +5516,7 @@
     </row>
     <row r="157" spans="1:254">
       <c r="A157" s="7"/>
-      <c r="B157" s="7"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -5467,7 +5527,7 @@
     <row r="158" spans="1:254">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
-      <c r="C158" s="4"/>
+      <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
@@ -5507,7 +5567,7 @@
     <row r="162" spans="1:8">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
-      <c r="C162" s="7"/>
+      <c r="C162" s="4"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
@@ -5516,7 +5576,7 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="7"/>
-      <c r="B163" s="22"/>
+      <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -5536,7 +5596,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
+      <c r="B165" s="22"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -5546,7 +5606,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="7"/>
-      <c r="B166" s="20"/>
+      <c r="B166" s="7"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -5566,7 +5626,7 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -5586,7 +5646,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7"/>
-      <c r="B170" s="20"/>
+      <c r="B170" s="7"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -5605,10 +5665,8 @@
       <c r="H171" s="7"/>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="45">
-        <v>43011</v>
-      </c>
-      <c r="B172" s="7"/>
+      <c r="A172" s="7"/>
+      <c r="B172" s="20"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -5617,7 +5675,9 @@
       <c r="H172" s="7"/>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="7"/>
+      <c r="A173" s="45">
+        <v>43011</v>
+      </c>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
@@ -5628,7 +5688,7 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="7"/>
-      <c r="B174" s="20"/>
+      <c r="B174" s="7"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -5648,7 +5708,7 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="7"/>
-      <c r="B176" s="7"/>
+      <c r="B176" s="20"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
@@ -5688,7 +5748,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="7"/>
-      <c r="B180" s="6"/>
+      <c r="B180" s="7"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -5698,8 +5758,8 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="7"/>
-      <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
       <c r="F181" s="7"/>
@@ -5708,7 +5768,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="7"/>
-      <c r="B182" s="19"/>
+      <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -5778,7 +5838,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="7"/>
-      <c r="B189" s="4"/>
+      <c r="B189" s="19"/>
       <c r="C189" s="4"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -5788,7 +5848,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="7"/>
-      <c r="B190" s="19"/>
+      <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -5798,7 +5858,7 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="7"/>
-      <c r="B191" s="21"/>
+      <c r="B191" s="19"/>
       <c r="C191" s="4"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -5818,7 +5878,7 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="7"/>
-      <c r="B193" s="19"/>
+      <c r="B193" s="21"/>
       <c r="C193" s="4"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
@@ -5859,7 +5919,7 @@
     <row r="197" spans="1:8">
       <c r="A197" s="7"/>
       <c r="B197" s="19"/>
-      <c r="C197" s="7"/>
+      <c r="C197" s="4"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
@@ -5868,7 +5928,7 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="7"/>
-      <c r="B198" s="4"/>
+      <c r="B198" s="19"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
@@ -5888,7 +5948,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="7"/>
-      <c r="B200" s="19"/>
+      <c r="B200" s="4"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -5948,7 +6008,7 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="7"/>
-      <c r="B206" s="21"/>
+      <c r="B206" s="19"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -5988,7 +6048,7 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="7"/>
-      <c r="B210" s="4"/>
+      <c r="B210" s="21"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -5998,7 +6058,7 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="7"/>
-      <c r="B211" s="6"/>
+      <c r="B211" s="4"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -6008,7 +6068,7 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="7"/>
-      <c r="B212" s="4"/>
+      <c r="B212" s="6"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
@@ -6018,7 +6078,7 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="7"/>
-      <c r="B213" s="19"/>
+      <c r="B213" s="4"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -6068,7 +6128,7 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="7"/>
-      <c r="B218" s="21"/>
+      <c r="B218" s="19"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
@@ -6078,7 +6138,7 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="7"/>
-      <c r="B219" s="19"/>
+      <c r="B219" s="21"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
@@ -6128,7 +6188,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="21"/>
+      <c r="B224" s="19"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -6188,7 +6248,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="4"/>
+      <c r="B230" s="21"/>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -6198,7 +6258,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="6"/>
+      <c r="B231" s="4"/>
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -6208,8 +6268,8 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="4"/>
-      <c r="C232" s="4"/>
+      <c r="B232" s="6"/>
+      <c r="C232" s="7"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
       <c r="F232" s="7"/>
@@ -6218,7 +6278,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="7"/>
-      <c r="B233" s="19"/>
+      <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -6228,7 +6288,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="7"/>
-      <c r="B234" s="7"/>
+      <c r="B234" s="19"/>
       <c r="C234" s="4"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -6238,7 +6298,7 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="7"/>
-      <c r="B235" s="20"/>
+      <c r="B235" s="7"/>
       <c r="C235" s="4"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -6278,7 +6338,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="7"/>
-      <c r="B239" s="7"/>
+      <c r="B239" s="20"/>
       <c r="C239" s="4"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -6288,7 +6348,7 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="7"/>
-      <c r="B240" s="20"/>
+      <c r="B240" s="7"/>
       <c r="C240" s="4"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -6298,7 +6358,7 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="7"/>
-      <c r="B241" s="23"/>
+      <c r="B241" s="20"/>
       <c r="C241" s="4"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
@@ -6318,7 +6378,7 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="7"/>
-      <c r="B243" s="20"/>
+      <c r="B243" s="23"/>
       <c r="C243" s="4"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -6358,7 +6418,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="7"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="4"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -6368,7 +6428,7 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="7"/>
-      <c r="B248" s="20"/>
+      <c r="B248" s="7"/>
       <c r="C248" s="4"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -6418,7 +6478,7 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="7"/>
+      <c r="B253" s="20"/>
       <c r="C253" s="4"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -6428,8 +6488,8 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="7"/>
-      <c r="B254" s="20"/>
-      <c r="C254" s="7"/>
+      <c r="B254" s="7"/>
+      <c r="C254" s="4"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
       <c r="F254" s="7"/>
@@ -6438,7 +6498,7 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="7"/>
-      <c r="B255" s="7"/>
+      <c r="B255" s="20"/>
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -6448,7 +6508,7 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="7"/>
-      <c r="B256" s="20"/>
+      <c r="B256" s="7"/>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -6458,7 +6518,7 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="7"/>
-      <c r="B257" s="23"/>
+      <c r="B257" s="20"/>
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -6508,8 +6568,8 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="7"/>
-      <c r="B262" s="20"/>
-      <c r="C262" s="4"/>
+      <c r="B262" s="23"/>
+      <c r="C262" s="7"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
       <c r="F262" s="7"/>
@@ -6518,7 +6578,7 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="7"/>
-      <c r="B263" s="23"/>
+      <c r="B263" s="20"/>
       <c r="C263" s="4"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
@@ -6528,7 +6588,7 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="7"/>
-      <c r="B264" s="24"/>
+      <c r="B264" s="23"/>
       <c r="C264" s="4"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -6556,9 +6616,9 @@
       <c r="G266" s="30"/>
       <c r="H266" s="7"/>
     </row>
-    <row r="267" spans="1:8" ht="11.25">
+    <row r="267" spans="1:8">
       <c r="A267" s="7"/>
-      <c r="B267" s="25"/>
+      <c r="B267" s="24"/>
       <c r="C267" s="4"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
@@ -6566,9 +6626,9 @@
       <c r="G267" s="30"/>
       <c r="H267" s="7"/>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" ht="11.25">
       <c r="A268" s="7"/>
-      <c r="B268" s="23"/>
+      <c r="B268" s="25"/>
       <c r="C268" s="4"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
@@ -6608,7 +6668,7 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="7"/>
-      <c r="B272" s="24"/>
+      <c r="B272" s="23"/>
       <c r="C272" s="4"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
@@ -6638,7 +6698,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="7"/>
-      <c r="B275" s="23"/>
+      <c r="B275" s="24"/>
       <c r="C275" s="4"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -6648,7 +6708,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="7"/>
-      <c r="B276" s="24"/>
+      <c r="B276" s="23"/>
       <c r="C276" s="4"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -6656,15 +6716,15 @@
       <c r="G276" s="30"/>
       <c r="H276" s="7"/>
     </row>
-    <row r="277" spans="1:8" s="2" customFormat="1">
-      <c r="A277" s="4"/>
+    <row r="277" spans="1:8">
+      <c r="A277" s="7"/>
       <c r="B277" s="24"/>
       <c r="C277" s="4"/>
-      <c r="D277" s="4"/>
-      <c r="E277" s="4"/>
-      <c r="F277" s="4"/>
-      <c r="G277" s="34"/>
-      <c r="H277" s="4"/>
+      <c r="D277" s="7"/>
+      <c r="E277" s="7"/>
+      <c r="F277" s="7"/>
+      <c r="G277" s="30"/>
+      <c r="H277" s="7"/>
     </row>
     <row r="278" spans="1:8" s="2" customFormat="1">
       <c r="A278" s="4"/>
@@ -6676,19 +6736,19 @@
       <c r="G278" s="34"/>
       <c r="H278" s="4"/>
     </row>
-    <row r="279" spans="1:8">
-      <c r="A279" s="7"/>
+    <row r="279" spans="1:8" s="2" customFormat="1">
+      <c r="A279" s="4"/>
       <c r="B279" s="24"/>
       <c r="C279" s="4"/>
-      <c r="D279" s="7"/>
-      <c r="E279" s="7"/>
-      <c r="F279" s="7"/>
-      <c r="G279" s="30"/>
-      <c r="H279" s="7"/>
+      <c r="D279" s="4"/>
+      <c r="E279" s="4"/>
+      <c r="F279" s="4"/>
+      <c r="G279" s="34"/>
+      <c r="H279" s="4"/>
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="7"/>
-      <c r="B280" s="23"/>
+      <c r="B280" s="24"/>
       <c r="C280" s="4"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
@@ -6698,7 +6758,7 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="7"/>
-      <c r="B281" s="24"/>
+      <c r="B281" s="23"/>
       <c r="C281" s="4"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
@@ -6728,7 +6788,7 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
-      <c r="B284" s="22"/>
+      <c r="B284" s="24"/>
       <c r="C284" s="4"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -6738,7 +6798,7 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="7"/>
-      <c r="B285" s="7"/>
+      <c r="B285" s="22"/>
       <c r="C285" s="4"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
@@ -6758,7 +6818,7 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="7"/>
-      <c r="B287" s="20"/>
+      <c r="B287" s="7"/>
       <c r="C287" s="4"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
@@ -6778,7 +6838,7 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" s="7"/>
-      <c r="B289" s="7"/>
+      <c r="B289" s="20"/>
       <c r="C289" s="4"/>
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
@@ -6809,7 +6869,7 @@
     <row r="292" spans="1:8">
       <c r="A292" s="7"/>
       <c r="B292" s="7"/>
-      <c r="C292" s="7"/>
+      <c r="C292" s="4"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
       <c r="F292" s="7"/>
@@ -6818,7 +6878,7 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="7"/>
-      <c r="B293" s="6"/>
+      <c r="B293" s="7"/>
       <c r="C293" s="7"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
@@ -6828,7 +6888,7 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="7"/>
-      <c r="B294" s="7"/>
+      <c r="B294" s="6"/>
       <c r="C294" s="7"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
@@ -6908,7 +6968,7 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="7"/>
-      <c r="B302" s="6"/>
+      <c r="B302" s="7"/>
       <c r="C302" s="7"/>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
@@ -6918,8 +6978,8 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="7"/>
-      <c r="B303" s="4"/>
-      <c r="C303" s="4"/>
+      <c r="B303" s="6"/>
+      <c r="C303" s="7"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
       <c r="F303" s="7"/>
@@ -6928,7 +6988,7 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="7"/>
-      <c r="B304" s="19"/>
+      <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
@@ -6958,7 +7018,7 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="7"/>
-      <c r="B307" s="4"/>
+      <c r="B307" s="19"/>
       <c r="C307" s="4"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
@@ -7018,7 +7078,7 @@
     </row>
     <row r="313" spans="1:8">
       <c r="A313" s="7"/>
-      <c r="B313" s="19"/>
+      <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="7"/>
       <c r="E313" s="7"/>
@@ -7038,7 +7098,7 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315" s="7"/>
-      <c r="B315" s="21"/>
+      <c r="B315" s="19"/>
       <c r="C315" s="4"/>
       <c r="D315" s="7"/>
       <c r="E315" s="7"/>
@@ -7048,8 +7108,8 @@
     </row>
     <row r="316" spans="1:8">
       <c r="A316" s="7"/>
-      <c r="B316" s="7"/>
-      <c r="C316" s="7"/>
+      <c r="B316" s="21"/>
+      <c r="C316" s="4"/>
       <c r="D316" s="7"/>
       <c r="E316" s="7"/>
       <c r="F316" s="7"/>
@@ -7058,7 +7118,7 @@
     </row>
     <row r="317" spans="1:8">
       <c r="A317" s="7"/>
-      <c r="B317" s="6"/>
+      <c r="B317" s="7"/>
       <c r="C317" s="7"/>
       <c r="D317" s="7"/>
       <c r="E317" s="7"/>
@@ -7066,15 +7126,15 @@
       <c r="G317" s="30"/>
       <c r="H317" s="7"/>
     </row>
-    <row r="318" spans="1:8" s="2" customFormat="1">
-      <c r="A318" s="4"/>
-      <c r="B318" s="4"/>
-      <c r="C318" s="9"/>
-      <c r="D318" s="4"/>
-      <c r="E318" s="4"/>
-      <c r="F318" s="4"/>
-      <c r="G318" s="34"/>
-      <c r="H318" s="4"/>
+    <row r="318" spans="1:8">
+      <c r="A318" s="7"/>
+      <c r="B318" s="6"/>
+      <c r="C318" s="7"/>
+      <c r="D318" s="7"/>
+      <c r="E318" s="7"/>
+      <c r="F318" s="7"/>
+      <c r="G318" s="30"/>
+      <c r="H318" s="7"/>
     </row>
     <row r="319" spans="1:8" s="2" customFormat="1">
       <c r="A319" s="4"/>
@@ -7098,7 +7158,7 @@
     </row>
     <row r="321" spans="1:8" s="2" customFormat="1">
       <c r="A321" s="4"/>
-      <c r="B321" s="19"/>
+      <c r="B321" s="4"/>
       <c r="C321" s="9"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
@@ -7148,8 +7208,8 @@
     </row>
     <row r="326" spans="1:8" s="2" customFormat="1">
       <c r="A326" s="4"/>
-      <c r="B326" s="26"/>
-      <c r="C326" s="4"/>
+      <c r="B326" s="19"/>
+      <c r="C326" s="9"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
@@ -7198,7 +7258,7 @@
     </row>
     <row r="331" spans="1:8" s="2" customFormat="1">
       <c r="A331" s="4"/>
-      <c r="B331" s="21"/>
+      <c r="B331" s="26"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -7248,7 +7308,7 @@
     </row>
     <row r="336" spans="1:8" s="2" customFormat="1">
       <c r="A336" s="4"/>
-      <c r="B336" s="19"/>
+      <c r="B336" s="21"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
@@ -7258,7 +7318,7 @@
     </row>
     <row r="337" spans="1:8" s="2" customFormat="1">
       <c r="A337" s="4"/>
-      <c r="B337" s="21"/>
+      <c r="B337" s="19"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
@@ -7268,7 +7328,7 @@
     </row>
     <row r="338" spans="1:8" s="2" customFormat="1">
       <c r="A338" s="4"/>
-      <c r="B338" s="4"/>
+      <c r="B338" s="21"/>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
@@ -7276,20 +7336,20 @@
       <c r="G338" s="34"/>
       <c r="H338" s="4"/>
     </row>
-    <row r="339" spans="1:8">
-      <c r="A339" s="7"/>
-      <c r="B339" s="6"/>
-      <c r="C339" s="7"/>
-      <c r="D339" s="7"/>
-      <c r="E339" s="7"/>
-      <c r="F339" s="7"/>
-      <c r="G339" s="30"/>
-      <c r="H339" s="7"/>
+    <row r="339" spans="1:8" s="2" customFormat="1">
+      <c r="A339" s="4"/>
+      <c r="B339" s="4"/>
+      <c r="C339" s="4"/>
+      <c r="D339" s="4"/>
+      <c r="E339" s="4"/>
+      <c r="F339" s="4"/>
+      <c r="G339" s="34"/>
+      <c r="H339" s="4"/>
     </row>
     <row r="340" spans="1:8">
       <c r="A340" s="7"/>
-      <c r="B340" s="7"/>
-      <c r="C340" s="4"/>
+      <c r="B340" s="6"/>
+      <c r="C340" s="7"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
       <c r="F340" s="7"/>
@@ -7358,7 +7418,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
-      <c r="B347" s="4"/>
+      <c r="B347" s="7"/>
       <c r="C347" s="4"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -7369,7 +7429,7 @@
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
       <c r="B348" s="4"/>
-      <c r="C348" s="7"/>
+      <c r="C348" s="4"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
       <c r="F348" s="7"/>
@@ -7378,7 +7438,7 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="7"/>
-      <c r="B349" s="6"/>
+      <c r="B349" s="4"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
@@ -7388,7 +7448,7 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="7"/>
-      <c r="B350" s="7"/>
+      <c r="B350" s="6"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
@@ -7398,7 +7458,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="22"/>
+      <c r="B351" s="7"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -7408,7 +7468,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="7"/>
-      <c r="B352" s="7"/>
+      <c r="B352" s="22"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
@@ -7448,7 +7508,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="6"/>
+      <c r="B356" s="7"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -7458,7 +7518,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="7"/>
+      <c r="B357" s="6"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -7468,7 +7528,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="7"/>
-      <c r="B358" s="20"/>
+      <c r="B358" s="7"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -7498,7 +7558,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="22"/>
+      <c r="B361" s="20"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -7508,7 +7568,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="20"/>
+      <c r="B362" s="22"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -7528,7 +7588,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="22"/>
+      <c r="B364" s="20"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -7538,7 +7598,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="20"/>
+      <c r="B365" s="22"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
@@ -7548,7 +7608,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="22"/>
+      <c r="B366" s="20"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -7558,7 +7618,7 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="7"/>
-      <c r="B367" s="20"/>
+      <c r="B367" s="22"/>
       <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
@@ -7588,7 +7648,7 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="7"/>
-      <c r="B370" s="7"/>
+      <c r="B370" s="20"/>
       <c r="C370" s="7"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
@@ -7598,7 +7658,7 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="7"/>
-      <c r="B371" s="27"/>
+      <c r="B371" s="7"/>
       <c r="C371" s="7"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
@@ -7608,7 +7668,7 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="22"/>
+      <c r="B372" s="27"/>
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
@@ -7618,8 +7678,8 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="7"/>
-      <c r="C373" s="4"/>
+      <c r="B373" s="22"/>
+      <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
       <c r="F373" s="7"/>
@@ -7628,7 +7688,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="20"/>
+      <c r="B374" s="7"/>
       <c r="C374" s="4"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -7658,7 +7718,7 @@
     </row>
     <row r="377" spans="1:8">
       <c r="A377" s="7"/>
-      <c r="B377" s="7"/>
+      <c r="B377" s="20"/>
       <c r="C377" s="4"/>
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
@@ -7688,7 +7748,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="7"/>
-      <c r="B380" s="20"/>
+      <c r="B380" s="7"/>
       <c r="C380" s="4"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
@@ -7708,8 +7768,8 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" s="7"/>
-      <c r="B382" s="7"/>
-      <c r="C382" s="7"/>
+      <c r="B382" s="20"/>
+      <c r="C382" s="4"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
       <c r="F382" s="7"/>
@@ -7718,7 +7778,7 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
-      <c r="B383" s="6"/>
+      <c r="B383" s="7"/>
       <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
@@ -7728,7 +7788,7 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
-      <c r="B384" s="7"/>
+      <c r="B384" s="6"/>
       <c r="C384" s="7"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
@@ -7788,7 +7848,7 @@
     </row>
     <row r="390" spans="1:8">
       <c r="A390" s="7"/>
-      <c r="B390" s="6"/>
+      <c r="B390" s="7"/>
       <c r="C390" s="7"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
@@ -7798,7 +7858,7 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" s="7"/>
-      <c r="B391" s="7"/>
+      <c r="B391" s="6"/>
       <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
@@ -7819,7 +7879,7 @@
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
       <c r="B393" s="7"/>
-      <c r="C393" s="4"/>
+      <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
       <c r="F393" s="7"/>
@@ -7828,7 +7888,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="20"/>
+      <c r="B394" s="7"/>
       <c r="C394" s="4"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -7839,7 +7899,7 @@
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
       <c r="B395" s="20"/>
-      <c r="C395" s="7"/>
+      <c r="C395" s="4"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
       <c r="F395" s="7"/>
@@ -7848,7 +7908,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
-      <c r="B396" s="27"/>
+      <c r="B396" s="20"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -7858,7 +7918,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
-      <c r="B397" s="22"/>
+      <c r="B397" s="27"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -7908,7 +7968,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="7"/>
+      <c r="B402" s="22"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -7918,7 +7978,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
-      <c r="B403" s="6"/>
+      <c r="B403" s="7"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -7928,7 +7988,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
-      <c r="B404" s="7"/>
+      <c r="B404" s="6"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -7938,7 +7998,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="20"/>
+      <c r="B405" s="7"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -7948,7 +8008,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="22"/>
+      <c r="B406" s="20"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -7968,7 +8028,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="20"/>
+      <c r="B408" s="22"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -8008,7 +8068,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="7"/>
+      <c r="B412" s="20"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -8018,7 +8078,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="20"/>
+      <c r="B413" s="7"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -8038,7 +8098,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="22"/>
+      <c r="B415" s="20"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -8048,7 +8108,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="7"/>
+      <c r="B416" s="22"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -8058,7 +8118,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="7"/>
-      <c r="B417" s="6"/>
+      <c r="B417" s="7"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -8068,7 +8128,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="7"/>
-      <c r="B418" s="7"/>
+      <c r="B418" s="6"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -8088,7 +8148,7 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="7"/>
-      <c r="B420" s="6"/>
+      <c r="B420" s="7"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -8098,7 +8158,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="7"/>
+      <c r="B421" s="6"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -8108,7 +8168,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="7"/>
-      <c r="B422" s="20"/>
+      <c r="B422" s="7"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -8128,7 +8188,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="7"/>
-      <c r="B424" s="7"/>
+      <c r="B424" s="20"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -8138,7 +8198,7 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" s="7"/>
-      <c r="B425" s="6"/>
+      <c r="B425" s="7"/>
       <c r="C425" s="7"/>
       <c r="D425" s="7"/>
       <c r="E425" s="7"/>
@@ -8148,7 +8208,7 @@
     </row>
     <row r="426" spans="1:8">
       <c r="A426" s="7"/>
-      <c r="B426" s="7"/>
+      <c r="B426" s="6"/>
       <c r="C426" s="7"/>
       <c r="D426" s="7"/>
       <c r="E426" s="7"/>
@@ -8198,7 +8258,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="7"/>
-      <c r="B431" s="6"/>
+      <c r="B431" s="7"/>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -8208,7 +8268,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="7"/>
-      <c r="B432" s="7"/>
+      <c r="B432" s="6"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -8268,7 +8328,7 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="7"/>
-      <c r="B438" s="6"/>
+      <c r="B438" s="7"/>
       <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
@@ -8278,7 +8338,7 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="7"/>
-      <c r="B439" s="7"/>
+      <c r="B439" s="6"/>
       <c r="C439" s="7"/>
       <c r="D439" s="7"/>
       <c r="E439" s="7"/>
@@ -8298,7 +8358,7 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" s="7"/>
-      <c r="B441" s="6"/>
+      <c r="B441" s="7"/>
       <c r="C441" s="7"/>
       <c r="D441" s="7"/>
       <c r="E441" s="7"/>
@@ -8308,7 +8368,7 @@
     </row>
     <row r="442" spans="1:8">
       <c r="A442" s="7"/>
-      <c r="B442" s="4"/>
+      <c r="B442" s="6"/>
       <c r="C442" s="7"/>
       <c r="D442" s="7"/>
       <c r="E442" s="7"/>
@@ -8328,7 +8388,7 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="7"/>
-      <c r="B444" s="7"/>
+      <c r="B444" s="4"/>
       <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
@@ -8358,7 +8418,7 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" s="7"/>
-      <c r="B447" s="6"/>
+      <c r="B447" s="7"/>
       <c r="C447" s="7"/>
       <c r="D447" s="7"/>
       <c r="E447" s="7"/>
@@ -8368,8 +8428,8 @@
     </row>
     <row r="448" spans="1:8">
       <c r="A448" s="7"/>
-      <c r="B448" s="7"/>
-      <c r="C448" s="4"/>
+      <c r="B448" s="6"/>
+      <c r="C448" s="7"/>
       <c r="D448" s="7"/>
       <c r="E448" s="7"/>
       <c r="F448" s="7"/>
@@ -8419,7 +8479,7 @@
     <row r="453" spans="1:8">
       <c r="A453" s="7"/>
       <c r="B453" s="7"/>
-      <c r="C453" s="7"/>
+      <c r="C453" s="4"/>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
       <c r="F453" s="7"/>
@@ -8428,7 +8488,7 @@
     </row>
     <row r="454" spans="1:8">
       <c r="A454" s="7"/>
-      <c r="B454" s="6"/>
+      <c r="B454" s="7"/>
       <c r="C454" s="7"/>
       <c r="D454" s="7"/>
       <c r="E454" s="7"/>
@@ -8438,8 +8498,8 @@
     </row>
     <row r="455" spans="1:8">
       <c r="A455" s="7"/>
-      <c r="B455" s="7"/>
-      <c r="C455" s="4"/>
+      <c r="B455" s="6"/>
+      <c r="C455" s="7"/>
       <c r="D455" s="7"/>
       <c r="E455" s="7"/>
       <c r="F455" s="7"/>
@@ -8479,7 +8539,7 @@
     <row r="459" spans="1:8">
       <c r="A459" s="7"/>
       <c r="B459" s="7"/>
-      <c r="C459" s="7"/>
+      <c r="C459" s="4"/>
       <c r="D459" s="7"/>
       <c r="E459" s="7"/>
       <c r="F459" s="7"/>
@@ -8488,7 +8548,7 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" s="7"/>
-      <c r="B460" s="6"/>
+      <c r="B460" s="7"/>
       <c r="C460" s="7"/>
       <c r="D460" s="7"/>
       <c r="E460" s="7"/>
@@ -8498,7 +8558,7 @@
     </row>
     <row r="461" spans="1:8">
       <c r="A461" s="7"/>
-      <c r="B461" s="22"/>
+      <c r="B461" s="6"/>
       <c r="C461" s="7"/>
       <c r="D461" s="7"/>
       <c r="E461" s="7"/>
@@ -8558,7 +8618,7 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" s="7"/>
-      <c r="B467" s="7"/>
+      <c r="B467" s="22"/>
       <c r="C467" s="7"/>
       <c r="D467" s="7"/>
       <c r="E467" s="7"/>
@@ -8568,7 +8628,7 @@
     </row>
     <row r="468" spans="1:8">
       <c r="A468" s="7"/>
-      <c r="B468" s="6"/>
+      <c r="B468" s="7"/>
       <c r="C468" s="7"/>
       <c r="D468" s="7"/>
       <c r="E468" s="7"/>
@@ -8578,7 +8638,7 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" s="7"/>
-      <c r="B469" s="22"/>
+      <c r="B469" s="6"/>
       <c r="C469" s="7"/>
       <c r="D469" s="7"/>
       <c r="E469" s="7"/>
@@ -8607,8 +8667,8 @@
       <c r="H471" s="7"/>
     </row>
     <row r="472" spans="1:8">
-      <c r="A472" s="6"/>
-      <c r="B472" s="7"/>
+      <c r="A472" s="7"/>
+      <c r="B472" s="22"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
@@ -8617,7 +8677,7 @@
       <c r="H472" s="7"/>
     </row>
     <row r="473" spans="1:8">
-      <c r="A473" s="7"/>
+      <c r="A473" s="6"/>
       <c r="B473" s="7"/>
       <c r="C473" s="7"/>
       <c r="D473" s="7"/>
@@ -8658,7 +8718,7 @@
     </row>
     <row r="477" spans="1:8">
       <c r="A477" s="7"/>
-      <c r="B477" s="28"/>
+      <c r="B477" s="7"/>
       <c r="C477" s="7"/>
       <c r="D477" s="7"/>
       <c r="E477" s="7"/>
@@ -8688,7 +8748,7 @@
     </row>
     <row r="480" spans="1:8">
       <c r="A480" s="7"/>
-      <c r="B480" s="7"/>
+      <c r="B480" s="28"/>
       <c r="C480" s="7"/>
       <c r="D480" s="7"/>
       <c r="E480" s="7"/>
@@ -8698,7 +8758,7 @@
     </row>
     <row r="481" spans="1:8">
       <c r="A481" s="7"/>
-      <c r="B481" s="28"/>
+      <c r="B481" s="7"/>
       <c r="C481" s="7"/>
       <c r="D481" s="7"/>
       <c r="E481" s="7"/>
@@ -8708,7 +8768,7 @@
     </row>
     <row r="482" spans="1:8">
       <c r="A482" s="7"/>
-      <c r="B482" s="7"/>
+      <c r="B482" s="28"/>
       <c r="C482" s="7"/>
       <c r="D482" s="7"/>
       <c r="E482" s="7"/>
@@ -8718,21 +8778,21 @@
     </row>
     <row r="483" spans="1:8">
       <c r="A483" s="7"/>
-      <c r="B483" s="29"/>
-      <c r="C483" s="30"/>
+      <c r="B483" s="7"/>
+      <c r="C483" s="7"/>
       <c r="D483" s="7"/>
       <c r="E483" s="7"/>
-      <c r="F483" s="29"/>
+      <c r="F483" s="7"/>
       <c r="G483" s="30"/>
       <c r="H483" s="7"/>
     </row>
     <row r="484" spans="1:8">
       <c r="A484" s="7"/>
-      <c r="B484" s="7"/>
-      <c r="C484" s="7"/>
+      <c r="B484" s="29"/>
+      <c r="C484" s="30"/>
       <c r="D484" s="7"/>
       <c r="E484" s="7"/>
-      <c r="F484" s="7"/>
+      <c r="F484" s="29"/>
       <c r="G484" s="30"/>
       <c r="H484" s="7"/>
     </row>
@@ -12636,13 +12696,23 @@
       <c r="G874" s="30"/>
       <c r="H874" s="7"/>
     </row>
+    <row r="875" spans="1:8">
+      <c r="A875" s="7"/>
+      <c r="B875" s="7"/>
+      <c r="C875" s="7"/>
+      <c r="D875" s="7"/>
+      <c r="E875" s="7"/>
+      <c r="F875" s="7"/>
+      <c r="G875" s="30"/>
+      <c r="H875" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="69" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="G60 G52:G53 G57:G58" formulaRange="1"/>
+    <ignoredError sqref="G61 G52:G53 G57:G58" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/JsonPretty Feature Matrix.xlsx
+++ b/JsonPretty Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="122">
   <si>
     <t>Feature</t>
   </si>
@@ -203,9 +203,6 @@
     <t>java time</t>
   </si>
   <si>
-    <t>base64</t>
-  </si>
-  <si>
     <t>hex color values</t>
   </si>
   <si>
@@ -279,9 +276,6 @@
   </si>
   <si>
     <t>base64 utf8</t>
-  </si>
-  <si>
-    <t>base64 ascii</t>
   </si>
   <si>
     <t>0.00.05</t>
@@ -381,6 +375,15 @@
   </si>
   <si>
     <t>0.00.12</t>
+  </si>
+  <si>
+    <t>base64 with ascii and offset</t>
+  </si>
+  <si>
+    <t>base64-url-safe variant</t>
+  </si>
+  <si>
+    <t>0.00.13</t>
   </si>
 </sst>
 </file>
@@ -666,7 +669,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955224"/>
+          <c:w val="0.91978071330955236"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -699,10 +702,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$61</c:f>
+              <c:f>Progress!$A$48:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -744,16 +747,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>42899</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$61</c:f>
+              <c:f>Progress!$B$48:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -794,6 +800,9 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
@@ -827,10 +836,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$61</c:f>
+              <c:f>Progress!$A$48:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -872,16 +881,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>42899</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$61</c:f>
+              <c:f>Progress!$C$48:$C$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -922,6 +934,9 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
@@ -955,10 +970,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$61</c:f>
+              <c:f>Progress!$A$48:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -1000,16 +1015,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>42899</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$61</c:f>
+              <c:f>Progress!$D$48:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1050,6 +1068,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1083,9 +1104,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$47:$A$61</c:f>
+              <c:f>Progress!$A$47:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Date</c:v>
                 </c:pt>
@@ -1130,16 +1151,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2017-06-13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017-06-14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$61</c:f>
+              <c:f>Progress!$E$48:$E$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1180,17 +1204,20 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="134319488"/>
-        <c:axId val="134087808"/>
+        <c:axId val="136613248"/>
+        <c:axId val="136381568"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="134319488"/>
+        <c:axId val="136613248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,7 +1250,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134087808"/>
+        <c:crossAx val="136381568"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1231,7 +1258,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="134087808"/>
+        <c:axId val="136381568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,7 +1300,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134319488"/>
+        <c:crossAx val="136613248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1295,8 +1322,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.3735105630880101E-2"/>
-          <c:y val="0.24095083738519724"/>
+          <c:x val="4.3735105630880095E-2"/>
+          <c:y val="0.24095083738519726"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1363,7 +1390,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001399" r="0.75000000000001399" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.7500000000000141" r="0.7500000000000141" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1417,7 +1444,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127595E-2"/>
+          <c:x val="4.4510450248127609E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1452,10 +1479,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$61</c:f>
+              <c:f>Progress!$A$48:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -1497,16 +1524,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>42899</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$61</c:f>
+              <c:f>Progress!$G$48:$G$62</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1547,17 +1577,20 @@
                   <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.42857142857142855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="134123904"/>
-        <c:axId val="134125440"/>
+        <c:axId val="136417664"/>
+        <c:axId val="136419200"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="134123904"/>
+        <c:axId val="136417664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1565,13 +1598,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="134125440"/>
+        <c:crossAx val="136419200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="134125440"/>
+        <c:axId val="136419200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1614,7 +1647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134123904"/>
+        <c:crossAx val="136417664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1663,7 +1696,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001399" r="0.75000000000001399" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.7500000000000141" r="0.7500000000000141" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1714,10 +1747,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$61</c:f>
+              <c:f>Progress!$A$48:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -1759,16 +1792,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>42899</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$61</c:f>
+              <c:f>Progress!$C$48:$C$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1809,6 +1845,9 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
@@ -1842,10 +1881,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$61</c:f>
+              <c:f>Progress!$A$48:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -1887,16 +1926,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>42899</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$61</c:f>
+              <c:f>Progress!$D$48:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1937,17 +1979,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="134678784"/>
-        <c:axId val="134680576"/>
+        <c:axId val="136775936"/>
+        <c:axId val="136777728"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="134678784"/>
+        <c:axId val="136775936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1980,14 +2025,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134680576"/>
+        <c:crossAx val="136777728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:minorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="134680576"/>
+        <c:axId val="136777728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2029,7 +2074,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134678784"/>
+        <c:crossAx val="136775936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2078,7 +2123,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001399" r="0.75000000000001399" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.7500000000000141" r="0.7500000000000141" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2128,7 +2173,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2538,8 +2583,8 @@
   </sheetPr>
   <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2605,7 +2650,7 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="B9" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -2614,7 +2659,7 @@
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="B10" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>2</v>
@@ -2720,7 +2765,7 @@
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
       <c r="B24" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>2</v>
@@ -2729,7 +2774,7 @@
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
       <c r="B25" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>2</v>
@@ -2738,7 +2783,7 @@
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>2</v>
@@ -2756,7 +2801,7 @@
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
       <c r="B28" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>14</v>
@@ -2765,7 +2810,7 @@
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
       <c r="B29" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>14</v>
@@ -2774,7 +2819,7 @@
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
       <c r="B30" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>14</v>
@@ -2783,7 +2828,7 @@
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
@@ -2792,7 +2837,7 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>2</v>
@@ -2801,7 +2846,7 @@
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2</v>
@@ -2810,7 +2855,7 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>2</v>
@@ -2819,7 +2864,7 @@
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>2</v>
@@ -2828,7 +2873,7 @@
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
       <c r="B36" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>2</v>
@@ -2837,7 +2882,7 @@
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
       <c r="B37" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>14</v>
@@ -2846,7 +2891,7 @@
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
       <c r="B38" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>14</v>
@@ -2864,7 +2909,7 @@
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1">
       <c r="B40" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>14</v>
@@ -2873,7 +2918,7 @@
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
       <c r="B41" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>14</v>
@@ -2896,7 +2941,7 @@
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
       <c r="B44" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>2</v>
@@ -2905,7 +2950,7 @@
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
       <c r="B45" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>2</v>
@@ -2955,7 +3000,7 @@
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>2</v>
@@ -3032,7 +3077,7 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>2</v>
@@ -3050,7 +3095,7 @@
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
       <c r="B62" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>2</v>
@@ -3059,7 +3104,7 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>2</v>
@@ -3068,7 +3113,7 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>2</v>
@@ -3077,7 +3122,7 @@
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
       <c r="B65" s="23" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>2</v>
@@ -3086,7 +3131,7 @@
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
       <c r="B66" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>2</v>
@@ -3095,7 +3140,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="23" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>2</v>
@@ -3104,7 +3149,7 @@
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>14</v>
@@ -3113,7 +3158,7 @@
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>14</v>
@@ -3127,7 +3172,7 @@
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
       <c r="B71" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>2</v>
@@ -3136,7 +3181,7 @@
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
       <c r="B72" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>2</v>
@@ -3145,7 +3190,7 @@
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
       <c r="B73" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>14</v>
@@ -3154,7 +3199,7 @@
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
       <c r="B74" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>14</v>
@@ -3183,7 +3228,7 @@
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>14</v>
@@ -3197,7 +3242,7 @@
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
       <c r="B81" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>14</v>
@@ -3206,7 +3251,7 @@
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
       <c r="B82" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>14</v>
@@ -3253,7 +3298,7 @@
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
       <c r="B89" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>14</v>
@@ -3262,7 +3307,7 @@
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
       <c r="B90" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>14</v>
@@ -3271,7 +3316,7 @@
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -3280,7 +3325,7 @@
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
       <c r="B92" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>14</v>
@@ -3289,7 +3334,7 @@
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
       <c r="B93" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>14</v>
@@ -3298,7 +3343,7 @@
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
       <c r="B94" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>14</v>
@@ -3307,7 +3352,7 @@
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
       <c r="B95" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>14</v>
@@ -3316,7 +3361,7 @@
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
       <c r="B96" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>14</v>
@@ -3325,7 +3370,7 @@
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
       <c r="B97" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>14</v>
@@ -3371,7 +3416,7 @@
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
       <c r="B103" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>14</v>
@@ -3492,7 +3537,7 @@
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
       <c r="B120" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>14</v>
@@ -3501,7 +3546,7 @@
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
       <c r="B121" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>14</v>
@@ -3694,12 +3739,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT875"/>
+  <dimension ref="A1:IT876"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O6" sqref="O6"/>
-      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
+      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3975,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G49" s="30">
         <f t="shared" ref="G49" si="0">B49/SUM(B49:E49)</f>
@@ -4000,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G50" s="30">
         <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
@@ -4025,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G51" s="30">
-        <f t="shared" ref="G51:G60" si="2">B51/SUM(B51:E51)</f>
+        <f t="shared" ref="G51:G61" si="2">B51/SUM(B51:E51)</f>
         <v>0.37313432835820898</v>
       </c>
       <c r="H51" s="7"/>
@@ -4050,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G52" s="30">
         <f t="shared" si="2"/>
@@ -4075,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G53" s="30">
         <f t="shared" si="2"/>
@@ -4100,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G54" s="30">
         <f t="shared" si="2"/>
@@ -4125,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G55" s="30">
         <f t="shared" si="2"/>
@@ -4150,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G56" s="30">
         <f t="shared" si="2"/>
@@ -4175,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G57" s="30">
         <f t="shared" si="2"/>
@@ -4200,7 +4245,7 @@
         <v>4</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G58" s="30">
         <f t="shared" si="2"/>
@@ -4225,7 +4270,7 @@
         <v>5</v>
       </c>
       <c r="F59" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G59" s="30">
         <f t="shared" si="2"/>
@@ -4250,7 +4295,7 @@
         <v>5</v>
       </c>
       <c r="F60" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G60" s="30">
         <f t="shared" si="2"/>
@@ -4275,22 +4320,37 @@
         <v>5</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" s="30">
-        <f t="shared" ref="G61" si="3">B61/SUM(B61:E61)</f>
+        <f t="shared" si="2"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="49"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="30"/>
+      <c r="A62" s="48">
+        <v>42900</v>
+      </c>
+      <c r="B62" s="4">
+        <v>42</v>
+      </c>
+      <c r="C62" s="4">
+        <v>51</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>5</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G62" s="30">
+        <f t="shared" ref="G62" si="3">B62/SUM(B62:E62)</f>
+        <v>0.42857142857142855</v>
+      </c>
       <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:11">
@@ -4299,83 +4359,83 @@
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="31"/>
+      <c r="F63" s="28"/>
       <c r="G63" s="30"/>
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="49"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B65" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C65" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D65" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E65" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F65" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G64" s="38">
-        <f>MIN(G61)</f>
+      <c r="G65" s="38">
+        <f>MIN(G62)</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="39">
-        <f>SUM(B65:D65)</f>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="39">
+        <f>SUM(B66:D66)</f>
         <v>93</v>
       </c>
-      <c r="B65" s="15">
+      <c r="B66" s="15">
         <f>Features!C135</f>
         <v>42</v>
       </c>
-      <c r="C65" s="16">
+      <c r="C66" s="16">
         <f>Features!C136</f>
         <v>51</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D66" s="17">
         <f>Features!C137</f>
         <v>0</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E66" s="18">
         <v>5</v>
       </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="4"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="30"/>
       <c r="H66" s="7"/>
-      <c r="J66" s="36"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="30"/>
       <c r="H67" s="7"/>
+      <c r="J67" s="36"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="4"/>
-      <c r="B68" s="19"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -4384,13 +4444,8 @@
       <c r="H68" s="7"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="B69" s="51">
-        <f>A48+(A61-A48)*A65/B65</f>
-        <v>43014.357142857145</v>
-      </c>
+      <c r="A69" s="4"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -4399,8 +4454,13 @@
       <c r="H69" s="7"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
+      <c r="A70" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="51">
+        <f>A48+(A62-A48)*A66/B66</f>
+        <v>43016.571428571428</v>
+      </c>
       <c r="C70" s="4"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -4410,7 +4470,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="4"/>
-      <c r="B71" s="19"/>
+      <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -4430,7 +4490,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
+      <c r="B73" s="19"/>
       <c r="C73" s="4"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -4450,7 +4510,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="4"/>
-      <c r="B75" s="7"/>
+      <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -4460,7 +4520,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="4"/>
-      <c r="B76" s="20"/>
+      <c r="B76" s="7"/>
       <c r="C76" s="4"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -4479,7 +4539,7 @@
       <c r="H77" s="7"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="7"/>
+      <c r="A78" s="4"/>
       <c r="B78" s="20"/>
       <c r="C78" s="4"/>
       <c r="D78" s="7"/>
@@ -4490,7 +4550,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="4"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -4621,7 +4681,7 @@
     <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
+      <c r="C92" s="4"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
@@ -4630,7 +4690,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="7"/>
-      <c r="B93" s="6"/>
+      <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -4638,15 +4698,15 @@
       <c r="G93" s="30"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" s="2" customFormat="1">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="4"/>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="7"/>
     </row>
     <row r="95" spans="1:8" s="2" customFormat="1">
       <c r="A95" s="4"/>
@@ -4820,7 +4880,7 @@
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="6"/>
+      <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -4830,7 +4890,7 @@
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
+      <c r="B113" s="6"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -4860,7 +4920,7 @@
     </row>
     <row r="116" spans="1:8" s="2" customFormat="1">
       <c r="A116" s="4"/>
-      <c r="B116" s="19"/>
+      <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -4900,7 +4960,7 @@
     </row>
     <row r="120" spans="1:8" s="2" customFormat="1">
       <c r="A120" s="4"/>
-      <c r="B120" s="21"/>
+      <c r="B120" s="19"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -4910,7 +4970,7 @@
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1">
       <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
+      <c r="B121" s="21"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -4920,7 +4980,7 @@
     </row>
     <row r="122" spans="1:8" s="2" customFormat="1">
       <c r="A122" s="4"/>
-      <c r="B122" s="6"/>
+      <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -4930,7 +4990,7 @@
     </row>
     <row r="123" spans="1:8" s="2" customFormat="1">
       <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
+      <c r="B123" s="6"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -4940,7 +5000,7 @@
     </row>
     <row r="124" spans="1:8" s="2" customFormat="1">
       <c r="A124" s="4"/>
-      <c r="B124" s="19"/>
+      <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -4960,7 +5020,7 @@
     </row>
     <row r="126" spans="1:8" s="2" customFormat="1">
       <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
+      <c r="B126" s="19"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -5020,7 +5080,7 @@
     </row>
     <row r="132" spans="1:8" s="2" customFormat="1">
       <c r="A132" s="4"/>
-      <c r="B132" s="19"/>
+      <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -5120,7 +5180,7 @@
     </row>
     <row r="142" spans="1:8" s="2" customFormat="1">
       <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
+      <c r="B142" s="19"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -5170,7 +5230,7 @@
     </row>
     <row r="147" spans="1:254" s="2" customFormat="1">
       <c r="A147" s="4"/>
-      <c r="B147" s="19"/>
+      <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -5190,7 +5250,7 @@
     </row>
     <row r="149" spans="1:254" s="2" customFormat="1">
       <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
+      <c r="B149" s="19"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -5229,284 +5289,284 @@
       <c r="H152" s="4"/>
     </row>
     <row r="153" spans="1:254" s="2" customFormat="1">
-      <c r="A153" s="21"/>
-      <c r="B153" s="21"/>
-      <c r="C153" s="21"/>
-      <c r="D153" s="21"/>
-      <c r="E153" s="21"/>
-      <c r="F153" s="21"/>
-      <c r="G153" s="35"/>
-      <c r="H153" s="21"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="5"/>
-      <c r="K153" s="5"/>
-      <c r="L153" s="5"/>
-      <c r="M153" s="5"/>
-      <c r="N153" s="5"/>
-      <c r="O153" s="5"/>
-      <c r="P153" s="5"/>
-      <c r="Q153" s="5"/>
-      <c r="R153" s="5"/>
-      <c r="S153" s="5"/>
-      <c r="T153" s="5"/>
-      <c r="U153" s="5"/>
-      <c r="V153" s="5"/>
-      <c r="W153" s="5"/>
-      <c r="X153" s="5"/>
-      <c r="Y153" s="5"/>
-      <c r="Z153" s="5"/>
-      <c r="AA153" s="5"/>
-      <c r="AB153" s="5"/>
-      <c r="AC153" s="5"/>
-      <c r="AD153" s="5"/>
-      <c r="AE153" s="5"/>
-      <c r="AF153" s="5"/>
-      <c r="AG153" s="5"/>
-      <c r="AH153" s="5"/>
-      <c r="AI153" s="5"/>
-      <c r="AJ153" s="5"/>
-      <c r="AK153" s="5"/>
-      <c r="AL153" s="5"/>
-      <c r="AM153" s="5"/>
-      <c r="AN153" s="5"/>
-      <c r="AO153" s="5"/>
-      <c r="AP153" s="5"/>
-      <c r="AQ153" s="5"/>
-      <c r="AR153" s="5"/>
-      <c r="AS153" s="5"/>
-      <c r="AT153" s="5"/>
-      <c r="AU153" s="5"/>
-      <c r="AV153" s="5"/>
-      <c r="AW153" s="5"/>
-      <c r="AX153" s="5"/>
-      <c r="AY153" s="5"/>
-      <c r="AZ153" s="5"/>
-      <c r="BA153" s="5"/>
-      <c r="BB153" s="5"/>
-      <c r="BC153" s="5"/>
-      <c r="BD153" s="5"/>
-      <c r="BE153" s="5"/>
-      <c r="BF153" s="5"/>
-      <c r="BG153" s="5"/>
-      <c r="BH153" s="5"/>
-      <c r="BI153" s="5"/>
-      <c r="BJ153" s="5"/>
-      <c r="BK153" s="5"/>
-      <c r="BL153" s="5"/>
-      <c r="BM153" s="5"/>
-      <c r="BN153" s="5"/>
-      <c r="BO153" s="5"/>
-      <c r="BP153" s="5"/>
-      <c r="BQ153" s="5"/>
-      <c r="BR153" s="5"/>
-      <c r="BS153" s="5"/>
-      <c r="BT153" s="5"/>
-      <c r="BU153" s="5"/>
-      <c r="BV153" s="5"/>
-      <c r="BW153" s="5"/>
-      <c r="BX153" s="5"/>
-      <c r="BY153" s="5"/>
-      <c r="BZ153" s="5"/>
-      <c r="CA153" s="5"/>
-      <c r="CB153" s="5"/>
-      <c r="CC153" s="5"/>
-      <c r="CD153" s="5"/>
-      <c r="CE153" s="5"/>
-      <c r="CF153" s="5"/>
-      <c r="CG153" s="5"/>
-      <c r="CH153" s="5"/>
-      <c r="CI153" s="5"/>
-      <c r="CJ153" s="5"/>
-      <c r="CK153" s="5"/>
-      <c r="CL153" s="5"/>
-      <c r="CM153" s="5"/>
-      <c r="CN153" s="5"/>
-      <c r="CO153" s="5"/>
-      <c r="CP153" s="5"/>
-      <c r="CQ153" s="5"/>
-      <c r="CR153" s="5"/>
-      <c r="CS153" s="5"/>
-      <c r="CT153" s="5"/>
-      <c r="CU153" s="5"/>
-      <c r="CV153" s="5"/>
-      <c r="CW153" s="5"/>
-      <c r="CX153" s="5"/>
-      <c r="CY153" s="5"/>
-      <c r="CZ153" s="5"/>
-      <c r="DA153" s="5"/>
-      <c r="DB153" s="5"/>
-      <c r="DC153" s="5"/>
-      <c r="DD153" s="5"/>
-      <c r="DE153" s="5"/>
-      <c r="DF153" s="5"/>
-      <c r="DG153" s="5"/>
-      <c r="DH153" s="5"/>
-      <c r="DI153" s="5"/>
-      <c r="DJ153" s="5"/>
-      <c r="DK153" s="5"/>
-      <c r="DL153" s="5"/>
-      <c r="DM153" s="5"/>
-      <c r="DN153" s="5"/>
-      <c r="DO153" s="5"/>
-      <c r="DP153" s="5"/>
-      <c r="DQ153" s="5"/>
-      <c r="DR153" s="5"/>
-      <c r="DS153" s="5"/>
-      <c r="DT153" s="5"/>
-      <c r="DU153" s="5"/>
-      <c r="DV153" s="5"/>
-      <c r="DW153" s="5"/>
-      <c r="DX153" s="5"/>
-      <c r="DY153" s="5"/>
-      <c r="DZ153" s="5"/>
-      <c r="EA153" s="5"/>
-      <c r="EB153" s="5"/>
-      <c r="EC153" s="5"/>
-      <c r="ED153" s="5"/>
-      <c r="EE153" s="5"/>
-      <c r="EF153" s="5"/>
-      <c r="EG153" s="5"/>
-      <c r="EH153" s="5"/>
-      <c r="EI153" s="5"/>
-      <c r="EJ153" s="5"/>
-      <c r="EK153" s="5"/>
-      <c r="EL153" s="5"/>
-      <c r="EM153" s="5"/>
-      <c r="EN153" s="5"/>
-      <c r="EO153" s="5"/>
-      <c r="EP153" s="5"/>
-      <c r="EQ153" s="5"/>
-      <c r="ER153" s="5"/>
-      <c r="ES153" s="5"/>
-      <c r="ET153" s="5"/>
-      <c r="EU153" s="5"/>
-      <c r="EV153" s="5"/>
-      <c r="EW153" s="5"/>
-      <c r="EX153" s="5"/>
-      <c r="EY153" s="5"/>
-      <c r="EZ153" s="5"/>
-      <c r="FA153" s="5"/>
-      <c r="FB153" s="5"/>
-      <c r="FC153" s="5"/>
-      <c r="FD153" s="5"/>
-      <c r="FE153" s="5"/>
-      <c r="FF153" s="5"/>
-      <c r="FG153" s="5"/>
-      <c r="FH153" s="5"/>
-      <c r="FI153" s="5"/>
-      <c r="FJ153" s="5"/>
-      <c r="FK153" s="5"/>
-      <c r="FL153" s="5"/>
-      <c r="FM153" s="5"/>
-      <c r="FN153" s="5"/>
-      <c r="FO153" s="5"/>
-      <c r="FP153" s="5"/>
-      <c r="FQ153" s="5"/>
-      <c r="FR153" s="5"/>
-      <c r="FS153" s="5"/>
-      <c r="FT153" s="5"/>
-      <c r="FU153" s="5"/>
-      <c r="FV153" s="5"/>
-      <c r="FW153" s="5"/>
-      <c r="FX153" s="5"/>
-      <c r="FY153" s="5"/>
-      <c r="FZ153" s="5"/>
-      <c r="GA153" s="5"/>
-      <c r="GB153" s="5"/>
-      <c r="GC153" s="5"/>
-      <c r="GD153" s="5"/>
-      <c r="GE153" s="5"/>
-      <c r="GF153" s="5"/>
-      <c r="GG153" s="5"/>
-      <c r="GH153" s="5"/>
-      <c r="GI153" s="5"/>
-      <c r="GJ153" s="5"/>
-      <c r="GK153" s="5"/>
-      <c r="GL153" s="5"/>
-      <c r="GM153" s="5"/>
-      <c r="GN153" s="5"/>
-      <c r="GO153" s="5"/>
-      <c r="GP153" s="5"/>
-      <c r="GQ153" s="5"/>
-      <c r="GR153" s="5"/>
-      <c r="GS153" s="5"/>
-      <c r="GT153" s="5"/>
-      <c r="GU153" s="5"/>
-      <c r="GV153" s="5"/>
-      <c r="GW153" s="5"/>
-      <c r="GX153" s="5"/>
-      <c r="GY153" s="5"/>
-      <c r="GZ153" s="5"/>
-      <c r="HA153" s="5"/>
-      <c r="HB153" s="5"/>
-      <c r="HC153" s="5"/>
-      <c r="HD153" s="5"/>
-      <c r="HE153" s="5"/>
-      <c r="HF153" s="5"/>
-      <c r="HG153" s="5"/>
-      <c r="HH153" s="5"/>
-      <c r="HI153" s="5"/>
-      <c r="HJ153" s="5"/>
-      <c r="HK153" s="5"/>
-      <c r="HL153" s="5"/>
-      <c r="HM153" s="5"/>
-      <c r="HN153" s="5"/>
-      <c r="HO153" s="5"/>
-      <c r="HP153" s="5"/>
-      <c r="HQ153" s="5"/>
-      <c r="HR153" s="5"/>
-      <c r="HS153" s="5"/>
-      <c r="HT153" s="5"/>
-      <c r="HU153" s="5"/>
-      <c r="HV153" s="5"/>
-      <c r="HW153" s="5"/>
-      <c r="HX153" s="5"/>
-      <c r="HY153" s="5"/>
-      <c r="HZ153" s="5"/>
-      <c r="IA153" s="5"/>
-      <c r="IB153" s="5"/>
-      <c r="IC153" s="5"/>
-      <c r="ID153" s="5"/>
-      <c r="IE153" s="5"/>
-      <c r="IF153" s="5"/>
-      <c r="IG153" s="5"/>
-      <c r="IH153" s="5"/>
-      <c r="II153" s="5"/>
-      <c r="IJ153" s="5"/>
-      <c r="IK153" s="5"/>
-      <c r="IL153" s="5"/>
-      <c r="IM153" s="5"/>
-      <c r="IN153" s="5"/>
-      <c r="IO153" s="5"/>
-      <c r="IP153" s="5"/>
-      <c r="IQ153" s="5"/>
-      <c r="IR153" s="5"/>
-      <c r="IS153" s="5"/>
-      <c r="IT153" s="5"/>
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="34"/>
+      <c r="H153" s="4"/>
     </row>
     <row r="154" spans="1:254" s="2" customFormat="1">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="34"/>
-      <c r="H154" s="4"/>
-    </row>
-    <row r="155" spans="1:254">
-      <c r="A155" s="7"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="30"/>
-      <c r="H155" s="7"/>
+      <c r="A154" s="21"/>
+      <c r="B154" s="21"/>
+      <c r="C154" s="21"/>
+      <c r="D154" s="21"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="35"/>
+      <c r="H154" s="21"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="5"/>
+      <c r="M154" s="5"/>
+      <c r="N154" s="5"/>
+      <c r="O154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="5"/>
+      <c r="S154" s="5"/>
+      <c r="T154" s="5"/>
+      <c r="U154" s="5"/>
+      <c r="V154" s="5"/>
+      <c r="W154" s="5"/>
+      <c r="X154" s="5"/>
+      <c r="Y154" s="5"/>
+      <c r="Z154" s="5"/>
+      <c r="AA154" s="5"/>
+      <c r="AB154" s="5"/>
+      <c r="AC154" s="5"/>
+      <c r="AD154" s="5"/>
+      <c r="AE154" s="5"/>
+      <c r="AF154" s="5"/>
+      <c r="AG154" s="5"/>
+      <c r="AH154" s="5"/>
+      <c r="AI154" s="5"/>
+      <c r="AJ154" s="5"/>
+      <c r="AK154" s="5"/>
+      <c r="AL154" s="5"/>
+      <c r="AM154" s="5"/>
+      <c r="AN154" s="5"/>
+      <c r="AO154" s="5"/>
+      <c r="AP154" s="5"/>
+      <c r="AQ154" s="5"/>
+      <c r="AR154" s="5"/>
+      <c r="AS154" s="5"/>
+      <c r="AT154" s="5"/>
+      <c r="AU154" s="5"/>
+      <c r="AV154" s="5"/>
+      <c r="AW154" s="5"/>
+      <c r="AX154" s="5"/>
+      <c r="AY154" s="5"/>
+      <c r="AZ154" s="5"/>
+      <c r="BA154" s="5"/>
+      <c r="BB154" s="5"/>
+      <c r="BC154" s="5"/>
+      <c r="BD154" s="5"/>
+      <c r="BE154" s="5"/>
+      <c r="BF154" s="5"/>
+      <c r="BG154" s="5"/>
+      <c r="BH154" s="5"/>
+      <c r="BI154" s="5"/>
+      <c r="BJ154" s="5"/>
+      <c r="BK154" s="5"/>
+      <c r="BL154" s="5"/>
+      <c r="BM154" s="5"/>
+      <c r="BN154" s="5"/>
+      <c r="BO154" s="5"/>
+      <c r="BP154" s="5"/>
+      <c r="BQ154" s="5"/>
+      <c r="BR154" s="5"/>
+      <c r="BS154" s="5"/>
+      <c r="BT154" s="5"/>
+      <c r="BU154" s="5"/>
+      <c r="BV154" s="5"/>
+      <c r="BW154" s="5"/>
+      <c r="BX154" s="5"/>
+      <c r="BY154" s="5"/>
+      <c r="BZ154" s="5"/>
+      <c r="CA154" s="5"/>
+      <c r="CB154" s="5"/>
+      <c r="CC154" s="5"/>
+      <c r="CD154" s="5"/>
+      <c r="CE154" s="5"/>
+      <c r="CF154" s="5"/>
+      <c r="CG154" s="5"/>
+      <c r="CH154" s="5"/>
+      <c r="CI154" s="5"/>
+      <c r="CJ154" s="5"/>
+      <c r="CK154" s="5"/>
+      <c r="CL154" s="5"/>
+      <c r="CM154" s="5"/>
+      <c r="CN154" s="5"/>
+      <c r="CO154" s="5"/>
+      <c r="CP154" s="5"/>
+      <c r="CQ154" s="5"/>
+      <c r="CR154" s="5"/>
+      <c r="CS154" s="5"/>
+      <c r="CT154" s="5"/>
+      <c r="CU154" s="5"/>
+      <c r="CV154" s="5"/>
+      <c r="CW154" s="5"/>
+      <c r="CX154" s="5"/>
+      <c r="CY154" s="5"/>
+      <c r="CZ154" s="5"/>
+      <c r="DA154" s="5"/>
+      <c r="DB154" s="5"/>
+      <c r="DC154" s="5"/>
+      <c r="DD154" s="5"/>
+      <c r="DE154" s="5"/>
+      <c r="DF154" s="5"/>
+      <c r="DG154" s="5"/>
+      <c r="DH154" s="5"/>
+      <c r="DI154" s="5"/>
+      <c r="DJ154" s="5"/>
+      <c r="DK154" s="5"/>
+      <c r="DL154" s="5"/>
+      <c r="DM154" s="5"/>
+      <c r="DN154" s="5"/>
+      <c r="DO154" s="5"/>
+      <c r="DP154" s="5"/>
+      <c r="DQ154" s="5"/>
+      <c r="DR154" s="5"/>
+      <c r="DS154" s="5"/>
+      <c r="DT154" s="5"/>
+      <c r="DU154" s="5"/>
+      <c r="DV154" s="5"/>
+      <c r="DW154" s="5"/>
+      <c r="DX154" s="5"/>
+      <c r="DY154" s="5"/>
+      <c r="DZ154" s="5"/>
+      <c r="EA154" s="5"/>
+      <c r="EB154" s="5"/>
+      <c r="EC154" s="5"/>
+      <c r="ED154" s="5"/>
+      <c r="EE154" s="5"/>
+      <c r="EF154" s="5"/>
+      <c r="EG154" s="5"/>
+      <c r="EH154" s="5"/>
+      <c r="EI154" s="5"/>
+      <c r="EJ154" s="5"/>
+      <c r="EK154" s="5"/>
+      <c r="EL154" s="5"/>
+      <c r="EM154" s="5"/>
+      <c r="EN154" s="5"/>
+      <c r="EO154" s="5"/>
+      <c r="EP154" s="5"/>
+      <c r="EQ154" s="5"/>
+      <c r="ER154" s="5"/>
+      <c r="ES154" s="5"/>
+      <c r="ET154" s="5"/>
+      <c r="EU154" s="5"/>
+      <c r="EV154" s="5"/>
+      <c r="EW154" s="5"/>
+      <c r="EX154" s="5"/>
+      <c r="EY154" s="5"/>
+      <c r="EZ154" s="5"/>
+      <c r="FA154" s="5"/>
+      <c r="FB154" s="5"/>
+      <c r="FC154" s="5"/>
+      <c r="FD154" s="5"/>
+      <c r="FE154" s="5"/>
+      <c r="FF154" s="5"/>
+      <c r="FG154" s="5"/>
+      <c r="FH154" s="5"/>
+      <c r="FI154" s="5"/>
+      <c r="FJ154" s="5"/>
+      <c r="FK154" s="5"/>
+      <c r="FL154" s="5"/>
+      <c r="FM154" s="5"/>
+      <c r="FN154" s="5"/>
+      <c r="FO154" s="5"/>
+      <c r="FP154" s="5"/>
+      <c r="FQ154" s="5"/>
+      <c r="FR154" s="5"/>
+      <c r="FS154" s="5"/>
+      <c r="FT154" s="5"/>
+      <c r="FU154" s="5"/>
+      <c r="FV154" s="5"/>
+      <c r="FW154" s="5"/>
+      <c r="FX154" s="5"/>
+      <c r="FY154" s="5"/>
+      <c r="FZ154" s="5"/>
+      <c r="GA154" s="5"/>
+      <c r="GB154" s="5"/>
+      <c r="GC154" s="5"/>
+      <c r="GD154" s="5"/>
+      <c r="GE154" s="5"/>
+      <c r="GF154" s="5"/>
+      <c r="GG154" s="5"/>
+      <c r="GH154" s="5"/>
+      <c r="GI154" s="5"/>
+      <c r="GJ154" s="5"/>
+      <c r="GK154" s="5"/>
+      <c r="GL154" s="5"/>
+      <c r="GM154" s="5"/>
+      <c r="GN154" s="5"/>
+      <c r="GO154" s="5"/>
+      <c r="GP154" s="5"/>
+      <c r="GQ154" s="5"/>
+      <c r="GR154" s="5"/>
+      <c r="GS154" s="5"/>
+      <c r="GT154" s="5"/>
+      <c r="GU154" s="5"/>
+      <c r="GV154" s="5"/>
+      <c r="GW154" s="5"/>
+      <c r="GX154" s="5"/>
+      <c r="GY154" s="5"/>
+      <c r="GZ154" s="5"/>
+      <c r="HA154" s="5"/>
+      <c r="HB154" s="5"/>
+      <c r="HC154" s="5"/>
+      <c r="HD154" s="5"/>
+      <c r="HE154" s="5"/>
+      <c r="HF154" s="5"/>
+      <c r="HG154" s="5"/>
+      <c r="HH154" s="5"/>
+      <c r="HI154" s="5"/>
+      <c r="HJ154" s="5"/>
+      <c r="HK154" s="5"/>
+      <c r="HL154" s="5"/>
+      <c r="HM154" s="5"/>
+      <c r="HN154" s="5"/>
+      <c r="HO154" s="5"/>
+      <c r="HP154" s="5"/>
+      <c r="HQ154" s="5"/>
+      <c r="HR154" s="5"/>
+      <c r="HS154" s="5"/>
+      <c r="HT154" s="5"/>
+      <c r="HU154" s="5"/>
+      <c r="HV154" s="5"/>
+      <c r="HW154" s="5"/>
+      <c r="HX154" s="5"/>
+      <c r="HY154" s="5"/>
+      <c r="HZ154" s="5"/>
+      <c r="IA154" s="5"/>
+      <c r="IB154" s="5"/>
+      <c r="IC154" s="5"/>
+      <c r="ID154" s="5"/>
+      <c r="IE154" s="5"/>
+      <c r="IF154" s="5"/>
+      <c r="IG154" s="5"/>
+      <c r="IH154" s="5"/>
+      <c r="II154" s="5"/>
+      <c r="IJ154" s="5"/>
+      <c r="IK154" s="5"/>
+      <c r="IL154" s="5"/>
+      <c r="IM154" s="5"/>
+      <c r="IN154" s="5"/>
+      <c r="IO154" s="5"/>
+      <c r="IP154" s="5"/>
+      <c r="IQ154" s="5"/>
+      <c r="IR154" s="5"/>
+      <c r="IS154" s="5"/>
+      <c r="IT154" s="5"/>
+    </row>
+    <row r="155" spans="1:254" s="2" customFormat="1">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="34"/>
+      <c r="H155" s="4"/>
     </row>
     <row r="156" spans="1:254">
       <c r="A156" s="7"/>
-      <c r="B156" s="7"/>
+      <c r="B156" s="6"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -5516,7 +5576,7 @@
     </row>
     <row r="157" spans="1:254">
       <c r="A157" s="7"/>
-      <c r="B157" s="20"/>
+      <c r="B157" s="7"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -5526,7 +5586,7 @@
     </row>
     <row r="158" spans="1:254">
       <c r="A158" s="7"/>
-      <c r="B158" s="7"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -5537,7 +5597,7 @@
     <row r="159" spans="1:254">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
-      <c r="C159" s="4"/>
+      <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
@@ -5577,7 +5637,7 @@
     <row r="163" spans="1:8">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
-      <c r="C163" s="7"/>
+      <c r="C163" s="4"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
@@ -5586,7 +5646,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="7"/>
-      <c r="B164" s="22"/>
+      <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -5606,7 +5666,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
+      <c r="B166" s="22"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -5616,7 +5676,7 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="7"/>
-      <c r="B167" s="20"/>
+      <c r="B167" s="7"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -5636,7 +5696,7 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="7"/>
-      <c r="B169" s="7"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -5656,7 +5716,7 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="7"/>
-      <c r="B171" s="20"/>
+      <c r="B171" s="7"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -5675,10 +5735,8 @@
       <c r="H172" s="7"/>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="45">
-        <v>43011</v>
-      </c>
-      <c r="B173" s="7"/>
+      <c r="A173" s="7"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -5687,7 +5745,9 @@
       <c r="H173" s="7"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="7"/>
+      <c r="A174" s="45">
+        <v>43011</v>
+      </c>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
@@ -5698,7 +5758,7 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="7"/>
-      <c r="B175" s="20"/>
+      <c r="B175" s="7"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -5718,7 +5778,7 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="7"/>
-      <c r="B177" s="7"/>
+      <c r="B177" s="20"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -5758,7 +5818,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="7"/>
-      <c r="B181" s="6"/>
+      <c r="B181" s="7"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -5768,8 +5828,8 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="7"/>
-      <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
       <c r="F182" s="7"/>
@@ -5778,7 +5838,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="7"/>
-      <c r="B183" s="19"/>
+      <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -5848,7 +5908,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="7"/>
-      <c r="B190" s="4"/>
+      <c r="B190" s="19"/>
       <c r="C190" s="4"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -5858,7 +5918,7 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="7"/>
-      <c r="B191" s="19"/>
+      <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -5868,7 +5928,7 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="7"/>
-      <c r="B192" s="21"/>
+      <c r="B192" s="19"/>
       <c r="C192" s="4"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -5888,7 +5948,7 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="7"/>
-      <c r="B194" s="19"/>
+      <c r="B194" s="21"/>
       <c r="C194" s="4"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
@@ -5929,7 +5989,7 @@
     <row r="198" spans="1:8">
       <c r="A198" s="7"/>
       <c r="B198" s="19"/>
-      <c r="C198" s="7"/>
+      <c r="C198" s="4"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
@@ -5938,7 +5998,7 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="7"/>
-      <c r="B199" s="4"/>
+      <c r="B199" s="19"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -5958,7 +6018,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="7"/>
-      <c r="B201" s="19"/>
+      <c r="B201" s="4"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -6018,7 +6078,7 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="7"/>
-      <c r="B207" s="21"/>
+      <c r="B207" s="19"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -6058,7 +6118,7 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="7"/>
-      <c r="B211" s="4"/>
+      <c r="B211" s="21"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -6068,7 +6128,7 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="7"/>
-      <c r="B212" s="6"/>
+      <c r="B212" s="4"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
@@ -6078,7 +6138,7 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="7"/>
-      <c r="B213" s="4"/>
+      <c r="B213" s="6"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -6088,7 +6148,7 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="7"/>
-      <c r="B214" s="19"/>
+      <c r="B214" s="4"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -6138,7 +6198,7 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="7"/>
-      <c r="B219" s="21"/>
+      <c r="B219" s="19"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
@@ -6148,7 +6208,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="7"/>
-      <c r="B220" s="19"/>
+      <c r="B220" s="21"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -6198,7 +6258,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7"/>
-      <c r="B225" s="21"/>
+      <c r="B225" s="19"/>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -6258,7 +6318,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="4"/>
+      <c r="B231" s="21"/>
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -6268,7 +6328,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="6"/>
+      <c r="B232" s="4"/>
       <c r="C232" s="7"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -6278,8 +6338,8 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="7"/>
-      <c r="B233" s="4"/>
-      <c r="C233" s="4"/>
+      <c r="B233" s="6"/>
+      <c r="C233" s="7"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
       <c r="F233" s="7"/>
@@ -6288,7 +6348,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="7"/>
-      <c r="B234" s="19"/>
+      <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -6298,7 +6358,7 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="7"/>
-      <c r="B235" s="7"/>
+      <c r="B235" s="19"/>
       <c r="C235" s="4"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -6308,7 +6368,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="7"/>
-      <c r="B236" s="20"/>
+      <c r="B236" s="7"/>
       <c r="C236" s="4"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -6348,7 +6408,7 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="7"/>
-      <c r="B240" s="7"/>
+      <c r="B240" s="20"/>
       <c r="C240" s="4"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -6358,7 +6418,7 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="7"/>
-      <c r="B241" s="20"/>
+      <c r="B241" s="7"/>
       <c r="C241" s="4"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
@@ -6368,7 +6428,7 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="7"/>
-      <c r="B242" s="23"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="4"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -6388,7 +6448,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="7"/>
-      <c r="B244" s="20"/>
+      <c r="B244" s="23"/>
       <c r="C244" s="4"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -6428,7 +6488,7 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="7"/>
-      <c r="B248" s="7"/>
+      <c r="B248" s="20"/>
       <c r="C248" s="4"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -6438,7 +6498,7 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="7"/>
-      <c r="B249" s="20"/>
+      <c r="B249" s="7"/>
       <c r="C249" s="4"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -6488,7 +6548,7 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="7"/>
-      <c r="B254" s="7"/>
+      <c r="B254" s="20"/>
       <c r="C254" s="4"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -6498,8 +6558,8 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="7"/>
-      <c r="B255" s="20"/>
-      <c r="C255" s="7"/>
+      <c r="B255" s="7"/>
+      <c r="C255" s="4"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
       <c r="F255" s="7"/>
@@ -6508,7 +6568,7 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="7"/>
-      <c r="B256" s="7"/>
+      <c r="B256" s="20"/>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -6518,7 +6578,7 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="7"/>
-      <c r="B257" s="20"/>
+      <c r="B257" s="7"/>
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -6528,7 +6588,7 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="7"/>
-      <c r="B258" s="23"/>
+      <c r="B258" s="20"/>
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -6578,8 +6638,8 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="7"/>
-      <c r="B263" s="20"/>
-      <c r="C263" s="4"/>
+      <c r="B263" s="23"/>
+      <c r="C263" s="7"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
       <c r="F263" s="7"/>
@@ -6588,7 +6648,7 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="7"/>
-      <c r="B264" s="23"/>
+      <c r="B264" s="20"/>
       <c r="C264" s="4"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -6598,7 +6658,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="7"/>
-      <c r="B265" s="24"/>
+      <c r="B265" s="23"/>
       <c r="C265" s="4"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -6626,9 +6686,9 @@
       <c r="G267" s="30"/>
       <c r="H267" s="7"/>
     </row>
-    <row r="268" spans="1:8" ht="11.25">
+    <row r="268" spans="1:8">
       <c r="A268" s="7"/>
-      <c r="B268" s="25"/>
+      <c r="B268" s="24"/>
       <c r="C268" s="4"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
@@ -6636,9 +6696,9 @@
       <c r="G268" s="30"/>
       <c r="H268" s="7"/>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" ht="11.25">
       <c r="A269" s="7"/>
-      <c r="B269" s="23"/>
+      <c r="B269" s="25"/>
       <c r="C269" s="4"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
@@ -6678,7 +6738,7 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="7"/>
-      <c r="B273" s="24"/>
+      <c r="B273" s="23"/>
       <c r="C273" s="4"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
@@ -6708,7 +6768,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="7"/>
-      <c r="B276" s="23"/>
+      <c r="B276" s="24"/>
       <c r="C276" s="4"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -6718,7 +6778,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="7"/>
-      <c r="B277" s="24"/>
+      <c r="B277" s="23"/>
       <c r="C277" s="4"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -6726,15 +6786,15 @@
       <c r="G277" s="30"/>
       <c r="H277" s="7"/>
     </row>
-    <row r="278" spans="1:8" s="2" customFormat="1">
-      <c r="A278" s="4"/>
+    <row r="278" spans="1:8">
+      <c r="A278" s="7"/>
       <c r="B278" s="24"/>
       <c r="C278" s="4"/>
-      <c r="D278" s="4"/>
-      <c r="E278" s="4"/>
-      <c r="F278" s="4"/>
-      <c r="G278" s="34"/>
-      <c r="H278" s="4"/>
+      <c r="D278" s="7"/>
+      <c r="E278" s="7"/>
+      <c r="F278" s="7"/>
+      <c r="G278" s="30"/>
+      <c r="H278" s="7"/>
     </row>
     <row r="279" spans="1:8" s="2" customFormat="1">
       <c r="A279" s="4"/>
@@ -6746,19 +6806,19 @@
       <c r="G279" s="34"/>
       <c r="H279" s="4"/>
     </row>
-    <row r="280" spans="1:8">
-      <c r="A280" s="7"/>
+    <row r="280" spans="1:8" s="2" customFormat="1">
+      <c r="A280" s="4"/>
       <c r="B280" s="24"/>
       <c r="C280" s="4"/>
-      <c r="D280" s="7"/>
-      <c r="E280" s="7"/>
-      <c r="F280" s="7"/>
-      <c r="G280" s="30"/>
-      <c r="H280" s="7"/>
+      <c r="D280" s="4"/>
+      <c r="E280" s="4"/>
+      <c r="F280" s="4"/>
+      <c r="G280" s="34"/>
+      <c r="H280" s="4"/>
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="7"/>
-      <c r="B281" s="23"/>
+      <c r="B281" s="24"/>
       <c r="C281" s="4"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
@@ -6768,7 +6828,7 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="7"/>
-      <c r="B282" s="24"/>
+      <c r="B282" s="23"/>
       <c r="C282" s="4"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
@@ -6798,7 +6858,7 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="7"/>
-      <c r="B285" s="22"/>
+      <c r="B285" s="24"/>
       <c r="C285" s="4"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
@@ -6808,7 +6868,7 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="7"/>
-      <c r="B286" s="7"/>
+      <c r="B286" s="22"/>
       <c r="C286" s="4"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
@@ -6828,7 +6888,7 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="7"/>
-      <c r="B288" s="20"/>
+      <c r="B288" s="7"/>
       <c r="C288" s="4"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
@@ -6848,7 +6908,7 @@
     </row>
     <row r="290" spans="1:8">
       <c r="A290" s="7"/>
-      <c r="B290" s="7"/>
+      <c r="B290" s="20"/>
       <c r="C290" s="4"/>
       <c r="D290" s="7"/>
       <c r="E290" s="7"/>
@@ -6879,7 +6939,7 @@
     <row r="293" spans="1:8">
       <c r="A293" s="7"/>
       <c r="B293" s="7"/>
-      <c r="C293" s="7"/>
+      <c r="C293" s="4"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
       <c r="F293" s="7"/>
@@ -6888,7 +6948,7 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="7"/>
-      <c r="B294" s="6"/>
+      <c r="B294" s="7"/>
       <c r="C294" s="7"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
@@ -6898,7 +6958,7 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="7"/>
-      <c r="B295" s="7"/>
+      <c r="B295" s="6"/>
       <c r="C295" s="7"/>
       <c r="D295" s="7"/>
       <c r="E295" s="7"/>
@@ -6978,7 +7038,7 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="7"/>
-      <c r="B303" s="6"/>
+      <c r="B303" s="7"/>
       <c r="C303" s="7"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
@@ -6988,8 +7048,8 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="7"/>
-      <c r="B304" s="4"/>
-      <c r="C304" s="4"/>
+      <c r="B304" s="6"/>
+      <c r="C304" s="7"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
       <c r="F304" s="7"/>
@@ -6998,7 +7058,7 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="7"/>
-      <c r="B305" s="19"/>
+      <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
@@ -7028,7 +7088,7 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="7"/>
-      <c r="B308" s="4"/>
+      <c r="B308" s="19"/>
       <c r="C308" s="4"/>
       <c r="D308" s="7"/>
       <c r="E308" s="7"/>
@@ -7088,7 +7148,7 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" s="7"/>
-      <c r="B314" s="19"/>
+      <c r="B314" s="4"/>
       <c r="C314" s="4"/>
       <c r="D314" s="7"/>
       <c r="E314" s="7"/>
@@ -7108,7 +7168,7 @@
     </row>
     <row r="316" spans="1:8">
       <c r="A316" s="7"/>
-      <c r="B316" s="21"/>
+      <c r="B316" s="19"/>
       <c r="C316" s="4"/>
       <c r="D316" s="7"/>
       <c r="E316" s="7"/>
@@ -7118,8 +7178,8 @@
     </row>
     <row r="317" spans="1:8">
       <c r="A317" s="7"/>
-      <c r="B317" s="7"/>
-      <c r="C317" s="7"/>
+      <c r="B317" s="21"/>
+      <c r="C317" s="4"/>
       <c r="D317" s="7"/>
       <c r="E317" s="7"/>
       <c r="F317" s="7"/>
@@ -7128,7 +7188,7 @@
     </row>
     <row r="318" spans="1:8">
       <c r="A318" s="7"/>
-      <c r="B318" s="6"/>
+      <c r="B318" s="7"/>
       <c r="C318" s="7"/>
       <c r="D318" s="7"/>
       <c r="E318" s="7"/>
@@ -7136,15 +7196,15 @@
       <c r="G318" s="30"/>
       <c r="H318" s="7"/>
     </row>
-    <row r="319" spans="1:8" s="2" customFormat="1">
-      <c r="A319" s="4"/>
-      <c r="B319" s="4"/>
-      <c r="C319" s="9"/>
-      <c r="D319" s="4"/>
-      <c r="E319" s="4"/>
-      <c r="F319" s="4"/>
-      <c r="G319" s="34"/>
-      <c r="H319" s="4"/>
+    <row r="319" spans="1:8">
+      <c r="A319" s="7"/>
+      <c r="B319" s="6"/>
+      <c r="C319" s="7"/>
+      <c r="D319" s="7"/>
+      <c r="E319" s="7"/>
+      <c r="F319" s="7"/>
+      <c r="G319" s="30"/>
+      <c r="H319" s="7"/>
     </row>
     <row r="320" spans="1:8" s="2" customFormat="1">
       <c r="A320" s="4"/>
@@ -7168,7 +7228,7 @@
     </row>
     <row r="322" spans="1:8" s="2" customFormat="1">
       <c r="A322" s="4"/>
-      <c r="B322" s="19"/>
+      <c r="B322" s="4"/>
       <c r="C322" s="9"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
@@ -7218,8 +7278,8 @@
     </row>
     <row r="327" spans="1:8" s="2" customFormat="1">
       <c r="A327" s="4"/>
-      <c r="B327" s="26"/>
-      <c r="C327" s="4"/>
+      <c r="B327" s="19"/>
+      <c r="C327" s="9"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
       <c r="F327" s="4"/>
@@ -7268,7 +7328,7 @@
     </row>
     <row r="332" spans="1:8" s="2" customFormat="1">
       <c r="A332" s="4"/>
-      <c r="B332" s="21"/>
+      <c r="B332" s="26"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -7318,7 +7378,7 @@
     </row>
     <row r="337" spans="1:8" s="2" customFormat="1">
       <c r="A337" s="4"/>
-      <c r="B337" s="19"/>
+      <c r="B337" s="21"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
@@ -7328,7 +7388,7 @@
     </row>
     <row r="338" spans="1:8" s="2" customFormat="1">
       <c r="A338" s="4"/>
-      <c r="B338" s="21"/>
+      <c r="B338" s="19"/>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
@@ -7338,7 +7398,7 @@
     </row>
     <row r="339" spans="1:8" s="2" customFormat="1">
       <c r="A339" s="4"/>
-      <c r="B339" s="4"/>
+      <c r="B339" s="21"/>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
@@ -7346,20 +7406,20 @@
       <c r="G339" s="34"/>
       <c r="H339" s="4"/>
     </row>
-    <row r="340" spans="1:8">
-      <c r="A340" s="7"/>
-      <c r="B340" s="6"/>
-      <c r="C340" s="7"/>
-      <c r="D340" s="7"/>
-      <c r="E340" s="7"/>
-      <c r="F340" s="7"/>
-      <c r="G340" s="30"/>
-      <c r="H340" s="7"/>
+    <row r="340" spans="1:8" s="2" customFormat="1">
+      <c r="A340" s="4"/>
+      <c r="B340" s="4"/>
+      <c r="C340" s="4"/>
+      <c r="D340" s="4"/>
+      <c r="E340" s="4"/>
+      <c r="F340" s="4"/>
+      <c r="G340" s="34"/>
+      <c r="H340" s="4"/>
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="7"/>
-      <c r="B341" s="7"/>
-      <c r="C341" s="4"/>
+      <c r="B341" s="6"/>
+      <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
       <c r="F341" s="7"/>
@@ -7428,7 +7488,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
-      <c r="B348" s="4"/>
+      <c r="B348" s="7"/>
       <c r="C348" s="4"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -7439,7 +7499,7 @@
     <row r="349" spans="1:8">
       <c r="A349" s="7"/>
       <c r="B349" s="4"/>
-      <c r="C349" s="7"/>
+      <c r="C349" s="4"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
       <c r="F349" s="7"/>
@@ -7448,7 +7508,7 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="7"/>
-      <c r="B350" s="6"/>
+      <c r="B350" s="4"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
@@ -7458,7 +7518,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="7"/>
+      <c r="B351" s="6"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -7468,7 +7528,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="7"/>
-      <c r="B352" s="22"/>
+      <c r="B352" s="7"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
@@ -7478,7 +7538,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="7"/>
-      <c r="B353" s="7"/>
+      <c r="B353" s="22"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
@@ -7518,7 +7578,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="6"/>
+      <c r="B357" s="7"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -7528,7 +7588,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="7"/>
-      <c r="B358" s="7"/>
+      <c r="B358" s="6"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -7538,7 +7598,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="20"/>
+      <c r="B359" s="7"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -7568,7 +7628,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="22"/>
+      <c r="B362" s="20"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -7578,7 +7638,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="20"/>
+      <c r="B363" s="22"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -7598,7 +7658,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="22"/>
+      <c r="B365" s="20"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
@@ -7608,7 +7668,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="20"/>
+      <c r="B366" s="22"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -7618,7 +7678,7 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="7"/>
-      <c r="B367" s="22"/>
+      <c r="B367" s="20"/>
       <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
@@ -7628,7 +7688,7 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="7"/>
-      <c r="B368" s="20"/>
+      <c r="B368" s="22"/>
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
@@ -7658,7 +7718,7 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="7"/>
-      <c r="B371" s="7"/>
+      <c r="B371" s="20"/>
       <c r="C371" s="7"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
@@ -7668,7 +7728,7 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="27"/>
+      <c r="B372" s="7"/>
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
@@ -7678,7 +7738,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="22"/>
+      <c r="B373" s="27"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -7688,8 +7748,8 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="7"/>
-      <c r="C374" s="4"/>
+      <c r="B374" s="22"/>
+      <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
       <c r="F374" s="7"/>
@@ -7698,7 +7758,7 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="7"/>
-      <c r="B375" s="20"/>
+      <c r="B375" s="7"/>
       <c r="C375" s="4"/>
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
@@ -7728,7 +7788,7 @@
     </row>
     <row r="378" spans="1:8">
       <c r="A378" s="7"/>
-      <c r="B378" s="7"/>
+      <c r="B378" s="20"/>
       <c r="C378" s="4"/>
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
@@ -7758,7 +7818,7 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="7"/>
-      <c r="B381" s="20"/>
+      <c r="B381" s="7"/>
       <c r="C381" s="4"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
@@ -7778,8 +7838,8 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
-      <c r="B383" s="7"/>
-      <c r="C383" s="7"/>
+      <c r="B383" s="20"/>
+      <c r="C383" s="4"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
@@ -7788,7 +7848,7 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
-      <c r="B384" s="6"/>
+      <c r="B384" s="7"/>
       <c r="C384" s="7"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
@@ -7798,7 +7858,7 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
-      <c r="B385" s="7"/>
+      <c r="B385" s="6"/>
       <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
@@ -7858,7 +7918,7 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" s="7"/>
-      <c r="B391" s="6"/>
+      <c r="B391" s="7"/>
       <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
@@ -7868,7 +7928,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
-      <c r="B392" s="7"/>
+      <c r="B392" s="6"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -7889,7 +7949,7 @@
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
       <c r="B394" s="7"/>
-      <c r="C394" s="4"/>
+      <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
       <c r="F394" s="7"/>
@@ -7898,7 +7958,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="20"/>
+      <c r="B395" s="7"/>
       <c r="C395" s="4"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -7909,7 +7969,7 @@
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
       <c r="B396" s="20"/>
-      <c r="C396" s="7"/>
+      <c r="C396" s="4"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
       <c r="F396" s="7"/>
@@ -7918,7 +7978,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
-      <c r="B397" s="27"/>
+      <c r="B397" s="20"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -7928,7 +7988,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="7"/>
-      <c r="B398" s="22"/>
+      <c r="B398" s="27"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -7978,7 +8038,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
-      <c r="B403" s="7"/>
+      <c r="B403" s="22"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -7988,7 +8048,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
-      <c r="B404" s="6"/>
+      <c r="B404" s="7"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -7998,7 +8058,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="7"/>
+      <c r="B405" s="6"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -8008,7 +8068,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="20"/>
+      <c r="B406" s="7"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -8018,7 +8078,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="22"/>
+      <c r="B407" s="20"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -8038,7 +8098,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="20"/>
+      <c r="B409" s="22"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -8078,7 +8138,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="7"/>
+      <c r="B413" s="20"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -8088,7 +8148,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="20"/>
+      <c r="B414" s="7"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -8108,7 +8168,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="22"/>
+      <c r="B416" s="20"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -8118,7 +8178,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="7"/>
-      <c r="B417" s="7"/>
+      <c r="B417" s="22"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -8128,7 +8188,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="7"/>
-      <c r="B418" s="6"/>
+      <c r="B418" s="7"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -8138,7 +8198,7 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="7"/>
-      <c r="B419" s="7"/>
+      <c r="B419" s="6"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -8158,7 +8218,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="6"/>
+      <c r="B421" s="7"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -8168,7 +8228,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="7"/>
-      <c r="B422" s="7"/>
+      <c r="B422" s="6"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -8178,7 +8238,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="7"/>
-      <c r="B423" s="20"/>
+      <c r="B423" s="7"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
@@ -8198,7 +8258,7 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" s="7"/>
-      <c r="B425" s="7"/>
+      <c r="B425" s="20"/>
       <c r="C425" s="7"/>
       <c r="D425" s="7"/>
       <c r="E425" s="7"/>
@@ -8208,7 +8268,7 @@
     </row>
     <row r="426" spans="1:8">
       <c r="A426" s="7"/>
-      <c r="B426" s="6"/>
+      <c r="B426" s="7"/>
       <c r="C426" s="7"/>
       <c r="D426" s="7"/>
       <c r="E426" s="7"/>
@@ -8218,7 +8278,7 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" s="7"/>
-      <c r="B427" s="7"/>
+      <c r="B427" s="6"/>
       <c r="C427" s="7"/>
       <c r="D427" s="7"/>
       <c r="E427" s="7"/>
@@ -8268,7 +8328,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="7"/>
-      <c r="B432" s="6"/>
+      <c r="B432" s="7"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -8278,7 +8338,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="7"/>
+      <c r="B433" s="6"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -8338,7 +8398,7 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="7"/>
-      <c r="B439" s="6"/>
+      <c r="B439" s="7"/>
       <c r="C439" s="7"/>
       <c r="D439" s="7"/>
       <c r="E439" s="7"/>
@@ -8348,7 +8408,7 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" s="7"/>
-      <c r="B440" s="7"/>
+      <c r="B440" s="6"/>
       <c r="C440" s="7"/>
       <c r="D440" s="7"/>
       <c r="E440" s="7"/>
@@ -8368,7 +8428,7 @@
     </row>
     <row r="442" spans="1:8">
       <c r="A442" s="7"/>
-      <c r="B442" s="6"/>
+      <c r="B442" s="7"/>
       <c r="C442" s="7"/>
       <c r="D442" s="7"/>
       <c r="E442" s="7"/>
@@ -8378,7 +8438,7 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" s="7"/>
-      <c r="B443" s="4"/>
+      <c r="B443" s="6"/>
       <c r="C443" s="7"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
@@ -8398,7 +8458,7 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="7"/>
-      <c r="B445" s="7"/>
+      <c r="B445" s="4"/>
       <c r="C445" s="7"/>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
@@ -8428,7 +8488,7 @@
     </row>
     <row r="448" spans="1:8">
       <c r="A448" s="7"/>
-      <c r="B448" s="6"/>
+      <c r="B448" s="7"/>
       <c r="C448" s="7"/>
       <c r="D448" s="7"/>
       <c r="E448" s="7"/>
@@ -8438,8 +8498,8 @@
     </row>
     <row r="449" spans="1:8">
       <c r="A449" s="7"/>
-      <c r="B449" s="7"/>
-      <c r="C449" s="4"/>
+      <c r="B449" s="6"/>
+      <c r="C449" s="7"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
       <c r="F449" s="7"/>
@@ -8489,7 +8549,7 @@
     <row r="454" spans="1:8">
       <c r="A454" s="7"/>
       <c r="B454" s="7"/>
-      <c r="C454" s="7"/>
+      <c r="C454" s="4"/>
       <c r="D454" s="7"/>
       <c r="E454" s="7"/>
       <c r="F454" s="7"/>
@@ -8498,7 +8558,7 @@
     </row>
     <row r="455" spans="1:8">
       <c r="A455" s="7"/>
-      <c r="B455" s="6"/>
+      <c r="B455" s="7"/>
       <c r="C455" s="7"/>
       <c r="D455" s="7"/>
       <c r="E455" s="7"/>
@@ -8508,8 +8568,8 @@
     </row>
     <row r="456" spans="1:8">
       <c r="A456" s="7"/>
-      <c r="B456" s="7"/>
-      <c r="C456" s="4"/>
+      <c r="B456" s="6"/>
+      <c r="C456" s="7"/>
       <c r="D456" s="7"/>
       <c r="E456" s="7"/>
       <c r="F456" s="7"/>
@@ -8549,7 +8609,7 @@
     <row r="460" spans="1:8">
       <c r="A460" s="7"/>
       <c r="B460" s="7"/>
-      <c r="C460" s="7"/>
+      <c r="C460" s="4"/>
       <c r="D460" s="7"/>
       <c r="E460" s="7"/>
       <c r="F460" s="7"/>
@@ -8558,7 +8618,7 @@
     </row>
     <row r="461" spans="1:8">
       <c r="A461" s="7"/>
-      <c r="B461" s="6"/>
+      <c r="B461" s="7"/>
       <c r="C461" s="7"/>
       <c r="D461" s="7"/>
       <c r="E461" s="7"/>
@@ -8568,7 +8628,7 @@
     </row>
     <row r="462" spans="1:8">
       <c r="A462" s="7"/>
-      <c r="B462" s="22"/>
+      <c r="B462" s="6"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
       <c r="E462" s="7"/>
@@ -8628,7 +8688,7 @@
     </row>
     <row r="468" spans="1:8">
       <c r="A468" s="7"/>
-      <c r="B468" s="7"/>
+      <c r="B468" s="22"/>
       <c r="C468" s="7"/>
       <c r="D468" s="7"/>
       <c r="E468" s="7"/>
@@ -8638,7 +8698,7 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" s="7"/>
-      <c r="B469" s="6"/>
+      <c r="B469" s="7"/>
       <c r="C469" s="7"/>
       <c r="D469" s="7"/>
       <c r="E469" s="7"/>
@@ -8648,7 +8708,7 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="7"/>
-      <c r="B470" s="22"/>
+      <c r="B470" s="6"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
       <c r="E470" s="7"/>
@@ -8677,8 +8737,8 @@
       <c r="H472" s="7"/>
     </row>
     <row r="473" spans="1:8">
-      <c r="A473" s="6"/>
-      <c r="B473" s="7"/>
+      <c r="A473" s="7"/>
+      <c r="B473" s="22"/>
       <c r="C473" s="7"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
@@ -8687,7 +8747,7 @@
       <c r="H473" s="7"/>
     </row>
     <row r="474" spans="1:8">
-      <c r="A474" s="7"/>
+      <c r="A474" s="6"/>
       <c r="B474" s="7"/>
       <c r="C474" s="7"/>
       <c r="D474" s="7"/>
@@ -8728,7 +8788,7 @@
     </row>
     <row r="478" spans="1:8">
       <c r="A478" s="7"/>
-      <c r="B478" s="28"/>
+      <c r="B478" s="7"/>
       <c r="C478" s="7"/>
       <c r="D478" s="7"/>
       <c r="E478" s="7"/>
@@ -8758,7 +8818,7 @@
     </row>
     <row r="481" spans="1:8">
       <c r="A481" s="7"/>
-      <c r="B481" s="7"/>
+      <c r="B481" s="28"/>
       <c r="C481" s="7"/>
       <c r="D481" s="7"/>
       <c r="E481" s="7"/>
@@ -8768,7 +8828,7 @@
     </row>
     <row r="482" spans="1:8">
       <c r="A482" s="7"/>
-      <c r="B482" s="28"/>
+      <c r="B482" s="7"/>
       <c r="C482" s="7"/>
       <c r="D482" s="7"/>
       <c r="E482" s="7"/>
@@ -8778,7 +8838,7 @@
     </row>
     <row r="483" spans="1:8">
       <c r="A483" s="7"/>
-      <c r="B483" s="7"/>
+      <c r="B483" s="28"/>
       <c r="C483" s="7"/>
       <c r="D483" s="7"/>
       <c r="E483" s="7"/>
@@ -8788,21 +8848,21 @@
     </row>
     <row r="484" spans="1:8">
       <c r="A484" s="7"/>
-      <c r="B484" s="29"/>
-      <c r="C484" s="30"/>
+      <c r="B484" s="7"/>
+      <c r="C484" s="7"/>
       <c r="D484" s="7"/>
       <c r="E484" s="7"/>
-      <c r="F484" s="29"/>
+      <c r="F484" s="7"/>
       <c r="G484" s="30"/>
       <c r="H484" s="7"/>
     </row>
     <row r="485" spans="1:8">
       <c r="A485" s="7"/>
-      <c r="B485" s="7"/>
-      <c r="C485" s="7"/>
+      <c r="B485" s="29"/>
+      <c r="C485" s="30"/>
       <c r="D485" s="7"/>
       <c r="E485" s="7"/>
-      <c r="F485" s="7"/>
+      <c r="F485" s="29"/>
       <c r="G485" s="30"/>
       <c r="H485" s="7"/>
     </row>
@@ -12706,13 +12766,23 @@
       <c r="G875" s="30"/>
       <c r="H875" s="7"/>
     </row>
+    <row r="876" spans="1:8">
+      <c r="A876" s="7"/>
+      <c r="B876" s="7"/>
+      <c r="C876" s="7"/>
+      <c r="D876" s="7"/>
+      <c r="E876" s="7"/>
+      <c r="F876" s="7"/>
+      <c r="G876" s="30"/>
+      <c r="H876" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="69" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="G61 G52:G53 G57:G58" formulaRange="1"/>
+    <ignoredError sqref="G62 G52:G53 G57:G58" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/JsonPretty Feature Matrix.xlsx
+++ b/JsonPretty Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="125">
   <si>
     <t>Feature</t>
   </si>
@@ -385,6 +385,15 @@
   <si>
     <t>0.00.13</t>
   </si>
+  <si>
+    <t>0.00.14</t>
+  </si>
+  <si>
+    <t>copy html</t>
+  </si>
+  <si>
+    <t>copy rtf</t>
+  </si>
 </sst>
 </file>
 
@@ -669,7 +678,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955236"/>
+          <c:w val="0.91978071330955258"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -702,10 +711,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$62</c:f>
+              <c:f>Progress!$A$48:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -750,16 +759,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$62</c:f>
+              <c:f>Progress!$B$48:$B$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -804,6 +816,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -836,10 +851,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$62</c:f>
+              <c:f>Progress!$A$48:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -884,16 +899,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$62</c:f>
+              <c:f>Progress!$C$48:$C$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -937,6 +955,9 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
@@ -970,10 +991,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$62</c:f>
+              <c:f>Progress!$A$48:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -1018,16 +1039,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$62</c:f>
+              <c:f>Progress!$D$48:$D$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1071,6 +1095,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1104,9 +1131,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$47:$A$62</c:f>
+              <c:f>Progress!$A$47:$A$63</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>Date</c:v>
                 </c:pt>
@@ -1154,16 +1181,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2017-06-14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2017-06-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$62</c:f>
+              <c:f>Progress!$E$48:$E$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1208,16 +1238,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="136613248"/>
-        <c:axId val="136381568"/>
+        <c:axId val="127307136"/>
+        <c:axId val="127075456"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="136613248"/>
+        <c:axId val="127307136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,7 +1283,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136381568"/>
+        <c:crossAx val="127075456"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1258,7 +1291,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="136381568"/>
+        <c:axId val="127075456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1333,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136613248"/>
+        <c:crossAx val="127307136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1323,7 +1356,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.3735105630880095E-2"/>
-          <c:y val="0.24095083738519726"/>
+          <c:y val="0.24095083738519729"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1390,7 +1423,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.7500000000000141" r="0.7500000000000141" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001421" r="0.75000000000001421" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1444,7 +1477,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127609E-2"/>
+          <c:x val="4.451045024812763E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1479,10 +1512,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$62</c:f>
+              <c:f>Progress!$A$48:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -1527,16 +1560,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$62</c:f>
+              <c:f>Progress!$G$48:$G$63</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1581,16 +1617,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="136417664"/>
-        <c:axId val="136419200"/>
+        <c:axId val="127107456"/>
+        <c:axId val="127108992"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="136417664"/>
+        <c:axId val="127107456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,13 +1637,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="136419200"/>
+        <c:crossAx val="127108992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="136419200"/>
+        <c:axId val="127108992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1647,7 +1686,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136417664"/>
+        <c:crossAx val="127107456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1696,7 +1735,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.7500000000000141" r="0.7500000000000141" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001421" r="0.75000000000001421" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1747,10 +1786,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$62</c:f>
+              <c:f>Progress!$A$48:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -1795,16 +1834,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$62</c:f>
+              <c:f>Progress!$C$48:$C$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1848,6 +1890,9 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
@@ -1881,10 +1926,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$62</c:f>
+              <c:f>Progress!$A$48:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -1929,16 +1974,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$62</c:f>
+              <c:f>Progress!$D$48:$D$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1982,17 +2030,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="136775936"/>
-        <c:axId val="136777728"/>
+        <c:axId val="146016512"/>
+        <c:axId val="146018304"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="136775936"/>
+        <c:axId val="146016512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,14 +2076,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136777728"/>
+        <c:crossAx val="146018304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:minorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="136777728"/>
+        <c:axId val="146018304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2074,7 +2125,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136775936"/>
+        <c:crossAx val="146016512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2123,7 +2174,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.7500000000000141" r="0.7500000000000141" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001421" r="0.75000000000001421" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2173,7 +2224,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2581,10 +2632,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2792,25 +2843,25 @@
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
       <c r="B27" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="2:4" s="6" customFormat="1">
+      <c r="B28" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="2:4" s="6" customFormat="1">
+      <c r="B29" s="23" t="s">
         <v>42</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="2:4" s="6" customFormat="1">
-      <c r="B28" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="2:4" s="6" customFormat="1">
-      <c r="B29" s="24" t="s">
-        <v>109</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>14</v>
@@ -2819,7 +2870,7 @@
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
       <c r="B30" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>14</v>
@@ -2827,26 +2878,26 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
-      <c r="B31" s="23" t="s">
-        <v>89</v>
+      <c r="B31" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
-      <c r="B32" s="23" t="s">
-        <v>93</v>
+      <c r="B32" s="24" t="s">
+        <v>110</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2</v>
@@ -2854,8 +2905,8 @@
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
-      <c r="B34" s="20" t="s">
-        <v>82</v>
+      <c r="B34" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>2</v>
@@ -2864,7 +2915,7 @@
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="23" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>2</v>
@@ -2873,7 +2924,7 @@
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
       <c r="B36" s="20" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>2</v>
@@ -2882,25 +2933,25 @@
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
       <c r="B37" s="23" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
-      <c r="B38" s="23" t="s">
-        <v>113</v>
+      <c r="B38" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="2:4" s="6" customFormat="1">
       <c r="B39" s="23" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>14</v>
@@ -2909,7 +2960,7 @@
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1">
       <c r="B40" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>14</v>
@@ -2918,7 +2969,7 @@
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
       <c r="B41" s="23" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>14</v>
@@ -2926,31 +2977,31 @@
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
-      <c r="B42" s="23"/>
-      <c r="C42" s="7"/>
+      <c r="B42" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="2:4" s="6" customFormat="1">
+      <c r="B44" s="23"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="2:4" s="6" customFormat="1">
+      <c r="B45" s="27" t="s">
         <v>23</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="2:4" s="6" customFormat="1">
-      <c r="B44" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="2:4" s="6" customFormat="1">
-      <c r="B45" s="20" t="s">
-        <v>95</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>2</v>
@@ -2958,13 +3009,17 @@
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
-      <c r="B46" s="22"/>
-      <c r="C46" s="7"/>
+      <c r="B46" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
-      <c r="B47" s="27" t="s">
-        <v>44</v>
+      <c r="B47" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>2</v>
@@ -2972,17 +3027,13 @@
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
-      <c r="B48" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
-      <c r="B49" s="20" t="s">
-        <v>47</v>
+      <c r="B49" s="27" t="s">
+        <v>44</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>2</v>
@@ -2991,7 +3042,7 @@
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>2</v>
@@ -3000,7 +3051,7 @@
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="20" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>2</v>
@@ -3008,13 +3059,17 @@
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="22"/>
-      <c r="C52" s="7"/>
+      <c r="B52" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="27" t="s">
-        <v>48</v>
+      <c r="B53" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>2</v>
@@ -3022,17 +3077,13 @@
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
-      <c r="B54" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
-      <c r="B55" s="20" t="s">
-        <v>55</v>
+      <c r="B55" s="27" t="s">
+        <v>48</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>2</v>
@@ -3040,26 +3091,26 @@
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
-      <c r="B56" s="23" t="s">
-        <v>56</v>
+      <c r="B56" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
-      <c r="B57" s="23" t="s">
-        <v>57</v>
+      <c r="B57" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>14</v>
@@ -3068,25 +3119,25 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="23" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
       <c r="B61" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>2</v>
@@ -3094,8 +3145,8 @@
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="24" t="s">
-        <v>106</v>
+      <c r="B62" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>2</v>
@@ -3104,7 +3155,7 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="23" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>2</v>
@@ -3122,7 +3173,7 @@
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
       <c r="B65" s="23" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>2</v>
@@ -3130,8 +3181,8 @@
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="23" t="s">
-        <v>85</v>
+      <c r="B66" s="24" t="s">
+        <v>106</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>2</v>
@@ -3140,7 +3191,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>2</v>
@@ -3149,71 +3200,79 @@
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="23" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="2:4" s="6" customFormat="1">
+      <c r="B70" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="2:4" s="6" customFormat="1">
+      <c r="B71" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="22"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="27" t="s">
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="2:4" s="6" customFormat="1">
+      <c r="B72" s="22"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="2:4" s="6" customFormat="1">
+      <c r="B73" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="2:4" s="6" customFormat="1">
-      <c r="B72" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="2:4" s="6" customFormat="1">
-      <c r="B73" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
       <c r="B74" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="2:4" s="6" customFormat="1">
+      <c r="B75" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="2:4" s="6" customFormat="1">
+      <c r="B76" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="22"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="22"/>
-      <c r="C76" s="7"/>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
@@ -3227,12 +3286,8 @@
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B79" s="22"/>
+      <c r="C79" s="7"/>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
@@ -3241,8 +3296,8 @@
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="22" t="s">
-        <v>76</v>
+      <c r="B81" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>14</v>
@@ -3250,46 +3305,46 @@
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="22"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="2:4" s="6" customFormat="1">
+      <c r="B83" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="2:4" s="6" customFormat="1">
+      <c r="B84" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C84" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="B83" s="22"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="2:4" s="6" customFormat="1">
-      <c r="B84" s="19"/>
-      <c r="C84" s="4"/>
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="7"/>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="19"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="2:4" s="6" customFormat="1">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="2:4" s="6" customFormat="1">
+      <c r="B88" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="22"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="22" t="s">
-        <v>50</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>14</v>
@@ -3297,17 +3352,13 @@
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B89" s="22"/>
+      <c r="C89" s="7"/>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="20" t="s">
-        <v>71</v>
+      <c r="B90" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>14</v>
@@ -3316,7 +3367,7 @@
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -3325,7 +3376,7 @@
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
       <c r="B92" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>14</v>
@@ -3334,7 +3385,7 @@
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
       <c r="B93" s="20" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>14</v>
@@ -3343,7 +3394,7 @@
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
       <c r="B94" s="20" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>14</v>
@@ -3352,7 +3403,7 @@
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
       <c r="B95" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>14</v>
@@ -3361,7 +3412,7 @@
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
       <c r="B96" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>14</v>
@@ -3370,7 +3421,7 @@
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
       <c r="B97" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>14</v>
@@ -3378,13 +3429,17 @@
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
-      <c r="B98" s="22"/>
-      <c r="C98" s="7"/>
+      <c r="B98" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
-      <c r="B99" s="22" t="s">
-        <v>51</v>
+      <c r="B99" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>14</v>
@@ -3392,17 +3447,13 @@
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
-      <c r="B100" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B100" s="22"/>
+      <c r="C100" s="7"/>
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
-      <c r="B101" s="20" t="s">
-        <v>53</v>
+      <c r="B101" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>14</v>
@@ -3410,13 +3461,17 @@
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
-      <c r="B102" s="22"/>
-      <c r="C102" s="7"/>
+      <c r="B102" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
-      <c r="B103" s="22" t="s">
-        <v>79</v>
+      <c r="B103" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>14</v>
@@ -3429,41 +3484,37 @@
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
-      <c r="B105" s="22"/>
-      <c r="C105" s="7"/>
+      <c r="B105" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
-      <c r="B106" s="20"/>
+      <c r="B106" s="22"/>
       <c r="C106" s="7"/>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="20"/>
+      <c r="B107" s="22"/>
       <c r="C107" s="7"/>
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="20"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="2:4" s="6" customFormat="1">
+      <c r="B109" s="20"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="2:4" s="6" customFormat="1">
+      <c r="B110" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" spans="2:4" s="6" customFormat="1">
-      <c r="B109" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="22" t="s">
-        <v>29</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>14</v>
@@ -3472,7 +3523,7 @@
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
       <c r="B111" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>14</v>
@@ -3480,36 +3531,36 @@
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="22"/>
-      <c r="C112" s="7"/>
+      <c r="B112" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="22"/>
-      <c r="C113" s="7"/>
+      <c r="B113" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="22"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="2:4" s="6" customFormat="1">
+      <c r="B115" s="22"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="2:4" s="6" customFormat="1">
+      <c r="B116" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="22" t="s">
-        <v>31</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>14</v>
@@ -3518,7 +3569,7 @@
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
       <c r="B117" s="22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>14</v>
@@ -3526,36 +3577,36 @@
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
-      <c r="B118" s="43"/>
-      <c r="C118" s="4"/>
+      <c r="B118" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
-      <c r="B119" s="21"/>
-      <c r="C119" s="4"/>
+      <c r="B119" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D119" s="4"/>
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="43"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="2:4" s="6" customFormat="1">
+      <c r="B121" s="21"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="2:4" s="6" customFormat="1">
+      <c r="B122" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="2:4" s="6" customFormat="1">
-      <c r="B121" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="22" t="s">
-        <v>26</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>14</v>
@@ -3564,7 +3615,7 @@
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
       <c r="B123" s="22" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>14</v>
@@ -3573,7 +3624,7 @@
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
       <c r="B124" s="22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>14</v>
@@ -3581,36 +3632,36 @@
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="43"/>
-      <c r="C125" s="4"/>
+      <c r="B125" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="21"/>
-      <c r="C126" s="4"/>
+      <c r="B126" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="43"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="2:4" s="6" customFormat="1">
+      <c r="B128" s="21"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="1:4" s="6" customFormat="1">
+      <c r="B129" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" spans="1:4" s="6" customFormat="1">
-      <c r="B129" s="22" t="s">
-        <v>21</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>14</v>
@@ -3618,95 +3669,113 @@
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="1:4" s="6" customFormat="1">
-      <c r="B130" s="22"/>
-      <c r="C130" s="4"/>
+      <c r="B130" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D130" s="4"/>
     </row>
     <row r="131" spans="1:4" s="6" customFormat="1">
-      <c r="B131" s="19"/>
-      <c r="C131" s="4"/>
+      <c r="B131" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D131" s="4"/>
     </row>
     <row r="132" spans="1:4" s="6" customFormat="1">
-      <c r="B132" s="21"/>
+      <c r="B132" s="22"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="1:4" s="6" customFormat="1">
-      <c r="B133" s="21"/>
+      <c r="B133" s="19"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="3"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="3"/>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="3"/>
-      <c r="B135" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C135" s="6">
-        <f>COUNTIF(C5:C134,"y")</f>
-        <v>42</v>
-      </c>
-      <c r="D135" s="2"/>
+    <row r="134" spans="1:4" s="6" customFormat="1">
+      <c r="B134" s="21"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="1:4" s="6" customFormat="1">
+      <c r="B135" s="21"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="3"/>
-      <c r="B136" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" s="6">
-        <f>COUNTIF(C5:C134,"n")</f>
-        <v>51</v>
-      </c>
-      <c r="D136" s="2"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="3"/>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="3"/>
       <c r="B137" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" s="7">
-        <f>COUNTIF(C5:C134,"TBD")</f>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C137" s="6">
+        <f>COUNTIF(C5:C136,"y")</f>
+        <v>44</v>
       </c>
       <c r="D137" s="2"/>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="3"/>
       <c r="B138" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138">
-        <f>SUM(C135:C137)</f>
-        <v>93</v>
+        <v>7</v>
+      </c>
+      <c r="C138" s="6">
+        <f>COUNTIF(C5:C136,"n")</f>
+        <v>51</v>
       </c>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" ht="18">
+    <row r="139" spans="1:4">
       <c r="A139" s="3"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D139" s="41">
-        <f>C135/(C136+C135 + C137)</f>
-        <v>0.45161290322580644</v>
-      </c>
+      <c r="B139" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" s="7">
+        <f>COUNTIF(C5:C136,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D139" s="2"/>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="3"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="3"/>
+      <c r="B140" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <f>SUM(C137:C139)</f>
+        <v>95</v>
+      </c>
+      <c r="D140" s="2"/>
+    </row>
+    <row r="141" spans="1:4" ht="18">
+      <c r="A141" s="3"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" s="41">
+        <f>C137/(C138+C137 + C139)</f>
+        <v>0.4631578947368421</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="3"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C64888">
+  <conditionalFormatting sqref="C1:C3 C6:C64890">
     <cfRule type="cellIs" dxfId="5" priority="13" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -3717,7 +3786,7 @@
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C120:C126">
+  <conditionalFormatting sqref="C122:C128">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -3739,12 +3808,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT876"/>
+  <dimension ref="A1:IT877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O6" sqref="O6"/>
-      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -4073,7 +4142,7 @@
         <v>81</v>
       </c>
       <c r="G51" s="30">
-        <f t="shared" ref="G51:G61" si="2">B51/SUM(B51:E51)</f>
+        <f t="shared" ref="G51:G62" si="2">B51/SUM(B51:E51)</f>
         <v>0.37313432835820898</v>
       </c>
       <c r="H51" s="7"/>
@@ -4348,19 +4417,34 @@
         <v>121</v>
       </c>
       <c r="G62" s="30">
-        <f t="shared" ref="G62" si="3">B62/SUM(B62:E62)</f>
+        <f t="shared" si="2"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="49"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="30"/>
+      <c r="A63" s="48">
+        <v>42903</v>
+      </c>
+      <c r="B63" s="4">
+        <v>44</v>
+      </c>
+      <c r="C63" s="4">
+        <v>51</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>4</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G63" s="30">
+        <f t="shared" ref="G63" si="3">B63/SUM(B63:E63)</f>
+        <v>0.44444444444444442</v>
+      </c>
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:11">
@@ -4369,83 +4453,83 @@
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="31"/>
+      <c r="F64" s="28"/>
       <c r="G64" s="30"/>
       <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="49"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B66" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C66" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D66" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E66" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="14" t="s">
+      <c r="F66" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="38">
-        <f>MIN(G62)</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="39">
-        <f>SUM(B66:D66)</f>
-        <v>93</v>
-      </c>
-      <c r="B66" s="15">
-        <f>Features!C135</f>
-        <v>42</v>
-      </c>
-      <c r="C66" s="16">
-        <f>Features!C136</f>
+      <c r="G66" s="38">
+        <f>MIN(G63)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="39">
+        <f>SUM(B67:D67)</f>
+        <v>95</v>
+      </c>
+      <c r="B67" s="15">
+        <f>Features!C137</f>
+        <v>44</v>
+      </c>
+      <c r="C67" s="16">
+        <f>Features!C138</f>
         <v>51</v>
       </c>
-      <c r="D66" s="17">
-        <f>Features!C137</f>
+      <c r="D67" s="17">
+        <f>Features!C139</f>
         <v>0</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E67" s="18">
         <v>5</v>
       </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="4"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="30"/>
       <c r="H67" s="7"/>
-      <c r="J67" s="36"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="30"/>
       <c r="H68" s="7"/>
+      <c r="J68" s="36"/>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="4"/>
-      <c r="B69" s="19"/>
+      <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -4454,13 +4538,8 @@
       <c r="H69" s="7"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70" s="51">
-        <f>A48+(A62-A48)*A66/B66</f>
-        <v>43016.571428571428</v>
-      </c>
+      <c r="A70" s="4"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="4"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -4469,8 +4548,13 @@
       <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
+      <c r="A71" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="51">
+        <f>A48+(A63-A48)*A67/B67</f>
+        <v>43017.75</v>
+      </c>
       <c r="C71" s="4"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -4480,7 +4564,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="4"/>
-      <c r="B72" s="19"/>
+      <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -4500,7 +4584,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="4"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -4520,7 +4604,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="4"/>
-      <c r="B76" s="7"/>
+      <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -4530,7 +4614,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="4"/>
-      <c r="B77" s="20"/>
+      <c r="B77" s="7"/>
       <c r="C77" s="4"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -4549,7 +4633,7 @@
       <c r="H78" s="7"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="7"/>
+      <c r="A79" s="4"/>
       <c r="B79" s="20"/>
       <c r="C79" s="4"/>
       <c r="D79" s="7"/>
@@ -4560,7 +4644,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="4"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -4691,7 +4775,7 @@
     <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
+      <c r="C93" s="4"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
@@ -4700,7 +4784,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="7"/>
-      <c r="B94" s="6"/>
+      <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -4708,15 +4792,15 @@
       <c r="G94" s="30"/>
       <c r="H94" s="7"/>
     </row>
-    <row r="95" spans="1:8" s="2" customFormat="1">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="4"/>
+    <row r="95" spans="1:8">
+      <c r="A95" s="7"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="7"/>
     </row>
     <row r="96" spans="1:8" s="2" customFormat="1">
       <c r="A96" s="4"/>
@@ -4890,7 +4974,7 @@
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="6"/>
+      <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -4900,7 +4984,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
+      <c r="B114" s="6"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -4930,7 +5014,7 @@
     </row>
     <row r="117" spans="1:8" s="2" customFormat="1">
       <c r="A117" s="4"/>
-      <c r="B117" s="19"/>
+      <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -4970,7 +5054,7 @@
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1">
       <c r="A121" s="4"/>
-      <c r="B121" s="21"/>
+      <c r="B121" s="19"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -4980,7 +5064,7 @@
     </row>
     <row r="122" spans="1:8" s="2" customFormat="1">
       <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
+      <c r="B122" s="21"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -4990,7 +5074,7 @@
     </row>
     <row r="123" spans="1:8" s="2" customFormat="1">
       <c r="A123" s="4"/>
-      <c r="B123" s="6"/>
+      <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -5000,7 +5084,7 @@
     </row>
     <row r="124" spans="1:8" s="2" customFormat="1">
       <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
+      <c r="B124" s="6"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -5010,7 +5094,7 @@
     </row>
     <row r="125" spans="1:8" s="2" customFormat="1">
       <c r="A125" s="4"/>
-      <c r="B125" s="19"/>
+      <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -5030,7 +5114,7 @@
     </row>
     <row r="127" spans="1:8" s="2" customFormat="1">
       <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
+      <c r="B127" s="19"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -5090,7 +5174,7 @@
     </row>
     <row r="133" spans="1:8" s="2" customFormat="1">
       <c r="A133" s="4"/>
-      <c r="B133" s="19"/>
+      <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -5190,7 +5274,7 @@
     </row>
     <row r="143" spans="1:8" s="2" customFormat="1">
       <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
+      <c r="B143" s="19"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -5240,7 +5324,7 @@
     </row>
     <row r="148" spans="1:254" s="2" customFormat="1">
       <c r="A148" s="4"/>
-      <c r="B148" s="19"/>
+      <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -5260,7 +5344,7 @@
     </row>
     <row r="150" spans="1:254" s="2" customFormat="1">
       <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
+      <c r="B150" s="19"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -5299,284 +5383,284 @@
       <c r="H153" s="4"/>
     </row>
     <row r="154" spans="1:254" s="2" customFormat="1">
-      <c r="A154" s="21"/>
-      <c r="B154" s="21"/>
-      <c r="C154" s="21"/>
-      <c r="D154" s="21"/>
-      <c r="E154" s="21"/>
-      <c r="F154" s="21"/>
-      <c r="G154" s="35"/>
-      <c r="H154" s="21"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="5"/>
-      <c r="K154" s="5"/>
-      <c r="L154" s="5"/>
-      <c r="M154" s="5"/>
-      <c r="N154" s="5"/>
-      <c r="O154" s="5"/>
-      <c r="P154" s="5"/>
-      <c r="Q154" s="5"/>
-      <c r="R154" s="5"/>
-      <c r="S154" s="5"/>
-      <c r="T154" s="5"/>
-      <c r="U154" s="5"/>
-      <c r="V154" s="5"/>
-      <c r="W154" s="5"/>
-      <c r="X154" s="5"/>
-      <c r="Y154" s="5"/>
-      <c r="Z154" s="5"/>
-      <c r="AA154" s="5"/>
-      <c r="AB154" s="5"/>
-      <c r="AC154" s="5"/>
-      <c r="AD154" s="5"/>
-      <c r="AE154" s="5"/>
-      <c r="AF154" s="5"/>
-      <c r="AG154" s="5"/>
-      <c r="AH154" s="5"/>
-      <c r="AI154" s="5"/>
-      <c r="AJ154" s="5"/>
-      <c r="AK154" s="5"/>
-      <c r="AL154" s="5"/>
-      <c r="AM154" s="5"/>
-      <c r="AN154" s="5"/>
-      <c r="AO154" s="5"/>
-      <c r="AP154" s="5"/>
-      <c r="AQ154" s="5"/>
-      <c r="AR154" s="5"/>
-      <c r="AS154" s="5"/>
-      <c r="AT154" s="5"/>
-      <c r="AU154" s="5"/>
-      <c r="AV154" s="5"/>
-      <c r="AW154" s="5"/>
-      <c r="AX154" s="5"/>
-      <c r="AY154" s="5"/>
-      <c r="AZ154" s="5"/>
-      <c r="BA154" s="5"/>
-      <c r="BB154" s="5"/>
-      <c r="BC154" s="5"/>
-      <c r="BD154" s="5"/>
-      <c r="BE154" s="5"/>
-      <c r="BF154" s="5"/>
-      <c r="BG154" s="5"/>
-      <c r="BH154" s="5"/>
-      <c r="BI154" s="5"/>
-      <c r="BJ154" s="5"/>
-      <c r="BK154" s="5"/>
-      <c r="BL154" s="5"/>
-      <c r="BM154" s="5"/>
-      <c r="BN154" s="5"/>
-      <c r="BO154" s="5"/>
-      <c r="BP154" s="5"/>
-      <c r="BQ154" s="5"/>
-      <c r="BR154" s="5"/>
-      <c r="BS154" s="5"/>
-      <c r="BT154" s="5"/>
-      <c r="BU154" s="5"/>
-      <c r="BV154" s="5"/>
-      <c r="BW154" s="5"/>
-      <c r="BX154" s="5"/>
-      <c r="BY154" s="5"/>
-      <c r="BZ154" s="5"/>
-      <c r="CA154" s="5"/>
-      <c r="CB154" s="5"/>
-      <c r="CC154" s="5"/>
-      <c r="CD154" s="5"/>
-      <c r="CE154" s="5"/>
-      <c r="CF154" s="5"/>
-      <c r="CG154" s="5"/>
-      <c r="CH154" s="5"/>
-      <c r="CI154" s="5"/>
-      <c r="CJ154" s="5"/>
-      <c r="CK154" s="5"/>
-      <c r="CL154" s="5"/>
-      <c r="CM154" s="5"/>
-      <c r="CN154" s="5"/>
-      <c r="CO154" s="5"/>
-      <c r="CP154" s="5"/>
-      <c r="CQ154" s="5"/>
-      <c r="CR154" s="5"/>
-      <c r="CS154" s="5"/>
-      <c r="CT154" s="5"/>
-      <c r="CU154" s="5"/>
-      <c r="CV154" s="5"/>
-      <c r="CW154" s="5"/>
-      <c r="CX154" s="5"/>
-      <c r="CY154" s="5"/>
-      <c r="CZ154" s="5"/>
-      <c r="DA154" s="5"/>
-      <c r="DB154" s="5"/>
-      <c r="DC154" s="5"/>
-      <c r="DD154" s="5"/>
-      <c r="DE154" s="5"/>
-      <c r="DF154" s="5"/>
-      <c r="DG154" s="5"/>
-      <c r="DH154" s="5"/>
-      <c r="DI154" s="5"/>
-      <c r="DJ154" s="5"/>
-      <c r="DK154" s="5"/>
-      <c r="DL154" s="5"/>
-      <c r="DM154" s="5"/>
-      <c r="DN154" s="5"/>
-      <c r="DO154" s="5"/>
-      <c r="DP154" s="5"/>
-      <c r="DQ154" s="5"/>
-      <c r="DR154" s="5"/>
-      <c r="DS154" s="5"/>
-      <c r="DT154" s="5"/>
-      <c r="DU154" s="5"/>
-      <c r="DV154" s="5"/>
-      <c r="DW154" s="5"/>
-      <c r="DX154" s="5"/>
-      <c r="DY154" s="5"/>
-      <c r="DZ154" s="5"/>
-      <c r="EA154" s="5"/>
-      <c r="EB154" s="5"/>
-      <c r="EC154" s="5"/>
-      <c r="ED154" s="5"/>
-      <c r="EE154" s="5"/>
-      <c r="EF154" s="5"/>
-      <c r="EG154" s="5"/>
-      <c r="EH154" s="5"/>
-      <c r="EI154" s="5"/>
-      <c r="EJ154" s="5"/>
-      <c r="EK154" s="5"/>
-      <c r="EL154" s="5"/>
-      <c r="EM154" s="5"/>
-      <c r="EN154" s="5"/>
-      <c r="EO154" s="5"/>
-      <c r="EP154" s="5"/>
-      <c r="EQ154" s="5"/>
-      <c r="ER154" s="5"/>
-      <c r="ES154" s="5"/>
-      <c r="ET154" s="5"/>
-      <c r="EU154" s="5"/>
-      <c r="EV154" s="5"/>
-      <c r="EW154" s="5"/>
-      <c r="EX154" s="5"/>
-      <c r="EY154" s="5"/>
-      <c r="EZ154" s="5"/>
-      <c r="FA154" s="5"/>
-      <c r="FB154" s="5"/>
-      <c r="FC154" s="5"/>
-      <c r="FD154" s="5"/>
-      <c r="FE154" s="5"/>
-      <c r="FF154" s="5"/>
-      <c r="FG154" s="5"/>
-      <c r="FH154" s="5"/>
-      <c r="FI154" s="5"/>
-      <c r="FJ154" s="5"/>
-      <c r="FK154" s="5"/>
-      <c r="FL154" s="5"/>
-      <c r="FM154" s="5"/>
-      <c r="FN154" s="5"/>
-      <c r="FO154" s="5"/>
-      <c r="FP154" s="5"/>
-      <c r="FQ154" s="5"/>
-      <c r="FR154" s="5"/>
-      <c r="FS154" s="5"/>
-      <c r="FT154" s="5"/>
-      <c r="FU154" s="5"/>
-      <c r="FV154" s="5"/>
-      <c r="FW154" s="5"/>
-      <c r="FX154" s="5"/>
-      <c r="FY154" s="5"/>
-      <c r="FZ154" s="5"/>
-      <c r="GA154" s="5"/>
-      <c r="GB154" s="5"/>
-      <c r="GC154" s="5"/>
-      <c r="GD154" s="5"/>
-      <c r="GE154" s="5"/>
-      <c r="GF154" s="5"/>
-      <c r="GG154" s="5"/>
-      <c r="GH154" s="5"/>
-      <c r="GI154" s="5"/>
-      <c r="GJ154" s="5"/>
-      <c r="GK154" s="5"/>
-      <c r="GL154" s="5"/>
-      <c r="GM154" s="5"/>
-      <c r="GN154" s="5"/>
-      <c r="GO154" s="5"/>
-      <c r="GP154" s="5"/>
-      <c r="GQ154" s="5"/>
-      <c r="GR154" s="5"/>
-      <c r="GS154" s="5"/>
-      <c r="GT154" s="5"/>
-      <c r="GU154" s="5"/>
-      <c r="GV154" s="5"/>
-      <c r="GW154" s="5"/>
-      <c r="GX154" s="5"/>
-      <c r="GY154" s="5"/>
-      <c r="GZ154" s="5"/>
-      <c r="HA154" s="5"/>
-      <c r="HB154" s="5"/>
-      <c r="HC154" s="5"/>
-      <c r="HD154" s="5"/>
-      <c r="HE154" s="5"/>
-      <c r="HF154" s="5"/>
-      <c r="HG154" s="5"/>
-      <c r="HH154" s="5"/>
-      <c r="HI154" s="5"/>
-      <c r="HJ154" s="5"/>
-      <c r="HK154" s="5"/>
-      <c r="HL154" s="5"/>
-      <c r="HM154" s="5"/>
-      <c r="HN154" s="5"/>
-      <c r="HO154" s="5"/>
-      <c r="HP154" s="5"/>
-      <c r="HQ154" s="5"/>
-      <c r="HR154" s="5"/>
-      <c r="HS154" s="5"/>
-      <c r="HT154" s="5"/>
-      <c r="HU154" s="5"/>
-      <c r="HV154" s="5"/>
-      <c r="HW154" s="5"/>
-      <c r="HX154" s="5"/>
-      <c r="HY154" s="5"/>
-      <c r="HZ154" s="5"/>
-      <c r="IA154" s="5"/>
-      <c r="IB154" s="5"/>
-      <c r="IC154" s="5"/>
-      <c r="ID154" s="5"/>
-      <c r="IE154" s="5"/>
-      <c r="IF154" s="5"/>
-      <c r="IG154" s="5"/>
-      <c r="IH154" s="5"/>
-      <c r="II154" s="5"/>
-      <c r="IJ154" s="5"/>
-      <c r="IK154" s="5"/>
-      <c r="IL154" s="5"/>
-      <c r="IM154" s="5"/>
-      <c r="IN154" s="5"/>
-      <c r="IO154" s="5"/>
-      <c r="IP154" s="5"/>
-      <c r="IQ154" s="5"/>
-      <c r="IR154" s="5"/>
-      <c r="IS154" s="5"/>
-      <c r="IT154" s="5"/>
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="34"/>
+      <c r="H154" s="4"/>
     </row>
     <row r="155" spans="1:254" s="2" customFormat="1">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="34"/>
-      <c r="H155" s="4"/>
-    </row>
-    <row r="156" spans="1:254">
-      <c r="A156" s="7"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
-      <c r="G156" s="30"/>
-      <c r="H156" s="7"/>
+      <c r="A155" s="21"/>
+      <c r="B155" s="21"/>
+      <c r="C155" s="21"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="21"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="35"/>
+      <c r="H155" s="21"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="5"/>
+      <c r="N155" s="5"/>
+      <c r="O155" s="5"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
+      <c r="R155" s="5"/>
+      <c r="S155" s="5"/>
+      <c r="T155" s="5"/>
+      <c r="U155" s="5"/>
+      <c r="V155" s="5"/>
+      <c r="W155" s="5"/>
+      <c r="X155" s="5"/>
+      <c r="Y155" s="5"/>
+      <c r="Z155" s="5"/>
+      <c r="AA155" s="5"/>
+      <c r="AB155" s="5"/>
+      <c r="AC155" s="5"/>
+      <c r="AD155" s="5"/>
+      <c r="AE155" s="5"/>
+      <c r="AF155" s="5"/>
+      <c r="AG155" s="5"/>
+      <c r="AH155" s="5"/>
+      <c r="AI155" s="5"/>
+      <c r="AJ155" s="5"/>
+      <c r="AK155" s="5"/>
+      <c r="AL155" s="5"/>
+      <c r="AM155" s="5"/>
+      <c r="AN155" s="5"/>
+      <c r="AO155" s="5"/>
+      <c r="AP155" s="5"/>
+      <c r="AQ155" s="5"/>
+      <c r="AR155" s="5"/>
+      <c r="AS155" s="5"/>
+      <c r="AT155" s="5"/>
+      <c r="AU155" s="5"/>
+      <c r="AV155" s="5"/>
+      <c r="AW155" s="5"/>
+      <c r="AX155" s="5"/>
+      <c r="AY155" s="5"/>
+      <c r="AZ155" s="5"/>
+      <c r="BA155" s="5"/>
+      <c r="BB155" s="5"/>
+      <c r="BC155" s="5"/>
+      <c r="BD155" s="5"/>
+      <c r="BE155" s="5"/>
+      <c r="BF155" s="5"/>
+      <c r="BG155" s="5"/>
+      <c r="BH155" s="5"/>
+      <c r="BI155" s="5"/>
+      <c r="BJ155" s="5"/>
+      <c r="BK155" s="5"/>
+      <c r="BL155" s="5"/>
+      <c r="BM155" s="5"/>
+      <c r="BN155" s="5"/>
+      <c r="BO155" s="5"/>
+      <c r="BP155" s="5"/>
+      <c r="BQ155" s="5"/>
+      <c r="BR155" s="5"/>
+      <c r="BS155" s="5"/>
+      <c r="BT155" s="5"/>
+      <c r="BU155" s="5"/>
+      <c r="BV155" s="5"/>
+      <c r="BW155" s="5"/>
+      <c r="BX155" s="5"/>
+      <c r="BY155" s="5"/>
+      <c r="BZ155" s="5"/>
+      <c r="CA155" s="5"/>
+      <c r="CB155" s="5"/>
+      <c r="CC155" s="5"/>
+      <c r="CD155" s="5"/>
+      <c r="CE155" s="5"/>
+      <c r="CF155" s="5"/>
+      <c r="CG155" s="5"/>
+      <c r="CH155" s="5"/>
+      <c r="CI155" s="5"/>
+      <c r="CJ155" s="5"/>
+      <c r="CK155" s="5"/>
+      <c r="CL155" s="5"/>
+      <c r="CM155" s="5"/>
+      <c r="CN155" s="5"/>
+      <c r="CO155" s="5"/>
+      <c r="CP155" s="5"/>
+      <c r="CQ155" s="5"/>
+      <c r="CR155" s="5"/>
+      <c r="CS155" s="5"/>
+      <c r="CT155" s="5"/>
+      <c r="CU155" s="5"/>
+      <c r="CV155" s="5"/>
+      <c r="CW155" s="5"/>
+      <c r="CX155" s="5"/>
+      <c r="CY155" s="5"/>
+      <c r="CZ155" s="5"/>
+      <c r="DA155" s="5"/>
+      <c r="DB155" s="5"/>
+      <c r="DC155" s="5"/>
+      <c r="DD155" s="5"/>
+      <c r="DE155" s="5"/>
+      <c r="DF155" s="5"/>
+      <c r="DG155" s="5"/>
+      <c r="DH155" s="5"/>
+      <c r="DI155" s="5"/>
+      <c r="DJ155" s="5"/>
+      <c r="DK155" s="5"/>
+      <c r="DL155" s="5"/>
+      <c r="DM155" s="5"/>
+      <c r="DN155" s="5"/>
+      <c r="DO155" s="5"/>
+      <c r="DP155" s="5"/>
+      <c r="DQ155" s="5"/>
+      <c r="DR155" s="5"/>
+      <c r="DS155" s="5"/>
+      <c r="DT155" s="5"/>
+      <c r="DU155" s="5"/>
+      <c r="DV155" s="5"/>
+      <c r="DW155" s="5"/>
+      <c r="DX155" s="5"/>
+      <c r="DY155" s="5"/>
+      <c r="DZ155" s="5"/>
+      <c r="EA155" s="5"/>
+      <c r="EB155" s="5"/>
+      <c r="EC155" s="5"/>
+      <c r="ED155" s="5"/>
+      <c r="EE155" s="5"/>
+      <c r="EF155" s="5"/>
+      <c r="EG155" s="5"/>
+      <c r="EH155" s="5"/>
+      <c r="EI155" s="5"/>
+      <c r="EJ155" s="5"/>
+      <c r="EK155" s="5"/>
+      <c r="EL155" s="5"/>
+      <c r="EM155" s="5"/>
+      <c r="EN155" s="5"/>
+      <c r="EO155" s="5"/>
+      <c r="EP155" s="5"/>
+      <c r="EQ155" s="5"/>
+      <c r="ER155" s="5"/>
+      <c r="ES155" s="5"/>
+      <c r="ET155" s="5"/>
+      <c r="EU155" s="5"/>
+      <c r="EV155" s="5"/>
+      <c r="EW155" s="5"/>
+      <c r="EX155" s="5"/>
+      <c r="EY155" s="5"/>
+      <c r="EZ155" s="5"/>
+      <c r="FA155" s="5"/>
+      <c r="FB155" s="5"/>
+      <c r="FC155" s="5"/>
+      <c r="FD155" s="5"/>
+      <c r="FE155" s="5"/>
+      <c r="FF155" s="5"/>
+      <c r="FG155" s="5"/>
+      <c r="FH155" s="5"/>
+      <c r="FI155" s="5"/>
+      <c r="FJ155" s="5"/>
+      <c r="FK155" s="5"/>
+      <c r="FL155" s="5"/>
+      <c r="FM155" s="5"/>
+      <c r="FN155" s="5"/>
+      <c r="FO155" s="5"/>
+      <c r="FP155" s="5"/>
+      <c r="FQ155" s="5"/>
+      <c r="FR155" s="5"/>
+      <c r="FS155" s="5"/>
+      <c r="FT155" s="5"/>
+      <c r="FU155" s="5"/>
+      <c r="FV155" s="5"/>
+      <c r="FW155" s="5"/>
+      <c r="FX155" s="5"/>
+      <c r="FY155" s="5"/>
+      <c r="FZ155" s="5"/>
+      <c r="GA155" s="5"/>
+      <c r="GB155" s="5"/>
+      <c r="GC155" s="5"/>
+      <c r="GD155" s="5"/>
+      <c r="GE155" s="5"/>
+      <c r="GF155" s="5"/>
+      <c r="GG155" s="5"/>
+      <c r="GH155" s="5"/>
+      <c r="GI155" s="5"/>
+      <c r="GJ155" s="5"/>
+      <c r="GK155" s="5"/>
+      <c r="GL155" s="5"/>
+      <c r="GM155" s="5"/>
+      <c r="GN155" s="5"/>
+      <c r="GO155" s="5"/>
+      <c r="GP155" s="5"/>
+      <c r="GQ155" s="5"/>
+      <c r="GR155" s="5"/>
+      <c r="GS155" s="5"/>
+      <c r="GT155" s="5"/>
+      <c r="GU155" s="5"/>
+      <c r="GV155" s="5"/>
+      <c r="GW155" s="5"/>
+      <c r="GX155" s="5"/>
+      <c r="GY155" s="5"/>
+      <c r="GZ155" s="5"/>
+      <c r="HA155" s="5"/>
+      <c r="HB155" s="5"/>
+      <c r="HC155" s="5"/>
+      <c r="HD155" s="5"/>
+      <c r="HE155" s="5"/>
+      <c r="HF155" s="5"/>
+      <c r="HG155" s="5"/>
+      <c r="HH155" s="5"/>
+      <c r="HI155" s="5"/>
+      <c r="HJ155" s="5"/>
+      <c r="HK155" s="5"/>
+      <c r="HL155" s="5"/>
+      <c r="HM155" s="5"/>
+      <c r="HN155" s="5"/>
+      <c r="HO155" s="5"/>
+      <c r="HP155" s="5"/>
+      <c r="HQ155" s="5"/>
+      <c r="HR155" s="5"/>
+      <c r="HS155" s="5"/>
+      <c r="HT155" s="5"/>
+      <c r="HU155" s="5"/>
+      <c r="HV155" s="5"/>
+      <c r="HW155" s="5"/>
+      <c r="HX155" s="5"/>
+      <c r="HY155" s="5"/>
+      <c r="HZ155" s="5"/>
+      <c r="IA155" s="5"/>
+      <c r="IB155" s="5"/>
+      <c r="IC155" s="5"/>
+      <c r="ID155" s="5"/>
+      <c r="IE155" s="5"/>
+      <c r="IF155" s="5"/>
+      <c r="IG155" s="5"/>
+      <c r="IH155" s="5"/>
+      <c r="II155" s="5"/>
+      <c r="IJ155" s="5"/>
+      <c r="IK155" s="5"/>
+      <c r="IL155" s="5"/>
+      <c r="IM155" s="5"/>
+      <c r="IN155" s="5"/>
+      <c r="IO155" s="5"/>
+      <c r="IP155" s="5"/>
+      <c r="IQ155" s="5"/>
+      <c r="IR155" s="5"/>
+      <c r="IS155" s="5"/>
+      <c r="IT155" s="5"/>
+    </row>
+    <row r="156" spans="1:254" s="2" customFormat="1">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="34"/>
+      <c r="H156" s="4"/>
     </row>
     <row r="157" spans="1:254">
       <c r="A157" s="7"/>
-      <c r="B157" s="7"/>
+      <c r="B157" s="6"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -5586,7 +5670,7 @@
     </row>
     <row r="158" spans="1:254">
       <c r="A158" s="7"/>
-      <c r="B158" s="20"/>
+      <c r="B158" s="7"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -5596,7 +5680,7 @@
     </row>
     <row r="159" spans="1:254">
       <c r="A159" s="7"/>
-      <c r="B159" s="7"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -5607,7 +5691,7 @@
     <row r="160" spans="1:254">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
-      <c r="C160" s="4"/>
+      <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
@@ -5647,7 +5731,7 @@
     <row r="164" spans="1:8">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
-      <c r="C164" s="7"/>
+      <c r="C164" s="4"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
@@ -5656,7 +5740,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="7"/>
-      <c r="B165" s="22"/>
+      <c r="B165" s="7"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -5676,7 +5760,7 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
+      <c r="B167" s="22"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -5686,7 +5770,7 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="7"/>
-      <c r="B168" s="20"/>
+      <c r="B168" s="7"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -5706,7 +5790,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7"/>
-      <c r="B170" s="7"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -5726,7 +5810,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="7"/>
-      <c r="B172" s="20"/>
+      <c r="B172" s="7"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -5745,10 +5829,8 @@
       <c r="H173" s="7"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="45">
-        <v>43011</v>
-      </c>
-      <c r="B174" s="7"/>
+      <c r="A174" s="7"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -5757,7 +5839,9 @@
       <c r="H174" s="7"/>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="7"/>
+      <c r="A175" s="45">
+        <v>43011</v>
+      </c>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
@@ -5768,7 +5852,7 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="7"/>
-      <c r="B176" s="20"/>
+      <c r="B176" s="7"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
@@ -5788,7 +5872,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="7"/>
-      <c r="B178" s="7"/>
+      <c r="B178" s="20"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -5828,7 +5912,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="7"/>
-      <c r="B182" s="6"/>
+      <c r="B182" s="7"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -5838,8 +5922,8 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="7"/>
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
@@ -5848,7 +5932,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="7"/>
-      <c r="B184" s="19"/>
+      <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -5918,7 +6002,7 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="7"/>
-      <c r="B191" s="4"/>
+      <c r="B191" s="19"/>
       <c r="C191" s="4"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -5928,7 +6012,7 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="7"/>
-      <c r="B192" s="19"/>
+      <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -5938,7 +6022,7 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="7"/>
-      <c r="B193" s="21"/>
+      <c r="B193" s="19"/>
       <c r="C193" s="4"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
@@ -5958,7 +6042,7 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="7"/>
-      <c r="B195" s="19"/>
+      <c r="B195" s="21"/>
       <c r="C195" s="4"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
@@ -5999,7 +6083,7 @@
     <row r="199" spans="1:8">
       <c r="A199" s="7"/>
       <c r="B199" s="19"/>
-      <c r="C199" s="7"/>
+      <c r="C199" s="4"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
       <c r="F199" s="7"/>
@@ -6008,7 +6092,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="7"/>
-      <c r="B200" s="4"/>
+      <c r="B200" s="19"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -6028,7 +6112,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="7"/>
-      <c r="B202" s="19"/>
+      <c r="B202" s="4"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -6088,7 +6172,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="7"/>
-      <c r="B208" s="21"/>
+      <c r="B208" s="19"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -6128,7 +6212,7 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="7"/>
-      <c r="B212" s="4"/>
+      <c r="B212" s="21"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
@@ -6138,7 +6222,7 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="7"/>
-      <c r="B213" s="6"/>
+      <c r="B213" s="4"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -6148,7 +6232,7 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="7"/>
-      <c r="B214" s="4"/>
+      <c r="B214" s="6"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -6158,7 +6242,7 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="7"/>
-      <c r="B215" s="19"/>
+      <c r="B215" s="4"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
@@ -6208,7 +6292,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="7"/>
-      <c r="B220" s="21"/>
+      <c r="B220" s="19"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -6218,7 +6302,7 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="7"/>
-      <c r="B221" s="19"/>
+      <c r="B221" s="21"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -6268,7 +6352,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="7"/>
-      <c r="B226" s="21"/>
+      <c r="B226" s="19"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -6328,7 +6412,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="4"/>
+      <c r="B232" s="21"/>
       <c r="C232" s="7"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -6338,7 +6422,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="7"/>
-      <c r="B233" s="6"/>
+      <c r="B233" s="4"/>
       <c r="C233" s="7"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -6348,8 +6432,8 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="7"/>
-      <c r="B234" s="4"/>
-      <c r="C234" s="4"/>
+      <c r="B234" s="6"/>
+      <c r="C234" s="7"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
       <c r="F234" s="7"/>
@@ -6358,7 +6442,7 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="7"/>
-      <c r="B235" s="19"/>
+      <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -6368,7 +6452,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="7"/>
-      <c r="B236" s="7"/>
+      <c r="B236" s="19"/>
       <c r="C236" s="4"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -6378,7 +6462,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="7"/>
-      <c r="B237" s="20"/>
+      <c r="B237" s="7"/>
       <c r="C237" s="4"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -6418,7 +6502,7 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="7"/>
-      <c r="B241" s="7"/>
+      <c r="B241" s="20"/>
       <c r="C241" s="4"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
@@ -6428,7 +6512,7 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="7"/>
-      <c r="B242" s="20"/>
+      <c r="B242" s="7"/>
       <c r="C242" s="4"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -6438,7 +6522,7 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="7"/>
-      <c r="B243" s="23"/>
+      <c r="B243" s="20"/>
       <c r="C243" s="4"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -6458,7 +6542,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="20"/>
+      <c r="B245" s="23"/>
       <c r="C245" s="4"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -6498,7 +6582,7 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="7"/>
-      <c r="B249" s="7"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="4"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -6508,7 +6592,7 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="7"/>
-      <c r="B250" s="20"/>
+      <c r="B250" s="7"/>
       <c r="C250" s="4"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
@@ -6558,7 +6642,7 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="7"/>
-      <c r="B255" s="7"/>
+      <c r="B255" s="20"/>
       <c r="C255" s="4"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -6568,8 +6652,8 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="7"/>
-      <c r="B256" s="20"/>
-      <c r="C256" s="7"/>
+      <c r="B256" s="7"/>
+      <c r="C256" s="4"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
       <c r="F256" s="7"/>
@@ -6578,7 +6662,7 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="7"/>
-      <c r="B257" s="7"/>
+      <c r="B257" s="20"/>
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -6588,7 +6672,7 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="7"/>
-      <c r="B258" s="20"/>
+      <c r="B258" s="7"/>
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -6598,7 +6682,7 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="7"/>
-      <c r="B259" s="23"/>
+      <c r="B259" s="20"/>
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
@@ -6648,8 +6732,8 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="7"/>
-      <c r="B264" s="20"/>
-      <c r="C264" s="4"/>
+      <c r="B264" s="23"/>
+      <c r="C264" s="7"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
       <c r="F264" s="7"/>
@@ -6658,7 +6742,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="7"/>
-      <c r="B265" s="23"/>
+      <c r="B265" s="20"/>
       <c r="C265" s="4"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -6668,7 +6752,7 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="7"/>
-      <c r="B266" s="24"/>
+      <c r="B266" s="23"/>
       <c r="C266" s="4"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -6696,9 +6780,9 @@
       <c r="G268" s="30"/>
       <c r="H268" s="7"/>
     </row>
-    <row r="269" spans="1:8" ht="11.25">
+    <row r="269" spans="1:8">
       <c r="A269" s="7"/>
-      <c r="B269" s="25"/>
+      <c r="B269" s="24"/>
       <c r="C269" s="4"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
@@ -6706,9 +6790,9 @@
       <c r="G269" s="30"/>
       <c r="H269" s="7"/>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" ht="11.25">
       <c r="A270" s="7"/>
-      <c r="B270" s="23"/>
+      <c r="B270" s="25"/>
       <c r="C270" s="4"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -6748,7 +6832,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="24"/>
+      <c r="B274" s="23"/>
       <c r="C274" s="4"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -6778,7 +6862,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="7"/>
-      <c r="B277" s="23"/>
+      <c r="B277" s="24"/>
       <c r="C277" s="4"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -6788,7 +6872,7 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="7"/>
-      <c r="B278" s="24"/>
+      <c r="B278" s="23"/>
       <c r="C278" s="4"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -6796,15 +6880,15 @@
       <c r="G278" s="30"/>
       <c r="H278" s="7"/>
     </row>
-    <row r="279" spans="1:8" s="2" customFormat="1">
-      <c r="A279" s="4"/>
+    <row r="279" spans="1:8">
+      <c r="A279" s="7"/>
       <c r="B279" s="24"/>
       <c r="C279" s="4"/>
-      <c r="D279" s="4"/>
-      <c r="E279" s="4"/>
-      <c r="F279" s="4"/>
-      <c r="G279" s="34"/>
-      <c r="H279" s="4"/>
+      <c r="D279" s="7"/>
+      <c r="E279" s="7"/>
+      <c r="F279" s="7"/>
+      <c r="G279" s="30"/>
+      <c r="H279" s="7"/>
     </row>
     <row r="280" spans="1:8" s="2" customFormat="1">
       <c r="A280" s="4"/>
@@ -6816,19 +6900,19 @@
       <c r="G280" s="34"/>
       <c r="H280" s="4"/>
     </row>
-    <row r="281" spans="1:8">
-      <c r="A281" s="7"/>
+    <row r="281" spans="1:8" s="2" customFormat="1">
+      <c r="A281" s="4"/>
       <c r="B281" s="24"/>
       <c r="C281" s="4"/>
-      <c r="D281" s="7"/>
-      <c r="E281" s="7"/>
-      <c r="F281" s="7"/>
-      <c r="G281" s="30"/>
-      <c r="H281" s="7"/>
+      <c r="D281" s="4"/>
+      <c r="E281" s="4"/>
+      <c r="F281" s="4"/>
+      <c r="G281" s="34"/>
+      <c r="H281" s="4"/>
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="7"/>
-      <c r="B282" s="23"/>
+      <c r="B282" s="24"/>
       <c r="C282" s="4"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
@@ -6838,7 +6922,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="24"/>
+      <c r="B283" s="23"/>
       <c r="C283" s="4"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -6868,7 +6952,7 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="7"/>
-      <c r="B286" s="22"/>
+      <c r="B286" s="24"/>
       <c r="C286" s="4"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
@@ -6878,7 +6962,7 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="7"/>
-      <c r="B287" s="7"/>
+      <c r="B287" s="22"/>
       <c r="C287" s="4"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
@@ -6898,7 +6982,7 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" s="7"/>
-      <c r="B289" s="20"/>
+      <c r="B289" s="7"/>
       <c r="C289" s="4"/>
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
@@ -6918,7 +7002,7 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" s="7"/>
-      <c r="B291" s="7"/>
+      <c r="B291" s="20"/>
       <c r="C291" s="4"/>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
@@ -6949,7 +7033,7 @@
     <row r="294" spans="1:8">
       <c r="A294" s="7"/>
       <c r="B294" s="7"/>
-      <c r="C294" s="7"/>
+      <c r="C294" s="4"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
       <c r="F294" s="7"/>
@@ -6958,7 +7042,7 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="7"/>
-      <c r="B295" s="6"/>
+      <c r="B295" s="7"/>
       <c r="C295" s="7"/>
       <c r="D295" s="7"/>
       <c r="E295" s="7"/>
@@ -6968,7 +7052,7 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="7"/>
-      <c r="B296" s="7"/>
+      <c r="B296" s="6"/>
       <c r="C296" s="7"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
@@ -7048,7 +7132,7 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="7"/>
-      <c r="B304" s="6"/>
+      <c r="B304" s="7"/>
       <c r="C304" s="7"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
@@ -7058,8 +7142,8 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="7"/>
-      <c r="B305" s="4"/>
-      <c r="C305" s="4"/>
+      <c r="B305" s="6"/>
+      <c r="C305" s="7"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
       <c r="F305" s="7"/>
@@ -7068,7 +7152,7 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="7"/>
-      <c r="B306" s="19"/>
+      <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
@@ -7098,7 +7182,7 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="7"/>
-      <c r="B309" s="4"/>
+      <c r="B309" s="19"/>
       <c r="C309" s="4"/>
       <c r="D309" s="7"/>
       <c r="E309" s="7"/>
@@ -7158,7 +7242,7 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315" s="7"/>
-      <c r="B315" s="19"/>
+      <c r="B315" s="4"/>
       <c r="C315" s="4"/>
       <c r="D315" s="7"/>
       <c r="E315" s="7"/>
@@ -7178,7 +7262,7 @@
     </row>
     <row r="317" spans="1:8">
       <c r="A317" s="7"/>
-      <c r="B317" s="21"/>
+      <c r="B317" s="19"/>
       <c r="C317" s="4"/>
       <c r="D317" s="7"/>
       <c r="E317" s="7"/>
@@ -7188,8 +7272,8 @@
     </row>
     <row r="318" spans="1:8">
       <c r="A318" s="7"/>
-      <c r="B318" s="7"/>
-      <c r="C318" s="7"/>
+      <c r="B318" s="21"/>
+      <c r="C318" s="4"/>
       <c r="D318" s="7"/>
       <c r="E318" s="7"/>
       <c r="F318" s="7"/>
@@ -7198,7 +7282,7 @@
     </row>
     <row r="319" spans="1:8">
       <c r="A319" s="7"/>
-      <c r="B319" s="6"/>
+      <c r="B319" s="7"/>
       <c r="C319" s="7"/>
       <c r="D319" s="7"/>
       <c r="E319" s="7"/>
@@ -7206,15 +7290,15 @@
       <c r="G319" s="30"/>
       <c r="H319" s="7"/>
     </row>
-    <row r="320" spans="1:8" s="2" customFormat="1">
-      <c r="A320" s="4"/>
-      <c r="B320" s="4"/>
-      <c r="C320" s="9"/>
-      <c r="D320" s="4"/>
-      <c r="E320" s="4"/>
-      <c r="F320" s="4"/>
-      <c r="G320" s="34"/>
-      <c r="H320" s="4"/>
+    <row r="320" spans="1:8">
+      <c r="A320" s="7"/>
+      <c r="B320" s="6"/>
+      <c r="C320" s="7"/>
+      <c r="D320" s="7"/>
+      <c r="E320" s="7"/>
+      <c r="F320" s="7"/>
+      <c r="G320" s="30"/>
+      <c r="H320" s="7"/>
     </row>
     <row r="321" spans="1:8" s="2" customFormat="1">
       <c r="A321" s="4"/>
@@ -7238,7 +7322,7 @@
     </row>
     <row r="323" spans="1:8" s="2" customFormat="1">
       <c r="A323" s="4"/>
-      <c r="B323" s="19"/>
+      <c r="B323" s="4"/>
       <c r="C323" s="9"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
@@ -7288,8 +7372,8 @@
     </row>
     <row r="328" spans="1:8" s="2" customFormat="1">
       <c r="A328" s="4"/>
-      <c r="B328" s="26"/>
-      <c r="C328" s="4"/>
+      <c r="B328" s="19"/>
+      <c r="C328" s="9"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
       <c r="F328" s="4"/>
@@ -7338,7 +7422,7 @@
     </row>
     <row r="333" spans="1:8" s="2" customFormat="1">
       <c r="A333" s="4"/>
-      <c r="B333" s="21"/>
+      <c r="B333" s="26"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -7388,7 +7472,7 @@
     </row>
     <row r="338" spans="1:8" s="2" customFormat="1">
       <c r="A338" s="4"/>
-      <c r="B338" s="19"/>
+      <c r="B338" s="21"/>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
@@ -7398,7 +7482,7 @@
     </row>
     <row r="339" spans="1:8" s="2" customFormat="1">
       <c r="A339" s="4"/>
-      <c r="B339" s="21"/>
+      <c r="B339" s="19"/>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
@@ -7408,7 +7492,7 @@
     </row>
     <row r="340" spans="1:8" s="2" customFormat="1">
       <c r="A340" s="4"/>
-      <c r="B340" s="4"/>
+      <c r="B340" s="21"/>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
@@ -7416,20 +7500,20 @@
       <c r="G340" s="34"/>
       <c r="H340" s="4"/>
     </row>
-    <row r="341" spans="1:8">
-      <c r="A341" s="7"/>
-      <c r="B341" s="6"/>
-      <c r="C341" s="7"/>
-      <c r="D341" s="7"/>
-      <c r="E341" s="7"/>
-      <c r="F341" s="7"/>
-      <c r="G341" s="30"/>
-      <c r="H341" s="7"/>
+    <row r="341" spans="1:8" s="2" customFormat="1">
+      <c r="A341" s="4"/>
+      <c r="B341" s="4"/>
+      <c r="C341" s="4"/>
+      <c r="D341" s="4"/>
+      <c r="E341" s="4"/>
+      <c r="F341" s="4"/>
+      <c r="G341" s="34"/>
+      <c r="H341" s="4"/>
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="7"/>
-      <c r="B342" s="7"/>
-      <c r="C342" s="4"/>
+      <c r="B342" s="6"/>
+      <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
       <c r="F342" s="7"/>
@@ -7498,7 +7582,7 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="7"/>
-      <c r="B349" s="4"/>
+      <c r="B349" s="7"/>
       <c r="C349" s="4"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
@@ -7509,7 +7593,7 @@
     <row r="350" spans="1:8">
       <c r="A350" s="7"/>
       <c r="B350" s="4"/>
-      <c r="C350" s="7"/>
+      <c r="C350" s="4"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
       <c r="F350" s="7"/>
@@ -7518,7 +7602,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="6"/>
+      <c r="B351" s="4"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -7528,7 +7612,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="7"/>
-      <c r="B352" s="7"/>
+      <c r="B352" s="6"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
@@ -7538,7 +7622,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="7"/>
-      <c r="B353" s="22"/>
+      <c r="B353" s="7"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
@@ -7548,7 +7632,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="7"/>
+      <c r="B354" s="22"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -7588,7 +7672,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="7"/>
-      <c r="B358" s="6"/>
+      <c r="B358" s="7"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -7598,7 +7682,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="7"/>
+      <c r="B359" s="6"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -7608,7 +7692,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="20"/>
+      <c r="B360" s="7"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -7638,7 +7722,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="22"/>
+      <c r="B363" s="20"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -7648,7 +7732,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="20"/>
+      <c r="B364" s="22"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -7668,7 +7752,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="22"/>
+      <c r="B366" s="20"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -7678,7 +7762,7 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="7"/>
-      <c r="B367" s="20"/>
+      <c r="B367" s="22"/>
       <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
@@ -7688,7 +7772,7 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="7"/>
-      <c r="B368" s="22"/>
+      <c r="B368" s="20"/>
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
@@ -7698,7 +7782,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="20"/>
+      <c r="B369" s="22"/>
       <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -7728,7 +7812,7 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="7"/>
+      <c r="B372" s="20"/>
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
@@ -7738,7 +7822,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="27"/>
+      <c r="B373" s="7"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -7748,7 +7832,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="22"/>
+      <c r="B374" s="27"/>
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -7758,8 +7842,8 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="7"/>
-      <c r="B375" s="7"/>
-      <c r="C375" s="4"/>
+      <c r="B375" s="22"/>
+      <c r="C375" s="7"/>
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
       <c r="F375" s="7"/>
@@ -7768,7 +7852,7 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" s="7"/>
-      <c r="B376" s="20"/>
+      <c r="B376" s="7"/>
       <c r="C376" s="4"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
@@ -7798,7 +7882,7 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="7"/>
-      <c r="B379" s="7"/>
+      <c r="B379" s="20"/>
       <c r="C379" s="4"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
@@ -7828,7 +7912,7 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" s="7"/>
-      <c r="B382" s="20"/>
+      <c r="B382" s="7"/>
       <c r="C382" s="4"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
@@ -7848,8 +7932,8 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
-      <c r="B384" s="7"/>
-      <c r="C384" s="7"/>
+      <c r="B384" s="20"/>
+      <c r="C384" s="4"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
@@ -7858,7 +7942,7 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
-      <c r="B385" s="6"/>
+      <c r="B385" s="7"/>
       <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
@@ -7868,7 +7952,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
-      <c r="B386" s="7"/>
+      <c r="B386" s="6"/>
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
@@ -7928,7 +8012,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
-      <c r="B392" s="6"/>
+      <c r="B392" s="7"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -7938,7 +8022,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="7"/>
+      <c r="B393" s="6"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -7959,7 +8043,7 @@
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
       <c r="B395" s="7"/>
-      <c r="C395" s="4"/>
+      <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
       <c r="F395" s="7"/>
@@ -7968,7 +8052,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
-      <c r="B396" s="20"/>
+      <c r="B396" s="7"/>
       <c r="C396" s="4"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -7979,7 +8063,7 @@
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
       <c r="B397" s="20"/>
-      <c r="C397" s="7"/>
+      <c r="C397" s="4"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
       <c r="F397" s="7"/>
@@ -7988,7 +8072,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="7"/>
-      <c r="B398" s="27"/>
+      <c r="B398" s="20"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -7998,7 +8082,7 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="7"/>
-      <c r="B399" s="22"/>
+      <c r="B399" s="27"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
@@ -8048,7 +8132,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
-      <c r="B404" s="7"/>
+      <c r="B404" s="22"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -8058,7 +8142,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="6"/>
+      <c r="B405" s="7"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -8068,7 +8152,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="7"/>
+      <c r="B406" s="6"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -8078,7 +8162,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="20"/>
+      <c r="B407" s="7"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -8088,7 +8172,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="22"/>
+      <c r="B408" s="20"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -8108,7 +8192,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="20"/>
+      <c r="B410" s="22"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -8148,7 +8232,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="7"/>
+      <c r="B414" s="20"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -8158,7 +8242,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="20"/>
+      <c r="B415" s="7"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -8178,7 +8262,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="7"/>
-      <c r="B417" s="22"/>
+      <c r="B417" s="20"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -8188,7 +8272,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="7"/>
-      <c r="B418" s="7"/>
+      <c r="B418" s="22"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -8198,7 +8282,7 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="7"/>
-      <c r="B419" s="6"/>
+      <c r="B419" s="7"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -8208,7 +8292,7 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="7"/>
-      <c r="B420" s="7"/>
+      <c r="B420" s="6"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -8228,7 +8312,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="7"/>
-      <c r="B422" s="6"/>
+      <c r="B422" s="7"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -8238,7 +8322,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="7"/>
-      <c r="B423" s="7"/>
+      <c r="B423" s="6"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
@@ -8248,7 +8332,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="7"/>
-      <c r="B424" s="20"/>
+      <c r="B424" s="7"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -8268,7 +8352,7 @@
     </row>
     <row r="426" spans="1:8">
       <c r="A426" s="7"/>
-      <c r="B426" s="7"/>
+      <c r="B426" s="20"/>
       <c r="C426" s="7"/>
       <c r="D426" s="7"/>
       <c r="E426" s="7"/>
@@ -8278,7 +8362,7 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" s="7"/>
-      <c r="B427" s="6"/>
+      <c r="B427" s="7"/>
       <c r="C427" s="7"/>
       <c r="D427" s="7"/>
       <c r="E427" s="7"/>
@@ -8288,7 +8372,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="7"/>
-      <c r="B428" s="7"/>
+      <c r="B428" s="6"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -8338,7 +8422,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="6"/>
+      <c r="B433" s="7"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -8348,7 +8432,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="7"/>
-      <c r="B434" s="7"/>
+      <c r="B434" s="6"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -8408,7 +8492,7 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" s="7"/>
-      <c r="B440" s="6"/>
+      <c r="B440" s="7"/>
       <c r="C440" s="7"/>
       <c r="D440" s="7"/>
       <c r="E440" s="7"/>
@@ -8418,7 +8502,7 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" s="7"/>
-      <c r="B441" s="7"/>
+      <c r="B441" s="6"/>
       <c r="C441" s="7"/>
       <c r="D441" s="7"/>
       <c r="E441" s="7"/>
@@ -8438,7 +8522,7 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" s="7"/>
-      <c r="B443" s="6"/>
+      <c r="B443" s="7"/>
       <c r="C443" s="7"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
@@ -8448,7 +8532,7 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="7"/>
-      <c r="B444" s="4"/>
+      <c r="B444" s="6"/>
       <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
@@ -8468,7 +8552,7 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" s="7"/>
-      <c r="B446" s="7"/>
+      <c r="B446" s="4"/>
       <c r="C446" s="7"/>
       <c r="D446" s="7"/>
       <c r="E446" s="7"/>
@@ -8498,7 +8582,7 @@
     </row>
     <row r="449" spans="1:8">
       <c r="A449" s="7"/>
-      <c r="B449" s="6"/>
+      <c r="B449" s="7"/>
       <c r="C449" s="7"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
@@ -8508,8 +8592,8 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
-      <c r="B450" s="7"/>
-      <c r="C450" s="4"/>
+      <c r="B450" s="6"/>
+      <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
       <c r="F450" s="7"/>
@@ -8559,7 +8643,7 @@
     <row r="455" spans="1:8">
       <c r="A455" s="7"/>
       <c r="B455" s="7"/>
-      <c r="C455" s="7"/>
+      <c r="C455" s="4"/>
       <c r="D455" s="7"/>
       <c r="E455" s="7"/>
       <c r="F455" s="7"/>
@@ -8568,7 +8652,7 @@
     </row>
     <row r="456" spans="1:8">
       <c r="A456" s="7"/>
-      <c r="B456" s="6"/>
+      <c r="B456" s="7"/>
       <c r="C456" s="7"/>
       <c r="D456" s="7"/>
       <c r="E456" s="7"/>
@@ -8578,8 +8662,8 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="7"/>
-      <c r="B457" s="7"/>
-      <c r="C457" s="4"/>
+      <c r="B457" s="6"/>
+      <c r="C457" s="7"/>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
       <c r="F457" s="7"/>
@@ -8619,7 +8703,7 @@
     <row r="461" spans="1:8">
       <c r="A461" s="7"/>
       <c r="B461" s="7"/>
-      <c r="C461" s="7"/>
+      <c r="C461" s="4"/>
       <c r="D461" s="7"/>
       <c r="E461" s="7"/>
       <c r="F461" s="7"/>
@@ -8628,7 +8712,7 @@
     </row>
     <row r="462" spans="1:8">
       <c r="A462" s="7"/>
-      <c r="B462" s="6"/>
+      <c r="B462" s="7"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
       <c r="E462" s="7"/>
@@ -8638,7 +8722,7 @@
     </row>
     <row r="463" spans="1:8">
       <c r="A463" s="7"/>
-      <c r="B463" s="22"/>
+      <c r="B463" s="6"/>
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
       <c r="E463" s="7"/>
@@ -8698,7 +8782,7 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" s="7"/>
-      <c r="B469" s="7"/>
+      <c r="B469" s="22"/>
       <c r="C469" s="7"/>
       <c r="D469" s="7"/>
       <c r="E469" s="7"/>
@@ -8708,7 +8792,7 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="7"/>
-      <c r="B470" s="6"/>
+      <c r="B470" s="7"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
       <c r="E470" s="7"/>
@@ -8718,7 +8802,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="7"/>
-      <c r="B471" s="22"/>
+      <c r="B471" s="6"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
@@ -8747,8 +8831,8 @@
       <c r="H473" s="7"/>
     </row>
     <row r="474" spans="1:8">
-      <c r="A474" s="6"/>
-      <c r="B474" s="7"/>
+      <c r="A474" s="7"/>
+      <c r="B474" s="22"/>
       <c r="C474" s="7"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
@@ -8757,7 +8841,7 @@
       <c r="H474" s="7"/>
     </row>
     <row r="475" spans="1:8">
-      <c r="A475" s="7"/>
+      <c r="A475" s="6"/>
       <c r="B475" s="7"/>
       <c r="C475" s="7"/>
       <c r="D475" s="7"/>
@@ -8798,7 +8882,7 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" s="7"/>
-      <c r="B479" s="28"/>
+      <c r="B479" s="7"/>
       <c r="C479" s="7"/>
       <c r="D479" s="7"/>
       <c r="E479" s="7"/>
@@ -8828,7 +8912,7 @@
     </row>
     <row r="482" spans="1:8">
       <c r="A482" s="7"/>
-      <c r="B482" s="7"/>
+      <c r="B482" s="28"/>
       <c r="C482" s="7"/>
       <c r="D482" s="7"/>
       <c r="E482" s="7"/>
@@ -8838,7 +8922,7 @@
     </row>
     <row r="483" spans="1:8">
       <c r="A483" s="7"/>
-      <c r="B483" s="28"/>
+      <c r="B483" s="7"/>
       <c r="C483" s="7"/>
       <c r="D483" s="7"/>
       <c r="E483" s="7"/>
@@ -8848,7 +8932,7 @@
     </row>
     <row r="484" spans="1:8">
       <c r="A484" s="7"/>
-      <c r="B484" s="7"/>
+      <c r="B484" s="28"/>
       <c r="C484" s="7"/>
       <c r="D484" s="7"/>
       <c r="E484" s="7"/>
@@ -8858,21 +8942,21 @@
     </row>
     <row r="485" spans="1:8">
       <c r="A485" s="7"/>
-      <c r="B485" s="29"/>
-      <c r="C485" s="30"/>
+      <c r="B485" s="7"/>
+      <c r="C485" s="7"/>
       <c r="D485" s="7"/>
       <c r="E485" s="7"/>
-      <c r="F485" s="29"/>
+      <c r="F485" s="7"/>
       <c r="G485" s="30"/>
       <c r="H485" s="7"/>
     </row>
     <row r="486" spans="1:8">
       <c r="A486" s="7"/>
-      <c r="B486" s="7"/>
-      <c r="C486" s="7"/>
+      <c r="B486" s="29"/>
+      <c r="C486" s="30"/>
       <c r="D486" s="7"/>
       <c r="E486" s="7"/>
-      <c r="F486" s="7"/>
+      <c r="F486" s="29"/>
       <c r="G486" s="30"/>
       <c r="H486" s="7"/>
     </row>
@@ -12776,13 +12860,23 @@
       <c r="G876" s="30"/>
       <c r="H876" s="7"/>
     </row>
+    <row r="877" spans="1:8">
+      <c r="A877" s="7"/>
+      <c r="B877" s="7"/>
+      <c r="C877" s="7"/>
+      <c r="D877" s="7"/>
+      <c r="E877" s="7"/>
+      <c r="F877" s="7"/>
+      <c r="G877" s="30"/>
+      <c r="H877" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="69" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="G62 G52:G53 G57:G58" formulaRange="1"/>
+    <ignoredError sqref="G52:G53 G57:G58" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/JsonPretty Feature Matrix.xlsx
+++ b/JsonPretty Feature Matrix.xlsx
@@ -678,7 +678,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955258"/>
+          <c:w val="0.9197807133095528"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -761,7 +761,7 @@
                   <c:v>42900</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42903</c:v>
+                  <c:v>42904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -901,7 +901,7 @@
                   <c:v>42900</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42903</c:v>
+                  <c:v>42904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1041,7 +1041,7 @@
                   <c:v>42900</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42903</c:v>
+                  <c:v>42904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1183,7 +1183,7 @@
                   <c:v>2017-06-14</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2017-06-17</c:v>
+                  <c:v>2017-06-18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1240,17 +1240,17 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="127307136"/>
-        <c:axId val="127075456"/>
+        <c:axId val="143953280"/>
+        <c:axId val="124650624"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="127307136"/>
+        <c:axId val="143953280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,7 +1283,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127075456"/>
+        <c:crossAx val="124650624"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1291,7 +1291,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="127075456"/>
+        <c:axId val="124650624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1333,7 +1333,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127307136"/>
+        <c:crossAx val="143953280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1356,7 +1356,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.3735105630880095E-2"/>
-          <c:y val="0.24095083738519729"/>
+          <c:y val="0.24095083738519732"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1423,7 +1423,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001421" r="0.75000000000001421" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001432" r="0.75000000000001432" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1477,7 +1477,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.451045024812763E-2"/>
+          <c:x val="4.4510450248127643E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1562,7 +1562,7 @@
                   <c:v>42900</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42903</c:v>
+                  <c:v>42904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1619,17 +1619,17 @@
                   <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>0.45833333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="127107456"/>
-        <c:axId val="127108992"/>
+        <c:axId val="124686720"/>
+        <c:axId val="124688256"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="127107456"/>
+        <c:axId val="124686720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1637,13 +1637,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="127108992"/>
+        <c:crossAx val="124688256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="127108992"/>
+        <c:axId val="124688256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1686,7 +1686,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127107456"/>
+        <c:crossAx val="124686720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1735,7 +1735,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001421" r="0.75000000000001421" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001432" r="0.75000000000001432" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1836,7 +1836,7 @@
                   <c:v>42900</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42903</c:v>
+                  <c:v>42904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1976,7 +1976,7 @@
                   <c:v>42900</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42903</c:v>
+                  <c:v>42904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2039,11 +2039,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="146016512"/>
-        <c:axId val="146018304"/>
+        <c:axId val="124713216"/>
+        <c:axId val="144244736"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="146016512"/>
+        <c:axId val="124713216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2076,14 +2076,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146018304"/>
+        <c:crossAx val="144244736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:minorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="146018304"/>
+        <c:axId val="144244736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,7 +2125,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146016512"/>
+        <c:crossAx val="124713216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2174,7 +2174,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001421" r="0.75000000000001421" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001432" r="0.75000000000001432" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3813,7 +3813,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O6" sqref="O6"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="48">
-        <v>42903</v>
+        <v>42904</v>
       </c>
       <c r="B63" s="4">
         <v>44</v>
@@ -4436,14 +4436,14 @@
         <v>0</v>
       </c>
       <c r="E63" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F63" s="28" t="s">
         <v>122</v>
       </c>
       <c r="G63" s="30">
         <f t="shared" ref="G63" si="3">B63/SUM(B63:E63)</f>
-        <v>0.44444444444444442</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="H63" s="7"/>
     </row>
@@ -4488,7 +4488,7 @@
       </c>
       <c r="G66" s="38">
         <f>MIN(G63)</f>
-        <v>0.44444444444444442</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="H66" s="7"/>
     </row>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="30"/>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="B71" s="51">
         <f>A48+(A63-A48)*A67/B67</f>
-        <v>43017.75</v>
+        <v>43019.909090909088</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="7"/>

--- a/JsonPretty Feature Matrix.xlsx
+++ b/JsonPretty Feature Matrix.xlsx
@@ -678,7 +678,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.9197807133095528"/>
+          <c:w val="0.91978071330955291"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1246,11 +1246,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="143953280"/>
-        <c:axId val="124650624"/>
+        <c:axId val="130649472"/>
+        <c:axId val="130417792"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="143953280"/>
+        <c:axId val="130649472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,7 +1283,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124650624"/>
+        <c:crossAx val="130417792"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1291,7 +1291,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="124650624"/>
+        <c:axId val="130417792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1333,7 +1333,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143953280"/>
+        <c:crossAx val="130649472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1356,7 +1356,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.3735105630880095E-2"/>
-          <c:y val="0.24095083738519732"/>
+          <c:y val="0.24095083738519738"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1423,7 +1423,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001432" r="0.75000000000001432" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001443" r="0.75000000000001443" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1477,7 +1477,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127643E-2"/>
+          <c:x val="4.4510450248127664E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1625,11 +1625,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="124686720"/>
-        <c:axId val="124688256"/>
+        <c:axId val="130453888"/>
+        <c:axId val="130455424"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="124686720"/>
+        <c:axId val="130453888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1637,13 +1637,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="124688256"/>
+        <c:crossAx val="130455424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="124688256"/>
+        <c:axId val="130455424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1686,7 +1686,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124686720"/>
+        <c:crossAx val="130453888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1735,7 +1735,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001432" r="0.75000000000001432" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001443" r="0.75000000000001443" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2039,11 +2039,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="124713216"/>
-        <c:axId val="144244736"/>
+        <c:axId val="130480384"/>
+        <c:axId val="148574208"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="124713216"/>
+        <c:axId val="130480384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2076,14 +2076,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144244736"/>
+        <c:crossAx val="148574208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:minorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="144244736"/>
+        <c:axId val="148574208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,7 +2125,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124713216"/>
+        <c:crossAx val="130480384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2174,7 +2174,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001432" r="0.75000000000001432" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001443" r="0.75000000000001443" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3813,7 +3813,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O6" sqref="O6"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>

--- a/JsonPretty Feature Matrix.xlsx
+++ b/JsonPretty Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="125">
   <si>
     <t>Feature</t>
   </si>
@@ -678,7 +678,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955291"/>
+          <c:w val="0.91978071330955302"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -711,10 +711,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$63</c:f>
+              <c:f>Progress!$A$48:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -762,16 +762,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>42904</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$63</c:f>
+              <c:f>Progress!$B$48:$B$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -818,6 +821,9 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
@@ -851,10 +857,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$63</c:f>
+              <c:f>Progress!$A$48:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -902,16 +908,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>42904</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$63</c:f>
+              <c:f>Progress!$C$48:$C$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -958,6 +967,9 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
@@ -991,10 +1003,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$63</c:f>
+              <c:f>Progress!$A$48:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -1042,16 +1054,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>42904</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$63</c:f>
+              <c:f>Progress!$D$48:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1098,6 +1113,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1131,9 +1149,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$47:$A$63</c:f>
+              <c:f>Progress!$A$47:$A$64</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Date</c:v>
                 </c:pt>
@@ -1184,16 +1202,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2017-06-18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017-08-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$63</c:f>
+              <c:f>Progress!$E$48:$E$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1241,16 +1262,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="130649472"/>
-        <c:axId val="130417792"/>
+        <c:axId val="125541760"/>
+        <c:axId val="125305984"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="130649472"/>
+        <c:axId val="125541760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,7 +1307,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130417792"/>
+        <c:crossAx val="125305984"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1291,7 +1315,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="130417792"/>
+        <c:axId val="125305984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1333,7 +1357,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130649472"/>
+        <c:crossAx val="125541760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1356,7 +1380,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.3735105630880095E-2"/>
-          <c:y val="0.24095083738519738"/>
+          <c:y val="0.24095083738519743"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1423,7 +1447,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001443" r="0.75000000000001443" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001454" r="0.75000000000001454" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1477,7 +1501,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127664E-2"/>
+          <c:x val="4.4510450248127678E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1512,10 +1536,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$63</c:f>
+              <c:f>Progress!$A$48:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -1563,16 +1587,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>42904</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$63</c:f>
+              <c:f>Progress!$G$48:$G$64</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1620,16 +1647,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.45360824742268041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="130453888"/>
-        <c:axId val="130455424"/>
+        <c:axId val="125329792"/>
+        <c:axId val="125331328"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="130453888"/>
+        <c:axId val="125329792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1637,13 +1667,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="130455424"/>
+        <c:crossAx val="125331328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="130455424"/>
+        <c:axId val="125331328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1686,7 +1716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130453888"/>
+        <c:crossAx val="125329792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1735,7 +1765,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001443" r="0.75000000000001443" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001454" r="0.75000000000001454" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1786,10 +1816,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$63</c:f>
+              <c:f>Progress!$A$48:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -1837,16 +1867,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>42904</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$63</c:f>
+              <c:f>Progress!$C$48:$C$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1893,6 +1926,9 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
@@ -1926,10 +1962,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$63</c:f>
+              <c:f>Progress!$A$48:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
                 </c:pt>
@@ -1977,16 +2013,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>42904</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$63</c:f>
+              <c:f>Progress!$D$48:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2033,17 +2072,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="130480384"/>
-        <c:axId val="148574208"/>
+        <c:axId val="125356288"/>
+        <c:axId val="125362176"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="130480384"/>
+        <c:axId val="125356288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2076,14 +2118,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148574208"/>
+        <c:crossAx val="125362176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:minorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="148574208"/>
+        <c:axId val="125362176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,7 +2167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130480384"/>
+        <c:crossAx val="125356288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2174,7 +2216,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001443" r="0.75000000000001443" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001454" r="0.75000000000001454" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2224,7 +2266,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3808,12 +3850,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT877"/>
+  <dimension ref="A1:IT878"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O6" sqref="O6"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -4142,7 +4184,7 @@
         <v>81</v>
       </c>
       <c r="G51" s="30">
-        <f t="shared" ref="G51:G62" si="2">B51/SUM(B51:E51)</f>
+        <f t="shared" ref="G51:G63" si="2">B51/SUM(B51:E51)</f>
         <v>0.37313432835820898</v>
       </c>
       <c r="H51" s="7"/>
@@ -4442,19 +4484,34 @@
         <v>122</v>
       </c>
       <c r="G63" s="30">
-        <f t="shared" ref="G63" si="3">B63/SUM(B63:E63)</f>
+        <f t="shared" si="2"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="49"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="30"/>
+      <c r="A64" s="48">
+        <v>42949</v>
+      </c>
+      <c r="B64" s="4">
+        <v>44</v>
+      </c>
+      <c r="C64" s="4">
+        <v>51</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>2</v>
+      </c>
+      <c r="F64" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G64" s="30">
+        <f t="shared" ref="G64" si="3">B64/SUM(B64:E64)</f>
+        <v>0.45360824742268041</v>
+      </c>
       <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:10">
@@ -4463,83 +4520,83 @@
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="31"/>
+      <c r="F65" s="28"/>
       <c r="G65" s="30"/>
       <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="49"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B67" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C67" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D67" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E67" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="14" t="s">
+      <c r="F67" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G66" s="38">
-        <f>MIN(G63)</f>
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="39">
-        <f>SUM(B67:D67)</f>
+      <c r="G67" s="38">
+        <f>MIN(G64)</f>
+        <v>0.45360824742268041</v>
+      </c>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="39">
+        <f>SUM(B68:D68)</f>
         <v>95</v>
       </c>
-      <c r="B67" s="15">
+      <c r="B68" s="15">
         <f>Features!C137</f>
         <v>44</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C68" s="16">
         <f>Features!C138</f>
         <v>51</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D68" s="17">
         <f>Features!C139</f>
         <v>0</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E68" s="18">
         <v>1</v>
       </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="4"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="30"/>
       <c r="H68" s="7"/>
-      <c r="J68" s="36"/>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="30"/>
       <c r="H69" s="7"/>
+      <c r="J69" s="36"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="4"/>
-      <c r="B70" s="19"/>
+      <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -4548,13 +4605,8 @@
       <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71" s="51">
-        <f>A48+(A63-A48)*A67/B67</f>
-        <v>43019.909090909088</v>
-      </c>
+      <c r="A71" s="4"/>
+      <c r="B71" s="19"/>
       <c r="C71" s="4"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -4563,8 +4615,13 @@
       <c r="H71" s="7"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
+      <c r="A72" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" s="51">
+        <f>A48+(A64-A48)*A68/B68</f>
+        <v>43117.068181818184</v>
+      </c>
       <c r="C72" s="4"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -4574,7 +4631,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="4"/>
-      <c r="B73" s="19"/>
+      <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -4594,7 +4651,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
+      <c r="B75" s="19"/>
       <c r="C75" s="4"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -4614,7 +4671,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="4"/>
-      <c r="B77" s="7"/>
+      <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -4624,7 +4681,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="4"/>
-      <c r="B78" s="20"/>
+      <c r="B78" s="7"/>
       <c r="C78" s="4"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -4643,7 +4700,7 @@
       <c r="H79" s="7"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="7"/>
+      <c r="A80" s="4"/>
       <c r="B80" s="20"/>
       <c r="C80" s="4"/>
       <c r="D80" s="7"/>
@@ -4654,7 +4711,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="4"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -4785,7 +4842,7 @@
     <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
+      <c r="C94" s="4"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -4794,7 +4851,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="7"/>
-      <c r="B95" s="6"/>
+      <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -4802,15 +4859,15 @@
       <c r="G95" s="30"/>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" spans="1:8" s="2" customFormat="1">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="4"/>
+    <row r="96" spans="1:8">
+      <c r="A96" s="7"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="7"/>
     </row>
     <row r="97" spans="1:8" s="2" customFormat="1">
       <c r="A97" s="4"/>
@@ -4984,7 +5041,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="6"/>
+      <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -4994,7 +5051,7 @@
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1">
       <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
+      <c r="B115" s="6"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -5024,7 +5081,7 @@
     </row>
     <row r="118" spans="1:8" s="2" customFormat="1">
       <c r="A118" s="4"/>
-      <c r="B118" s="19"/>
+      <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -5064,7 +5121,7 @@
     </row>
     <row r="122" spans="1:8" s="2" customFormat="1">
       <c r="A122" s="4"/>
-      <c r="B122" s="21"/>
+      <c r="B122" s="19"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -5074,7 +5131,7 @@
     </row>
     <row r="123" spans="1:8" s="2" customFormat="1">
       <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -5084,7 +5141,7 @@
     </row>
     <row r="124" spans="1:8" s="2" customFormat="1">
       <c r="A124" s="4"/>
-      <c r="B124" s="6"/>
+      <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -5094,7 +5151,7 @@
     </row>
     <row r="125" spans="1:8" s="2" customFormat="1">
       <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
+      <c r="B125" s="6"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -5104,7 +5161,7 @@
     </row>
     <row r="126" spans="1:8" s="2" customFormat="1">
       <c r="A126" s="4"/>
-      <c r="B126" s="19"/>
+      <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -5124,7 +5181,7 @@
     </row>
     <row r="128" spans="1:8" s="2" customFormat="1">
       <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
+      <c r="B128" s="19"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -5184,7 +5241,7 @@
     </row>
     <row r="134" spans="1:8" s="2" customFormat="1">
       <c r="A134" s="4"/>
-      <c r="B134" s="19"/>
+      <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -5284,7 +5341,7 @@
     </row>
     <row r="144" spans="1:8" s="2" customFormat="1">
       <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
+      <c r="B144" s="19"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -5334,7 +5391,7 @@
     </row>
     <row r="149" spans="1:254" s="2" customFormat="1">
       <c r="A149" s="4"/>
-      <c r="B149" s="19"/>
+      <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -5354,7 +5411,7 @@
     </row>
     <row r="151" spans="1:254" s="2" customFormat="1">
       <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
+      <c r="B151" s="19"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -5393,284 +5450,284 @@
       <c r="H154" s="4"/>
     </row>
     <row r="155" spans="1:254" s="2" customFormat="1">
-      <c r="A155" s="21"/>
-      <c r="B155" s="21"/>
-      <c r="C155" s="21"/>
-      <c r="D155" s="21"/>
-      <c r="E155" s="21"/>
-      <c r="F155" s="21"/>
-      <c r="G155" s="35"/>
-      <c r="H155" s="21"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5"/>
-      <c r="K155" s="5"/>
-      <c r="L155" s="5"/>
-      <c r="M155" s="5"/>
-      <c r="N155" s="5"/>
-      <c r="O155" s="5"/>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="5"/>
-      <c r="S155" s="5"/>
-      <c r="T155" s="5"/>
-      <c r="U155" s="5"/>
-      <c r="V155" s="5"/>
-      <c r="W155" s="5"/>
-      <c r="X155" s="5"/>
-      <c r="Y155" s="5"/>
-      <c r="Z155" s="5"/>
-      <c r="AA155" s="5"/>
-      <c r="AB155" s="5"/>
-      <c r="AC155" s="5"/>
-      <c r="AD155" s="5"/>
-      <c r="AE155" s="5"/>
-      <c r="AF155" s="5"/>
-      <c r="AG155" s="5"/>
-      <c r="AH155" s="5"/>
-      <c r="AI155" s="5"/>
-      <c r="AJ155" s="5"/>
-      <c r="AK155" s="5"/>
-      <c r="AL155" s="5"/>
-      <c r="AM155" s="5"/>
-      <c r="AN155" s="5"/>
-      <c r="AO155" s="5"/>
-      <c r="AP155" s="5"/>
-      <c r="AQ155" s="5"/>
-      <c r="AR155" s="5"/>
-      <c r="AS155" s="5"/>
-      <c r="AT155" s="5"/>
-      <c r="AU155" s="5"/>
-      <c r="AV155" s="5"/>
-      <c r="AW155" s="5"/>
-      <c r="AX155" s="5"/>
-      <c r="AY155" s="5"/>
-      <c r="AZ155" s="5"/>
-      <c r="BA155" s="5"/>
-      <c r="BB155" s="5"/>
-      <c r="BC155" s="5"/>
-      <c r="BD155" s="5"/>
-      <c r="BE155" s="5"/>
-      <c r="BF155" s="5"/>
-      <c r="BG155" s="5"/>
-      <c r="BH155" s="5"/>
-      <c r="BI155" s="5"/>
-      <c r="BJ155" s="5"/>
-      <c r="BK155" s="5"/>
-      <c r="BL155" s="5"/>
-      <c r="BM155" s="5"/>
-      <c r="BN155" s="5"/>
-      <c r="BO155" s="5"/>
-      <c r="BP155" s="5"/>
-      <c r="BQ155" s="5"/>
-      <c r="BR155" s="5"/>
-      <c r="BS155" s="5"/>
-      <c r="BT155" s="5"/>
-      <c r="BU155" s="5"/>
-      <c r="BV155" s="5"/>
-      <c r="BW155" s="5"/>
-      <c r="BX155" s="5"/>
-      <c r="BY155" s="5"/>
-      <c r="BZ155" s="5"/>
-      <c r="CA155" s="5"/>
-      <c r="CB155" s="5"/>
-      <c r="CC155" s="5"/>
-      <c r="CD155" s="5"/>
-      <c r="CE155" s="5"/>
-      <c r="CF155" s="5"/>
-      <c r="CG155" s="5"/>
-      <c r="CH155" s="5"/>
-      <c r="CI155" s="5"/>
-      <c r="CJ155" s="5"/>
-      <c r="CK155" s="5"/>
-      <c r="CL155" s="5"/>
-      <c r="CM155" s="5"/>
-      <c r="CN155" s="5"/>
-      <c r="CO155" s="5"/>
-      <c r="CP155" s="5"/>
-      <c r="CQ155" s="5"/>
-      <c r="CR155" s="5"/>
-      <c r="CS155" s="5"/>
-      <c r="CT155" s="5"/>
-      <c r="CU155" s="5"/>
-      <c r="CV155" s="5"/>
-      <c r="CW155" s="5"/>
-      <c r="CX155" s="5"/>
-      <c r="CY155" s="5"/>
-      <c r="CZ155" s="5"/>
-      <c r="DA155" s="5"/>
-      <c r="DB155" s="5"/>
-      <c r="DC155" s="5"/>
-      <c r="DD155" s="5"/>
-      <c r="DE155" s="5"/>
-      <c r="DF155" s="5"/>
-      <c r="DG155" s="5"/>
-      <c r="DH155" s="5"/>
-      <c r="DI155" s="5"/>
-      <c r="DJ155" s="5"/>
-      <c r="DK155" s="5"/>
-      <c r="DL155" s="5"/>
-      <c r="DM155" s="5"/>
-      <c r="DN155" s="5"/>
-      <c r="DO155" s="5"/>
-      <c r="DP155" s="5"/>
-      <c r="DQ155" s="5"/>
-      <c r="DR155" s="5"/>
-      <c r="DS155" s="5"/>
-      <c r="DT155" s="5"/>
-      <c r="DU155" s="5"/>
-      <c r="DV155" s="5"/>
-      <c r="DW155" s="5"/>
-      <c r="DX155" s="5"/>
-      <c r="DY155" s="5"/>
-      <c r="DZ155" s="5"/>
-      <c r="EA155" s="5"/>
-      <c r="EB155" s="5"/>
-      <c r="EC155" s="5"/>
-      <c r="ED155" s="5"/>
-      <c r="EE155" s="5"/>
-      <c r="EF155" s="5"/>
-      <c r="EG155" s="5"/>
-      <c r="EH155" s="5"/>
-      <c r="EI155" s="5"/>
-      <c r="EJ155" s="5"/>
-      <c r="EK155" s="5"/>
-      <c r="EL155" s="5"/>
-      <c r="EM155" s="5"/>
-      <c r="EN155" s="5"/>
-      <c r="EO155" s="5"/>
-      <c r="EP155" s="5"/>
-      <c r="EQ155" s="5"/>
-      <c r="ER155" s="5"/>
-      <c r="ES155" s="5"/>
-      <c r="ET155" s="5"/>
-      <c r="EU155" s="5"/>
-      <c r="EV155" s="5"/>
-      <c r="EW155" s="5"/>
-      <c r="EX155" s="5"/>
-      <c r="EY155" s="5"/>
-      <c r="EZ155" s="5"/>
-      <c r="FA155" s="5"/>
-      <c r="FB155" s="5"/>
-      <c r="FC155" s="5"/>
-      <c r="FD155" s="5"/>
-      <c r="FE155" s="5"/>
-      <c r="FF155" s="5"/>
-      <c r="FG155" s="5"/>
-      <c r="FH155" s="5"/>
-      <c r="FI155" s="5"/>
-      <c r="FJ155" s="5"/>
-      <c r="FK155" s="5"/>
-      <c r="FL155" s="5"/>
-      <c r="FM155" s="5"/>
-      <c r="FN155" s="5"/>
-      <c r="FO155" s="5"/>
-      <c r="FP155" s="5"/>
-      <c r="FQ155" s="5"/>
-      <c r="FR155" s="5"/>
-      <c r="FS155" s="5"/>
-      <c r="FT155" s="5"/>
-      <c r="FU155" s="5"/>
-      <c r="FV155" s="5"/>
-      <c r="FW155" s="5"/>
-      <c r="FX155" s="5"/>
-      <c r="FY155" s="5"/>
-      <c r="FZ155" s="5"/>
-      <c r="GA155" s="5"/>
-      <c r="GB155" s="5"/>
-      <c r="GC155" s="5"/>
-      <c r="GD155" s="5"/>
-      <c r="GE155" s="5"/>
-      <c r="GF155" s="5"/>
-      <c r="GG155" s="5"/>
-      <c r="GH155" s="5"/>
-      <c r="GI155" s="5"/>
-      <c r="GJ155" s="5"/>
-      <c r="GK155" s="5"/>
-      <c r="GL155" s="5"/>
-      <c r="GM155" s="5"/>
-      <c r="GN155" s="5"/>
-      <c r="GO155" s="5"/>
-      <c r="GP155" s="5"/>
-      <c r="GQ155" s="5"/>
-      <c r="GR155" s="5"/>
-      <c r="GS155" s="5"/>
-      <c r="GT155" s="5"/>
-      <c r="GU155" s="5"/>
-      <c r="GV155" s="5"/>
-      <c r="GW155" s="5"/>
-      <c r="GX155" s="5"/>
-      <c r="GY155" s="5"/>
-      <c r="GZ155" s="5"/>
-      <c r="HA155" s="5"/>
-      <c r="HB155" s="5"/>
-      <c r="HC155" s="5"/>
-      <c r="HD155" s="5"/>
-      <c r="HE155" s="5"/>
-      <c r="HF155" s="5"/>
-      <c r="HG155" s="5"/>
-      <c r="HH155" s="5"/>
-      <c r="HI155" s="5"/>
-      <c r="HJ155" s="5"/>
-      <c r="HK155" s="5"/>
-      <c r="HL155" s="5"/>
-      <c r="HM155" s="5"/>
-      <c r="HN155" s="5"/>
-      <c r="HO155" s="5"/>
-      <c r="HP155" s="5"/>
-      <c r="HQ155" s="5"/>
-      <c r="HR155" s="5"/>
-      <c r="HS155" s="5"/>
-      <c r="HT155" s="5"/>
-      <c r="HU155" s="5"/>
-      <c r="HV155" s="5"/>
-      <c r="HW155" s="5"/>
-      <c r="HX155" s="5"/>
-      <c r="HY155" s="5"/>
-      <c r="HZ155" s="5"/>
-      <c r="IA155" s="5"/>
-      <c r="IB155" s="5"/>
-      <c r="IC155" s="5"/>
-      <c r="ID155" s="5"/>
-      <c r="IE155" s="5"/>
-      <c r="IF155" s="5"/>
-      <c r="IG155" s="5"/>
-      <c r="IH155" s="5"/>
-      <c r="II155" s="5"/>
-      <c r="IJ155" s="5"/>
-      <c r="IK155" s="5"/>
-      <c r="IL155" s="5"/>
-      <c r="IM155" s="5"/>
-      <c r="IN155" s="5"/>
-      <c r="IO155" s="5"/>
-      <c r="IP155" s="5"/>
-      <c r="IQ155" s="5"/>
-      <c r="IR155" s="5"/>
-      <c r="IS155" s="5"/>
-      <c r="IT155" s="5"/>
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="34"/>
+      <c r="H155" s="4"/>
     </row>
     <row r="156" spans="1:254" s="2" customFormat="1">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="34"/>
-      <c r="H156" s="4"/>
-    </row>
-    <row r="157" spans="1:254">
-      <c r="A157" s="7"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="30"/>
-      <c r="H157" s="7"/>
+      <c r="A156" s="21"/>
+      <c r="B156" s="21"/>
+      <c r="C156" s="21"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="35"/>
+      <c r="H156" s="21"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="5"/>
+      <c r="M156" s="5"/>
+      <c r="N156" s="5"/>
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="5"/>
+      <c r="T156" s="5"/>
+      <c r="U156" s="5"/>
+      <c r="V156" s="5"/>
+      <c r="W156" s="5"/>
+      <c r="X156" s="5"/>
+      <c r="Y156" s="5"/>
+      <c r="Z156" s="5"/>
+      <c r="AA156" s="5"/>
+      <c r="AB156" s="5"/>
+      <c r="AC156" s="5"/>
+      <c r="AD156" s="5"/>
+      <c r="AE156" s="5"/>
+      <c r="AF156" s="5"/>
+      <c r="AG156" s="5"/>
+      <c r="AH156" s="5"/>
+      <c r="AI156" s="5"/>
+      <c r="AJ156" s="5"/>
+      <c r="AK156" s="5"/>
+      <c r="AL156" s="5"/>
+      <c r="AM156" s="5"/>
+      <c r="AN156" s="5"/>
+      <c r="AO156" s="5"/>
+      <c r="AP156" s="5"/>
+      <c r="AQ156" s="5"/>
+      <c r="AR156" s="5"/>
+      <c r="AS156" s="5"/>
+      <c r="AT156" s="5"/>
+      <c r="AU156" s="5"/>
+      <c r="AV156" s="5"/>
+      <c r="AW156" s="5"/>
+      <c r="AX156" s="5"/>
+      <c r="AY156" s="5"/>
+      <c r="AZ156" s="5"/>
+      <c r="BA156" s="5"/>
+      <c r="BB156" s="5"/>
+      <c r="BC156" s="5"/>
+      <c r="BD156" s="5"/>
+      <c r="BE156" s="5"/>
+      <c r="BF156" s="5"/>
+      <c r="BG156" s="5"/>
+      <c r="BH156" s="5"/>
+      <c r="BI156" s="5"/>
+      <c r="BJ156" s="5"/>
+      <c r="BK156" s="5"/>
+      <c r="BL156" s="5"/>
+      <c r="BM156" s="5"/>
+      <c r="BN156" s="5"/>
+      <c r="BO156" s="5"/>
+      <c r="BP156" s="5"/>
+      <c r="BQ156" s="5"/>
+      <c r="BR156" s="5"/>
+      <c r="BS156" s="5"/>
+      <c r="BT156" s="5"/>
+      <c r="BU156" s="5"/>
+      <c r="BV156" s="5"/>
+      <c r="BW156" s="5"/>
+      <c r="BX156" s="5"/>
+      <c r="BY156" s="5"/>
+      <c r="BZ156" s="5"/>
+      <c r="CA156" s="5"/>
+      <c r="CB156" s="5"/>
+      <c r="CC156" s="5"/>
+      <c r="CD156" s="5"/>
+      <c r="CE156" s="5"/>
+      <c r="CF156" s="5"/>
+      <c r="CG156" s="5"/>
+      <c r="CH156" s="5"/>
+      <c r="CI156" s="5"/>
+      <c r="CJ156" s="5"/>
+      <c r="CK156" s="5"/>
+      <c r="CL156" s="5"/>
+      <c r="CM156" s="5"/>
+      <c r="CN156" s="5"/>
+      <c r="CO156" s="5"/>
+      <c r="CP156" s="5"/>
+      <c r="CQ156" s="5"/>
+      <c r="CR156" s="5"/>
+      <c r="CS156" s="5"/>
+      <c r="CT156" s="5"/>
+      <c r="CU156" s="5"/>
+      <c r="CV156" s="5"/>
+      <c r="CW156" s="5"/>
+      <c r="CX156" s="5"/>
+      <c r="CY156" s="5"/>
+      <c r="CZ156" s="5"/>
+      <c r="DA156" s="5"/>
+      <c r="DB156" s="5"/>
+      <c r="DC156" s="5"/>
+      <c r="DD156" s="5"/>
+      <c r="DE156" s="5"/>
+      <c r="DF156" s="5"/>
+      <c r="DG156" s="5"/>
+      <c r="DH156" s="5"/>
+      <c r="DI156" s="5"/>
+      <c r="DJ156" s="5"/>
+      <c r="DK156" s="5"/>
+      <c r="DL156" s="5"/>
+      <c r="DM156" s="5"/>
+      <c r="DN156" s="5"/>
+      <c r="DO156" s="5"/>
+      <c r="DP156" s="5"/>
+      <c r="DQ156" s="5"/>
+      <c r="DR156" s="5"/>
+      <c r="DS156" s="5"/>
+      <c r="DT156" s="5"/>
+      <c r="DU156" s="5"/>
+      <c r="DV156" s="5"/>
+      <c r="DW156" s="5"/>
+      <c r="DX156" s="5"/>
+      <c r="DY156" s="5"/>
+      <c r="DZ156" s="5"/>
+      <c r="EA156" s="5"/>
+      <c r="EB156" s="5"/>
+      <c r="EC156" s="5"/>
+      <c r="ED156" s="5"/>
+      <c r="EE156" s="5"/>
+      <c r="EF156" s="5"/>
+      <c r="EG156" s="5"/>
+      <c r="EH156" s="5"/>
+      <c r="EI156" s="5"/>
+      <c r="EJ156" s="5"/>
+      <c r="EK156" s="5"/>
+      <c r="EL156" s="5"/>
+      <c r="EM156" s="5"/>
+      <c r="EN156" s="5"/>
+      <c r="EO156" s="5"/>
+      <c r="EP156" s="5"/>
+      <c r="EQ156" s="5"/>
+      <c r="ER156" s="5"/>
+      <c r="ES156" s="5"/>
+      <c r="ET156" s="5"/>
+      <c r="EU156" s="5"/>
+      <c r="EV156" s="5"/>
+      <c r="EW156" s="5"/>
+      <c r="EX156" s="5"/>
+      <c r="EY156" s="5"/>
+      <c r="EZ156" s="5"/>
+      <c r="FA156" s="5"/>
+      <c r="FB156" s="5"/>
+      <c r="FC156" s="5"/>
+      <c r="FD156" s="5"/>
+      <c r="FE156" s="5"/>
+      <c r="FF156" s="5"/>
+      <c r="FG156" s="5"/>
+      <c r="FH156" s="5"/>
+      <c r="FI156" s="5"/>
+      <c r="FJ156" s="5"/>
+      <c r="FK156" s="5"/>
+      <c r="FL156" s="5"/>
+      <c r="FM156" s="5"/>
+      <c r="FN156" s="5"/>
+      <c r="FO156" s="5"/>
+      <c r="FP156" s="5"/>
+      <c r="FQ156" s="5"/>
+      <c r="FR156" s="5"/>
+      <c r="FS156" s="5"/>
+      <c r="FT156" s="5"/>
+      <c r="FU156" s="5"/>
+      <c r="FV156" s="5"/>
+      <c r="FW156" s="5"/>
+      <c r="FX156" s="5"/>
+      <c r="FY156" s="5"/>
+      <c r="FZ156" s="5"/>
+      <c r="GA156" s="5"/>
+      <c r="GB156" s="5"/>
+      <c r="GC156" s="5"/>
+      <c r="GD156" s="5"/>
+      <c r="GE156" s="5"/>
+      <c r="GF156" s="5"/>
+      <c r="GG156" s="5"/>
+      <c r="GH156" s="5"/>
+      <c r="GI156" s="5"/>
+      <c r="GJ156" s="5"/>
+      <c r="GK156" s="5"/>
+      <c r="GL156" s="5"/>
+      <c r="GM156" s="5"/>
+      <c r="GN156" s="5"/>
+      <c r="GO156" s="5"/>
+      <c r="GP156" s="5"/>
+      <c r="GQ156" s="5"/>
+      <c r="GR156" s="5"/>
+      <c r="GS156" s="5"/>
+      <c r="GT156" s="5"/>
+      <c r="GU156" s="5"/>
+      <c r="GV156" s="5"/>
+      <c r="GW156" s="5"/>
+      <c r="GX156" s="5"/>
+      <c r="GY156" s="5"/>
+      <c r="GZ156" s="5"/>
+      <c r="HA156" s="5"/>
+      <c r="HB156" s="5"/>
+      <c r="HC156" s="5"/>
+      <c r="HD156" s="5"/>
+      <c r="HE156" s="5"/>
+      <c r="HF156" s="5"/>
+      <c r="HG156" s="5"/>
+      <c r="HH156" s="5"/>
+      <c r="HI156" s="5"/>
+      <c r="HJ156" s="5"/>
+      <c r="HK156" s="5"/>
+      <c r="HL156" s="5"/>
+      <c r="HM156" s="5"/>
+      <c r="HN156" s="5"/>
+      <c r="HO156" s="5"/>
+      <c r="HP156" s="5"/>
+      <c r="HQ156" s="5"/>
+      <c r="HR156" s="5"/>
+      <c r="HS156" s="5"/>
+      <c r="HT156" s="5"/>
+      <c r="HU156" s="5"/>
+      <c r="HV156" s="5"/>
+      <c r="HW156" s="5"/>
+      <c r="HX156" s="5"/>
+      <c r="HY156" s="5"/>
+      <c r="HZ156" s="5"/>
+      <c r="IA156" s="5"/>
+      <c r="IB156" s="5"/>
+      <c r="IC156" s="5"/>
+      <c r="ID156" s="5"/>
+      <c r="IE156" s="5"/>
+      <c r="IF156" s="5"/>
+      <c r="IG156" s="5"/>
+      <c r="IH156" s="5"/>
+      <c r="II156" s="5"/>
+      <c r="IJ156" s="5"/>
+      <c r="IK156" s="5"/>
+      <c r="IL156" s="5"/>
+      <c r="IM156" s="5"/>
+      <c r="IN156" s="5"/>
+      <c r="IO156" s="5"/>
+      <c r="IP156" s="5"/>
+      <c r="IQ156" s="5"/>
+      <c r="IR156" s="5"/>
+      <c r="IS156" s="5"/>
+      <c r="IT156" s="5"/>
+    </row>
+    <row r="157" spans="1:254" s="2" customFormat="1">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="34"/>
+      <c r="H157" s="4"/>
     </row>
     <row r="158" spans="1:254">
       <c r="A158" s="7"/>
-      <c r="B158" s="7"/>
+      <c r="B158" s="6"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -5680,7 +5737,7 @@
     </row>
     <row r="159" spans="1:254">
       <c r="A159" s="7"/>
-      <c r="B159" s="20"/>
+      <c r="B159" s="7"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -5690,7 +5747,7 @@
     </row>
     <row r="160" spans="1:254">
       <c r="A160" s="7"/>
-      <c r="B160" s="7"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -5701,7 +5758,7 @@
     <row r="161" spans="1:8">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
-      <c r="C161" s="4"/>
+      <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
@@ -5741,7 +5798,7 @@
     <row r="165" spans="1:8">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
-      <c r="C165" s="7"/>
+      <c r="C165" s="4"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
@@ -5750,7 +5807,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="7"/>
-      <c r="B166" s="22"/>
+      <c r="B166" s="7"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -5770,7 +5827,7 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
+      <c r="B168" s="22"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -5780,7 +5837,7 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="7"/>
-      <c r="B169" s="20"/>
+      <c r="B169" s="7"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -5800,7 +5857,7 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="7"/>
-      <c r="B171" s="7"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -5820,7 +5877,7 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="7"/>
-      <c r="B173" s="20"/>
+      <c r="B173" s="7"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -5839,10 +5896,8 @@
       <c r="H174" s="7"/>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="45">
-        <v>43011</v>
-      </c>
-      <c r="B175" s="7"/>
+      <c r="A175" s="7"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -5851,7 +5906,9 @@
       <c r="H175" s="7"/>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="7"/>
+      <c r="A176" s="45">
+        <v>43011</v>
+      </c>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
@@ -5862,7 +5919,7 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="7"/>
-      <c r="B177" s="20"/>
+      <c r="B177" s="7"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -5882,7 +5939,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="7"/>
-      <c r="B179" s="7"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -5922,7 +5979,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="7"/>
-      <c r="B183" s="6"/>
+      <c r="B183" s="7"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -5932,8 +5989,8 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="7"/>
-      <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
@@ -5942,7 +5999,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="7"/>
-      <c r="B185" s="19"/>
+      <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -6012,7 +6069,7 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="7"/>
-      <c r="B192" s="4"/>
+      <c r="B192" s="19"/>
       <c r="C192" s="4"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -6022,7 +6079,7 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="7"/>
-      <c r="B193" s="19"/>
+      <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
@@ -6032,7 +6089,7 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="7"/>
-      <c r="B194" s="21"/>
+      <c r="B194" s="19"/>
       <c r="C194" s="4"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
@@ -6052,7 +6109,7 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="7"/>
-      <c r="B196" s="19"/>
+      <c r="B196" s="21"/>
       <c r="C196" s="4"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -6093,7 +6150,7 @@
     <row r="200" spans="1:8">
       <c r="A200" s="7"/>
       <c r="B200" s="19"/>
-      <c r="C200" s="7"/>
+      <c r="C200" s="4"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
@@ -6102,7 +6159,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="7"/>
-      <c r="B201" s="4"/>
+      <c r="B201" s="19"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -6122,7 +6179,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="7"/>
-      <c r="B203" s="19"/>
+      <c r="B203" s="4"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -6182,7 +6239,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="7"/>
-      <c r="B209" s="21"/>
+      <c r="B209" s="19"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -6222,7 +6279,7 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="7"/>
-      <c r="B213" s="4"/>
+      <c r="B213" s="21"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -6232,7 +6289,7 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="7"/>
-      <c r="B214" s="6"/>
+      <c r="B214" s="4"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -6242,7 +6299,7 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="7"/>
-      <c r="B215" s="4"/>
+      <c r="B215" s="6"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
@@ -6252,7 +6309,7 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="7"/>
-      <c r="B216" s="19"/>
+      <c r="B216" s="4"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
@@ -6302,7 +6359,7 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="7"/>
-      <c r="B221" s="21"/>
+      <c r="B221" s="19"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -6312,7 +6369,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="7"/>
-      <c r="B222" s="19"/>
+      <c r="B222" s="21"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -6362,7 +6419,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="7"/>
-      <c r="B227" s="21"/>
+      <c r="B227" s="19"/>
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -6422,7 +6479,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="7"/>
-      <c r="B233" s="4"/>
+      <c r="B233" s="21"/>
       <c r="C233" s="7"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -6432,7 +6489,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="7"/>
-      <c r="B234" s="6"/>
+      <c r="B234" s="4"/>
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -6442,8 +6499,8 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="7"/>
-      <c r="B235" s="4"/>
-      <c r="C235" s="4"/>
+      <c r="B235" s="6"/>
+      <c r="C235" s="7"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
       <c r="F235" s="7"/>
@@ -6452,7 +6509,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="7"/>
-      <c r="B236" s="19"/>
+      <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -6462,7 +6519,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="7"/>
-      <c r="B237" s="7"/>
+      <c r="B237" s="19"/>
       <c r="C237" s="4"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -6472,7 +6529,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="7"/>
-      <c r="B238" s="20"/>
+      <c r="B238" s="7"/>
       <c r="C238" s="4"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -6512,7 +6569,7 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="7"/>
-      <c r="B242" s="7"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="4"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -6522,7 +6579,7 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="7"/>
-      <c r="B243" s="20"/>
+      <c r="B243" s="7"/>
       <c r="C243" s="4"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -6532,7 +6589,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="7"/>
-      <c r="B244" s="23"/>
+      <c r="B244" s="20"/>
       <c r="C244" s="4"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -6552,7 +6609,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="20"/>
+      <c r="B246" s="23"/>
       <c r="C246" s="4"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -6592,7 +6649,7 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="7"/>
-      <c r="B250" s="7"/>
+      <c r="B250" s="20"/>
       <c r="C250" s="4"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
@@ -6602,7 +6659,7 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="7"/>
-      <c r="B251" s="20"/>
+      <c r="B251" s="7"/>
       <c r="C251" s="4"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
@@ -6652,7 +6709,7 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="7"/>
-      <c r="B256" s="7"/>
+      <c r="B256" s="20"/>
       <c r="C256" s="4"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -6662,8 +6719,8 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="7"/>
-      <c r="B257" s="20"/>
-      <c r="C257" s="7"/>
+      <c r="B257" s="7"/>
+      <c r="C257" s="4"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
       <c r="F257" s="7"/>
@@ -6672,7 +6729,7 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="7"/>
-      <c r="B258" s="7"/>
+      <c r="B258" s="20"/>
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -6682,7 +6739,7 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="7"/>
-      <c r="B259" s="20"/>
+      <c r="B259" s="7"/>
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
@@ -6692,7 +6749,7 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="7"/>
-      <c r="B260" s="23"/>
+      <c r="B260" s="20"/>
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
@@ -6742,8 +6799,8 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="7"/>
-      <c r="B265" s="20"/>
-      <c r="C265" s="4"/>
+      <c r="B265" s="23"/>
+      <c r="C265" s="7"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
       <c r="F265" s="7"/>
@@ -6752,7 +6809,7 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="7"/>
-      <c r="B266" s="23"/>
+      <c r="B266" s="20"/>
       <c r="C266" s="4"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -6762,7 +6819,7 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="7"/>
-      <c r="B267" s="24"/>
+      <c r="B267" s="23"/>
       <c r="C267" s="4"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
@@ -6790,9 +6847,9 @@
       <c r="G269" s="30"/>
       <c r="H269" s="7"/>
     </row>
-    <row r="270" spans="1:8" ht="11.25">
+    <row r="270" spans="1:8">
       <c r="A270" s="7"/>
-      <c r="B270" s="25"/>
+      <c r="B270" s="24"/>
       <c r="C270" s="4"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -6800,9 +6857,9 @@
       <c r="G270" s="30"/>
       <c r="H270" s="7"/>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" ht="11.25">
       <c r="A271" s="7"/>
-      <c r="B271" s="23"/>
+      <c r="B271" s="25"/>
       <c r="C271" s="4"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -6842,7 +6899,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="7"/>
-      <c r="B275" s="24"/>
+      <c r="B275" s="23"/>
       <c r="C275" s="4"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -6872,7 +6929,7 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="7"/>
-      <c r="B278" s="23"/>
+      <c r="B278" s="24"/>
       <c r="C278" s="4"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -6882,7 +6939,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="7"/>
-      <c r="B279" s="24"/>
+      <c r="B279" s="23"/>
       <c r="C279" s="4"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -6890,15 +6947,15 @@
       <c r="G279" s="30"/>
       <c r="H279" s="7"/>
     </row>
-    <row r="280" spans="1:8" s="2" customFormat="1">
-      <c r="A280" s="4"/>
+    <row r="280" spans="1:8">
+      <c r="A280" s="7"/>
       <c r="B280" s="24"/>
       <c r="C280" s="4"/>
-      <c r="D280" s="4"/>
-      <c r="E280" s="4"/>
-      <c r="F280" s="4"/>
-      <c r="G280" s="34"/>
-      <c r="H280" s="4"/>
+      <c r="D280" s="7"/>
+      <c r="E280" s="7"/>
+      <c r="F280" s="7"/>
+      <c r="G280" s="30"/>
+      <c r="H280" s="7"/>
     </row>
     <row r="281" spans="1:8" s="2" customFormat="1">
       <c r="A281" s="4"/>
@@ -6910,19 +6967,19 @@
       <c r="G281" s="34"/>
       <c r="H281" s="4"/>
     </row>
-    <row r="282" spans="1:8">
-      <c r="A282" s="7"/>
+    <row r="282" spans="1:8" s="2" customFormat="1">
+      <c r="A282" s="4"/>
       <c r="B282" s="24"/>
       <c r="C282" s="4"/>
-      <c r="D282" s="7"/>
-      <c r="E282" s="7"/>
-      <c r="F282" s="7"/>
-      <c r="G282" s="30"/>
-      <c r="H282" s="7"/>
+      <c r="D282" s="4"/>
+      <c r="E282" s="4"/>
+      <c r="F282" s="4"/>
+      <c r="G282" s="34"/>
+      <c r="H282" s="4"/>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="23"/>
+      <c r="B283" s="24"/>
       <c r="C283" s="4"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -6932,7 +6989,7 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
-      <c r="B284" s="24"/>
+      <c r="B284" s="23"/>
       <c r="C284" s="4"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -6962,7 +7019,7 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="7"/>
-      <c r="B287" s="22"/>
+      <c r="B287" s="24"/>
       <c r="C287" s="4"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
@@ -6972,7 +7029,7 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="7"/>
-      <c r="B288" s="7"/>
+      <c r="B288" s="22"/>
       <c r="C288" s="4"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
@@ -6992,7 +7049,7 @@
     </row>
     <row r="290" spans="1:8">
       <c r="A290" s="7"/>
-      <c r="B290" s="20"/>
+      <c r="B290" s="7"/>
       <c r="C290" s="4"/>
       <c r="D290" s="7"/>
       <c r="E290" s="7"/>
@@ -7012,7 +7069,7 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="7"/>
-      <c r="B292" s="7"/>
+      <c r="B292" s="20"/>
       <c r="C292" s="4"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
@@ -7043,7 +7100,7 @@
     <row r="295" spans="1:8">
       <c r="A295" s="7"/>
       <c r="B295" s="7"/>
-      <c r="C295" s="7"/>
+      <c r="C295" s="4"/>
       <c r="D295" s="7"/>
       <c r="E295" s="7"/>
       <c r="F295" s="7"/>
@@ -7052,7 +7109,7 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="7"/>
-      <c r="B296" s="6"/>
+      <c r="B296" s="7"/>
       <c r="C296" s="7"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
@@ -7062,7 +7119,7 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="7"/>
-      <c r="B297" s="7"/>
+      <c r="B297" s="6"/>
       <c r="C297" s="7"/>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
@@ -7142,7 +7199,7 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="7"/>
-      <c r="B305" s="6"/>
+      <c r="B305" s="7"/>
       <c r="C305" s="7"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
@@ -7152,8 +7209,8 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="7"/>
-      <c r="B306" s="4"/>
-      <c r="C306" s="4"/>
+      <c r="B306" s="6"/>
+      <c r="C306" s="7"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
       <c r="F306" s="7"/>
@@ -7162,7 +7219,7 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="7"/>
-      <c r="B307" s="19"/>
+      <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
@@ -7192,7 +7249,7 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="7"/>
-      <c r="B310" s="4"/>
+      <c r="B310" s="19"/>
       <c r="C310" s="4"/>
       <c r="D310" s="7"/>
       <c r="E310" s="7"/>
@@ -7252,7 +7309,7 @@
     </row>
     <row r="316" spans="1:8">
       <c r="A316" s="7"/>
-      <c r="B316" s="19"/>
+      <c r="B316" s="4"/>
       <c r="C316" s="4"/>
       <c r="D316" s="7"/>
       <c r="E316" s="7"/>
@@ -7272,7 +7329,7 @@
     </row>
     <row r="318" spans="1:8">
       <c r="A318" s="7"/>
-      <c r="B318" s="21"/>
+      <c r="B318" s="19"/>
       <c r="C318" s="4"/>
       <c r="D318" s="7"/>
       <c r="E318" s="7"/>
@@ -7282,8 +7339,8 @@
     </row>
     <row r="319" spans="1:8">
       <c r="A319" s="7"/>
-      <c r="B319" s="7"/>
-      <c r="C319" s="7"/>
+      <c r="B319" s="21"/>
+      <c r="C319" s="4"/>
       <c r="D319" s="7"/>
       <c r="E319" s="7"/>
       <c r="F319" s="7"/>
@@ -7292,7 +7349,7 @@
     </row>
     <row r="320" spans="1:8">
       <c r="A320" s="7"/>
-      <c r="B320" s="6"/>
+      <c r="B320" s="7"/>
       <c r="C320" s="7"/>
       <c r="D320" s="7"/>
       <c r="E320" s="7"/>
@@ -7300,15 +7357,15 @@
       <c r="G320" s="30"/>
       <c r="H320" s="7"/>
     </row>
-    <row r="321" spans="1:8" s="2" customFormat="1">
-      <c r="A321" s="4"/>
-      <c r="B321" s="4"/>
-      <c r="C321" s="9"/>
-      <c r="D321" s="4"/>
-      <c r="E321" s="4"/>
-      <c r="F321" s="4"/>
-      <c r="G321" s="34"/>
-      <c r="H321" s="4"/>
+    <row r="321" spans="1:8">
+      <c r="A321" s="7"/>
+      <c r="B321" s="6"/>
+      <c r="C321" s="7"/>
+      <c r="D321" s="7"/>
+      <c r="E321" s="7"/>
+      <c r="F321" s="7"/>
+      <c r="G321" s="30"/>
+      <c r="H321" s="7"/>
     </row>
     <row r="322" spans="1:8" s="2" customFormat="1">
       <c r="A322" s="4"/>
@@ -7332,7 +7389,7 @@
     </row>
     <row r="324" spans="1:8" s="2" customFormat="1">
       <c r="A324" s="4"/>
-      <c r="B324" s="19"/>
+      <c r="B324" s="4"/>
       <c r="C324" s="9"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
@@ -7382,8 +7439,8 @@
     </row>
     <row r="329" spans="1:8" s="2" customFormat="1">
       <c r="A329" s="4"/>
-      <c r="B329" s="26"/>
-      <c r="C329" s="4"/>
+      <c r="B329" s="19"/>
+      <c r="C329" s="9"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
@@ -7432,7 +7489,7 @@
     </row>
     <row r="334" spans="1:8" s="2" customFormat="1">
       <c r="A334" s="4"/>
-      <c r="B334" s="21"/>
+      <c r="B334" s="26"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
@@ -7482,7 +7539,7 @@
     </row>
     <row r="339" spans="1:8" s="2" customFormat="1">
       <c r="A339" s="4"/>
-      <c r="B339" s="19"/>
+      <c r="B339" s="21"/>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
@@ -7492,7 +7549,7 @@
     </row>
     <row r="340" spans="1:8" s="2" customFormat="1">
       <c r="A340" s="4"/>
-      <c r="B340" s="21"/>
+      <c r="B340" s="19"/>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
@@ -7502,7 +7559,7 @@
     </row>
     <row r="341" spans="1:8" s="2" customFormat="1">
       <c r="A341" s="4"/>
-      <c r="B341" s="4"/>
+      <c r="B341" s="21"/>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
@@ -7510,20 +7567,20 @@
       <c r="G341" s="34"/>
       <c r="H341" s="4"/>
     </row>
-    <row r="342" spans="1:8">
-      <c r="A342" s="7"/>
-      <c r="B342" s="6"/>
-      <c r="C342" s="7"/>
-      <c r="D342" s="7"/>
-      <c r="E342" s="7"/>
-      <c r="F342" s="7"/>
-      <c r="G342" s="30"/>
-      <c r="H342" s="7"/>
+    <row r="342" spans="1:8" s="2" customFormat="1">
+      <c r="A342" s="4"/>
+      <c r="B342" s="4"/>
+      <c r="C342" s="4"/>
+      <c r="D342" s="4"/>
+      <c r="E342" s="4"/>
+      <c r="F342" s="4"/>
+      <c r="G342" s="34"/>
+      <c r="H342" s="4"/>
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="7"/>
-      <c r="B343" s="7"/>
-      <c r="C343" s="4"/>
+      <c r="B343" s="6"/>
+      <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
@@ -7592,7 +7649,7 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="7"/>
-      <c r="B350" s="4"/>
+      <c r="B350" s="7"/>
       <c r="C350" s="4"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
@@ -7603,7 +7660,7 @@
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
       <c r="B351" s="4"/>
-      <c r="C351" s="7"/>
+      <c r="C351" s="4"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
       <c r="F351" s="7"/>
@@ -7612,7 +7669,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="7"/>
-      <c r="B352" s="6"/>
+      <c r="B352" s="4"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
@@ -7622,7 +7679,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="7"/>
-      <c r="B353" s="7"/>
+      <c r="B353" s="6"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
@@ -7632,7 +7689,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="22"/>
+      <c r="B354" s="7"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -7642,7 +7699,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="7"/>
+      <c r="B355" s="22"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -7682,7 +7739,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="6"/>
+      <c r="B359" s="7"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -7692,7 +7749,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="7"/>
+      <c r="B360" s="6"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -7702,7 +7759,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="20"/>
+      <c r="B361" s="7"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -7732,7 +7789,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="22"/>
+      <c r="B364" s="20"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -7742,7 +7799,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="20"/>
+      <c r="B365" s="22"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
@@ -7762,7 +7819,7 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="7"/>
-      <c r="B367" s="22"/>
+      <c r="B367" s="20"/>
       <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
@@ -7772,7 +7829,7 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="7"/>
-      <c r="B368" s="20"/>
+      <c r="B368" s="22"/>
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
@@ -7782,7 +7839,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="22"/>
+      <c r="B369" s="20"/>
       <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -7792,7 +7849,7 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="7"/>
-      <c r="B370" s="20"/>
+      <c r="B370" s="22"/>
       <c r="C370" s="7"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
@@ -7822,7 +7879,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="7"/>
+      <c r="B373" s="20"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -7832,7 +7889,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="27"/>
+      <c r="B374" s="7"/>
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -7842,7 +7899,7 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="7"/>
-      <c r="B375" s="22"/>
+      <c r="B375" s="27"/>
       <c r="C375" s="7"/>
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
@@ -7852,8 +7909,8 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" s="7"/>
-      <c r="B376" s="7"/>
-      <c r="C376" s="4"/>
+      <c r="B376" s="22"/>
+      <c r="C376" s="7"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
       <c r="F376" s="7"/>
@@ -7862,7 +7919,7 @@
     </row>
     <row r="377" spans="1:8">
       <c r="A377" s="7"/>
-      <c r="B377" s="20"/>
+      <c r="B377" s="7"/>
       <c r="C377" s="4"/>
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
@@ -7892,7 +7949,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="7"/>
-      <c r="B380" s="7"/>
+      <c r="B380" s="20"/>
       <c r="C380" s="4"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
@@ -7922,7 +7979,7 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
-      <c r="B383" s="20"/>
+      <c r="B383" s="7"/>
       <c r="C383" s="4"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
@@ -7942,8 +7999,8 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
-      <c r="B385" s="7"/>
-      <c r="C385" s="7"/>
+      <c r="B385" s="20"/>
+      <c r="C385" s="4"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
@@ -7952,7 +8009,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
-      <c r="B386" s="6"/>
+      <c r="B386" s="7"/>
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
@@ -7962,7 +8019,7 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
-      <c r="B387" s="7"/>
+      <c r="B387" s="6"/>
       <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
@@ -8022,7 +8079,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="6"/>
+      <c r="B393" s="7"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -8032,7 +8089,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="7"/>
+      <c r="B394" s="6"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -8053,7 +8110,7 @@
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
       <c r="B396" s="7"/>
-      <c r="C396" s="4"/>
+      <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
       <c r="F396" s="7"/>
@@ -8062,7 +8119,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
-      <c r="B397" s="20"/>
+      <c r="B397" s="7"/>
       <c r="C397" s="4"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -8073,7 +8130,7 @@
     <row r="398" spans="1:8">
       <c r="A398" s="7"/>
       <c r="B398" s="20"/>
-      <c r="C398" s="7"/>
+      <c r="C398" s="4"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
       <c r="F398" s="7"/>
@@ -8082,7 +8139,7 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="7"/>
-      <c r="B399" s="27"/>
+      <c r="B399" s="20"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
@@ -8092,7 +8149,7 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="7"/>
-      <c r="B400" s="22"/>
+      <c r="B400" s="27"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
@@ -8142,7 +8199,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="7"/>
+      <c r="B405" s="22"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -8152,7 +8209,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="6"/>
+      <c r="B406" s="7"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -8162,7 +8219,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="7"/>
+      <c r="B407" s="6"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -8172,7 +8229,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="20"/>
+      <c r="B408" s="7"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -8182,7 +8239,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="22"/>
+      <c r="B409" s="20"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -8202,7 +8259,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="20"/>
+      <c r="B411" s="22"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -8242,7 +8299,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="7"/>
+      <c r="B415" s="20"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -8252,7 +8309,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="20"/>
+      <c r="B416" s="7"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -8272,7 +8329,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="7"/>
-      <c r="B418" s="22"/>
+      <c r="B418" s="20"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -8282,7 +8339,7 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="7"/>
-      <c r="B419" s="7"/>
+      <c r="B419" s="22"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -8292,7 +8349,7 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="7"/>
-      <c r="B420" s="6"/>
+      <c r="B420" s="7"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -8302,7 +8359,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="7"/>
+      <c r="B421" s="6"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -8322,7 +8379,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="7"/>
-      <c r="B423" s="6"/>
+      <c r="B423" s="7"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
@@ -8332,7 +8389,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="7"/>
-      <c r="B424" s="7"/>
+      <c r="B424" s="6"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -8342,7 +8399,7 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" s="7"/>
-      <c r="B425" s="20"/>
+      <c r="B425" s="7"/>
       <c r="C425" s="7"/>
       <c r="D425" s="7"/>
       <c r="E425" s="7"/>
@@ -8362,7 +8419,7 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" s="7"/>
-      <c r="B427" s="7"/>
+      <c r="B427" s="20"/>
       <c r="C427" s="7"/>
       <c r="D427" s="7"/>
       <c r="E427" s="7"/>
@@ -8372,7 +8429,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="7"/>
-      <c r="B428" s="6"/>
+      <c r="B428" s="7"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -8382,7 +8439,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="7"/>
-      <c r="B429" s="7"/>
+      <c r="B429" s="6"/>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
@@ -8432,7 +8489,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="7"/>
-      <c r="B434" s="6"/>
+      <c r="B434" s="7"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -8442,7 +8499,7 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" s="7"/>
-      <c r="B435" s="7"/>
+      <c r="B435" s="6"/>
       <c r="C435" s="7"/>
       <c r="D435" s="7"/>
       <c r="E435" s="7"/>
@@ -8502,7 +8559,7 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" s="7"/>
-      <c r="B441" s="6"/>
+      <c r="B441" s="7"/>
       <c r="C441" s="7"/>
       <c r="D441" s="7"/>
       <c r="E441" s="7"/>
@@ -8512,7 +8569,7 @@
     </row>
     <row r="442" spans="1:8">
       <c r="A442" s="7"/>
-      <c r="B442" s="7"/>
+      <c r="B442" s="6"/>
       <c r="C442" s="7"/>
       <c r="D442" s="7"/>
       <c r="E442" s="7"/>
@@ -8532,7 +8589,7 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="7"/>
-      <c r="B444" s="6"/>
+      <c r="B444" s="7"/>
       <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
@@ -8542,7 +8599,7 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="7"/>
-      <c r="B445" s="4"/>
+      <c r="B445" s="6"/>
       <c r="C445" s="7"/>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
@@ -8562,7 +8619,7 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" s="7"/>
-      <c r="B447" s="7"/>
+      <c r="B447" s="4"/>
       <c r="C447" s="7"/>
       <c r="D447" s="7"/>
       <c r="E447" s="7"/>
@@ -8592,7 +8649,7 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
-      <c r="B450" s="6"/>
+      <c r="B450" s="7"/>
       <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
@@ -8602,8 +8659,8 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
-      <c r="B451" s="7"/>
-      <c r="C451" s="4"/>
+      <c r="B451" s="6"/>
+      <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
       <c r="F451" s="7"/>
@@ -8653,7 +8710,7 @@
     <row r="456" spans="1:8">
       <c r="A456" s="7"/>
       <c r="B456" s="7"/>
-      <c r="C456" s="7"/>
+      <c r="C456" s="4"/>
       <c r="D456" s="7"/>
       <c r="E456" s="7"/>
       <c r="F456" s="7"/>
@@ -8662,7 +8719,7 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="7"/>
-      <c r="B457" s="6"/>
+      <c r="B457" s="7"/>
       <c r="C457" s="7"/>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
@@ -8672,8 +8729,8 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="7"/>
-      <c r="B458" s="7"/>
-      <c r="C458" s="4"/>
+      <c r="B458" s="6"/>
+      <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
       <c r="F458" s="7"/>
@@ -8713,7 +8770,7 @@
     <row r="462" spans="1:8">
       <c r="A462" s="7"/>
       <c r="B462" s="7"/>
-      <c r="C462" s="7"/>
+      <c r="C462" s="4"/>
       <c r="D462" s="7"/>
       <c r="E462" s="7"/>
       <c r="F462" s="7"/>
@@ -8722,7 +8779,7 @@
     </row>
     <row r="463" spans="1:8">
       <c r="A463" s="7"/>
-      <c r="B463" s="6"/>
+      <c r="B463" s="7"/>
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
       <c r="E463" s="7"/>
@@ -8732,7 +8789,7 @@
     </row>
     <row r="464" spans="1:8">
       <c r="A464" s="7"/>
-      <c r="B464" s="22"/>
+      <c r="B464" s="6"/>
       <c r="C464" s="7"/>
       <c r="D464" s="7"/>
       <c r="E464" s="7"/>
@@ -8792,7 +8849,7 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="7"/>
-      <c r="B470" s="7"/>
+      <c r="B470" s="22"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
       <c r="E470" s="7"/>
@@ -8802,7 +8859,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="7"/>
-      <c r="B471" s="6"/>
+      <c r="B471" s="7"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
@@ -8812,7 +8869,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="7"/>
-      <c r="B472" s="22"/>
+      <c r="B472" s="6"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
@@ -8841,8 +8898,8 @@
       <c r="H474" s="7"/>
     </row>
     <row r="475" spans="1:8">
-      <c r="A475" s="6"/>
-      <c r="B475" s="7"/>
+      <c r="A475" s="7"/>
+      <c r="B475" s="22"/>
       <c r="C475" s="7"/>
       <c r="D475" s="7"/>
       <c r="E475" s="7"/>
@@ -8851,7 +8908,7 @@
       <c r="H475" s="7"/>
     </row>
     <row r="476" spans="1:8">
-      <c r="A476" s="7"/>
+      <c r="A476" s="6"/>
       <c r="B476" s="7"/>
       <c r="C476" s="7"/>
       <c r="D476" s="7"/>
@@ -8892,7 +8949,7 @@
     </row>
     <row r="480" spans="1:8">
       <c r="A480" s="7"/>
-      <c r="B480" s="28"/>
+      <c r="B480" s="7"/>
       <c r="C480" s="7"/>
       <c r="D480" s="7"/>
       <c r="E480" s="7"/>
@@ -8922,7 +8979,7 @@
     </row>
     <row r="483" spans="1:8">
       <c r="A483" s="7"/>
-      <c r="B483" s="7"/>
+      <c r="B483" s="28"/>
       <c r="C483" s="7"/>
       <c r="D483" s="7"/>
       <c r="E483" s="7"/>
@@ -8932,7 +8989,7 @@
     </row>
     <row r="484" spans="1:8">
       <c r="A484" s="7"/>
-      <c r="B484" s="28"/>
+      <c r="B484" s="7"/>
       <c r="C484" s="7"/>
       <c r="D484" s="7"/>
       <c r="E484" s="7"/>
@@ -8942,7 +8999,7 @@
     </row>
     <row r="485" spans="1:8">
       <c r="A485" s="7"/>
-      <c r="B485" s="7"/>
+      <c r="B485" s="28"/>
       <c r="C485" s="7"/>
       <c r="D485" s="7"/>
       <c r="E485" s="7"/>
@@ -8952,21 +9009,21 @@
     </row>
     <row r="486" spans="1:8">
       <c r="A486" s="7"/>
-      <c r="B486" s="29"/>
-      <c r="C486" s="30"/>
+      <c r="B486" s="7"/>
+      <c r="C486" s="7"/>
       <c r="D486" s="7"/>
       <c r="E486" s="7"/>
-      <c r="F486" s="29"/>
+      <c r="F486" s="7"/>
       <c r="G486" s="30"/>
       <c r="H486" s="7"/>
     </row>
     <row r="487" spans="1:8">
       <c r="A487" s="7"/>
-      <c r="B487" s="7"/>
-      <c r="C487" s="7"/>
+      <c r="B487" s="29"/>
+      <c r="C487" s="30"/>
       <c r="D487" s="7"/>
       <c r="E487" s="7"/>
-      <c r="F487" s="7"/>
+      <c r="F487" s="29"/>
       <c r="G487" s="30"/>
       <c r="H487" s="7"/>
     </row>
@@ -12869,6 +12926,16 @@
       <c r="F877" s="7"/>
       <c r="G877" s="30"/>
       <c r="H877" s="7"/>
+    </row>
+    <row r="878" spans="1:8">
+      <c r="A878" s="7"/>
+      <c r="B878" s="7"/>
+      <c r="C878" s="7"/>
+      <c r="D878" s="7"/>
+      <c r="E878" s="7"/>
+      <c r="F878" s="7"/>
+      <c r="G878" s="30"/>
+      <c r="H878" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/JsonPretty Feature Matrix.xlsx
+++ b/JsonPretty Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="126">
   <si>
     <t>Feature</t>
   </si>
@@ -394,6 +394,9 @@
   <si>
     <t>copy rtf</t>
   </si>
+  <si>
+    <t>0.00.15</t>
+  </si>
 </sst>
 </file>
 
@@ -678,7 +681,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955302"/>
+          <c:w val="0.91978071330955313"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1270,11 +1273,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="125541760"/>
-        <c:axId val="125305984"/>
+        <c:axId val="124169600"/>
+        <c:axId val="123999360"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="125541760"/>
+        <c:axId val="124169600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1307,7 +1310,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125305984"/>
+        <c:crossAx val="123999360"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1315,7 +1318,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="125305984"/>
+        <c:axId val="123999360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1357,7 +1360,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125541760"/>
+        <c:crossAx val="124169600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1380,7 +1383,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.3735105630880095E-2"/>
-          <c:y val="0.24095083738519743"/>
+          <c:y val="0.24095083738519746"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1447,7 +1450,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001454" r="0.75000000000001454" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001465" r="0.75000000000001465" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1501,7 +1504,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127678E-2"/>
+          <c:x val="4.4510450248127699E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1655,11 +1658,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="125329792"/>
-        <c:axId val="125331328"/>
+        <c:axId val="124023168"/>
+        <c:axId val="124024704"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="125329792"/>
+        <c:axId val="124023168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,13 +1670,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="125331328"/>
+        <c:crossAx val="124024704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="125331328"/>
+        <c:axId val="124024704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1716,7 +1719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125329792"/>
+        <c:crossAx val="124023168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1765,7 +1768,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001454" r="0.75000000000001454" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001465" r="0.75000000000001465" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2081,11 +2084,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="125356288"/>
-        <c:axId val="125362176"/>
+        <c:axId val="124053760"/>
+        <c:axId val="164302848"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="125356288"/>
+        <c:axId val="124053760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2118,14 +2121,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125362176"/>
+        <c:crossAx val="164302848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:minorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="125362176"/>
+        <c:axId val="164302848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2167,7 +2170,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125356288"/>
+        <c:crossAx val="124053760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2216,7 +2219,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001454" r="0.75000000000001454" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001465" r="0.75000000000001465" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3855,7 +3858,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O6" sqref="O6"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -4506,7 +4509,7 @@
         <v>2</v>
       </c>
       <c r="F64" s="28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G64" s="30">
         <f t="shared" ref="G64" si="3">B64/SUM(B64:E64)</f>
@@ -4577,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="30"/>
